--- a/2017 processed/Outliers Environmental.xlsx
+++ b/2017 processed/Outliers Environmental.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haley\Documents\Psychology\DOOM Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haley\Documents\GitHub\Outliers\2017 processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="134">
   <si>
     <t>Type</t>
   </si>
@@ -324,6 +324,108 @@
   </si>
   <si>
     <t xml:space="preserve">regression analysis, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary spaces and their cues as facilitators of personal and social inferences </t>
+  </si>
+  <si>
+    <t>Perez-Lopez, Aragones, and Amerigo</t>
+  </si>
+  <si>
+    <t>Frequency, descriptives</t>
+  </si>
+  <si>
+    <t>Zijlstra et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motion nature projection reduces patient's psycho-physiological anxiety during CT imaging </t>
+  </si>
+  <si>
+    <t xml:space="preserve">descriptives, chi squared, linear regression, </t>
+  </si>
+  <si>
+    <t>Junot, Paquet, and Martin-Krumm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passion for outdoor activities and environmental behaviors: A look at emotions related to passionate activities </t>
+  </si>
+  <si>
+    <t>Ffteen individuals who were “non-passionate” toward outdoor activities were removed from subsequent analyses after te primary analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANOVA, correlation, Path Ananlysis </t>
+  </si>
+  <si>
+    <t>Casado, Hidalgo, Garcia-Leiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energyefﬁciency in households: The effectiveness of different types of messages in advertising campaigns </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANOVA, </t>
+  </si>
+  <si>
+    <t>Meleady and Crisp</t>
+  </si>
+  <si>
+    <t>Redeﬁning climate change inaction as temporal intergroup bias: Temporally adapted interventions for reducing prejudice may help elicit environmental protection</t>
+  </si>
+  <si>
+    <t>descriptives</t>
+  </si>
+  <si>
+    <t>removed for not completing manipulation in full</t>
+  </si>
+  <si>
+    <t>pilot</t>
+  </si>
+  <si>
+    <t>An agent-based model for diffusion of electric vehicles</t>
+  </si>
+  <si>
+    <t>Kangur, Jager, Verbrugge, and Bockarjova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dynamic and spatially explicit psychological model of the diffusion of green electricity across Germany </t>
+  </si>
+  <si>
+    <t>Ernst and Briegel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using agent-based models to compare behavioral theories on experimental data: Application for irrigation games </t>
+  </si>
+  <si>
+    <t>Janssen, Baggio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opinions on contested energy infrastructures: An empirically based simulation approach </t>
+  </si>
+  <si>
+    <t>Stefanelli and Seidl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time spent outdoors during preschool: Links with children's cognitive and behavioral development </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulset et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">regression </t>
+  </si>
+  <si>
+    <t xml:space="preserve">time series </t>
+  </si>
+  <si>
+    <t>mixed model,</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Bivariate Correlation, Growth Curve Analysis, multilevel mixed models</t>
+  </si>
+  <si>
+    <t>agent based model</t>
   </si>
 </sst>
 </file>
@@ -1412,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1090"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2438,17 +2540,28 @@
       <c r="AF19" s="15"/>
       <c r="AG19" s="15"/>
     </row>
-    <row r="20" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="C20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="10">
+        <v>214</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
@@ -2472,18 +2585,28 @@
       <c r="AF20" s="15"/>
       <c r="AG20" s="15"/>
     </row>
-    <row r="21" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="10"/>
+      <c r="C21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="14">
+        <v>97</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
@@ -2503,18 +2626,43 @@
       <c r="AF21" s="15"/>
       <c r="AG21" s="15"/>
     </row>
-    <row r="22" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="C22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="10">
+        <v>212</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M22" s="9">
+        <v>197</v>
+      </c>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="12"/>
@@ -2533,17 +2681,28 @@
       <c r="AF22" s="15"/>
       <c r="AG22" s="15"/>
     </row>
-    <row r="23" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="C23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="10">
+        <v>176</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
@@ -2566,18 +2725,46 @@
       <c r="AF23" s="15"/>
       <c r="AG23" s="15"/>
     </row>
-    <row r="24" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="C24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="10">
+        <v>140</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="9">
+        <v>139</v>
+      </c>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="12"/>
@@ -2588,7 +2775,9 @@
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
+      <c r="AA24" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="AB24" s="11"/>
       <c r="AC24" s="11"/>
       <c r="AD24" s="15"/>
@@ -2596,17 +2785,28 @@
       <c r="AF24" s="15"/>
       <c r="AG24" s="15"/>
     </row>
-    <row r="25" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="C25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="10">
+        <v>80</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="12"/>
@@ -2617,7 +2817,9 @@
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
+      <c r="AA25" s="12">
+        <v>1</v>
+      </c>
       <c r="AB25" s="11"/>
       <c r="AC25" s="11"/>
       <c r="AD25" s="15"/>
@@ -2625,21 +2827,46 @@
       <c r="AF25" s="15"/>
       <c r="AG25" s="15"/>
     </row>
-    <row r="26" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="10">
+        <v>184</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" s="9">
+        <v>183</v>
+      </c>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="12"/>
@@ -2650,7 +2877,9 @@
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
+      <c r="AA26" s="12">
+        <v>2</v>
+      </c>
       <c r="AB26" s="11"/>
       <c r="AC26" s="11"/>
       <c r="AD26" s="15"/>
@@ -2658,51 +2887,73 @@
       <c r="AF26" s="15"/>
       <c r="AG26" s="15"/>
     </row>
-    <row r="27" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="10"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
-      <c r="AF27" s="15"/>
-      <c r="AG27" s="15"/>
-    </row>
-    <row r="28" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C27" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2977</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="3"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="17"/>
+    </row>
+    <row r="28" spans="1:33" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="C28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="10">
+        <v>778</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -2726,17 +2977,28 @@
       <c r="AF28" s="15"/>
       <c r="AG28" s="15"/>
     </row>
-    <row r="29" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="C29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="10">
+        <v>220</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
@@ -2760,17 +3022,28 @@
       <c r="AF29" s="15"/>
       <c r="AG29" s="15"/>
     </row>
-    <row r="30" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="C30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="10">
+        <v>844</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
@@ -2795,13 +3068,24 @@
       <c r="AF30" s="15"/>
       <c r="AG30" s="15"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="20"/>
       <c r="B31" s="3"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="C31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="10">
+        <v>562</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>

--- a/2017 processed/Outliers Environmental.xlsx
+++ b/2017 processed/Outliers Environmental.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haley\Documents\GitHub\Outliers\2017 processed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Missouri State University/RESEARCH/2 projects/Outliers/2017 processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22118" windowHeight="8536"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="135">
   <si>
     <t>Type</t>
   </si>
@@ -426,6 +426,11 @@
   </si>
   <si>
     <t>agent based model</t>
+  </si>
+  <si>
+    <t>Why young people do things for the environment: The role of
+parenting for adolescents’ motivation to engage in pro-environmental
+behaviour</t>
   </si>
 </sst>
 </file>
@@ -1175,7 +1180,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table13" displayName="Table13" ref="A1:AG49" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="A1:AG49"/>
   <tableColumns count="33">
     <tableColumn id="1" name="Type" dataDxfId="32"/>
     <tableColumn id="2" name="Journal" dataDxfId="31"/>
@@ -1514,49 +1518,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG1090"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="21.8984375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="28.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="9" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="9" customWidth="1"/>
-    <col min="8" max="8" width="16.8984375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.296875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="22.8984375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" style="9" customWidth="1"/>
     <col min="11" max="11" width="46" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.69921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.5" style="9" customWidth="1"/>
-    <col min="14" max="14" width="24.09765625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="36.3984375" style="9" customWidth="1"/>
-    <col min="16" max="16" width="12.69921875" style="9" customWidth="1"/>
-    <col min="17" max="17" width="13.19921875" style="9" customWidth="1"/>
+    <col min="14" max="14" width="24.1640625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="36.33203125" style="9" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" style="9" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" style="9" customWidth="1"/>
     <col min="18" max="18" width="6" style="9" customWidth="1"/>
-    <col min="19" max="19" width="11.796875" style="9" customWidth="1"/>
-    <col min="20" max="20" width="7.59765625" style="9" customWidth="1"/>
-    <col min="21" max="21" width="8.3984375" style="9" customWidth="1"/>
-    <col min="22" max="22" width="11.19921875" style="9" customWidth="1"/>
-    <col min="23" max="23" width="10.3984375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" style="9" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" style="9" customWidth="1"/>
+    <col min="21" max="21" width="8.33203125" style="9" customWidth="1"/>
+    <col min="22" max="22" width="11.1640625" style="9" customWidth="1"/>
+    <col min="23" max="23" width="10.33203125" style="9" customWidth="1"/>
     <col min="24" max="24" width="14" style="9" customWidth="1"/>
-    <col min="25" max="25" width="9.8984375" style="9" customWidth="1"/>
-    <col min="26" max="26" width="11.59765625" style="9" customWidth="1"/>
-    <col min="27" max="27" width="25.796875" style="9" customWidth="1"/>
-    <col min="28" max="28" width="14.59765625" style="9" customWidth="1"/>
-    <col min="29" max="29" width="11.19921875" style="9" customWidth="1"/>
-    <col min="30" max="30" width="12.19921875" style="9" customWidth="1"/>
-    <col min="31" max="31" width="9.3984375" style="9" customWidth="1"/>
-    <col min="32" max="32" width="14.796875" style="9" customWidth="1"/>
-    <col min="33" max="33" width="16.09765625" style="9" customWidth="1"/>
-    <col min="34" max="16384" width="8.796875" style="9"/>
+    <col min="25" max="25" width="9.83203125" style="9" customWidth="1"/>
+    <col min="26" max="26" width="11.6640625" style="9" customWidth="1"/>
+    <col min="27" max="27" width="25.83203125" style="9" customWidth="1"/>
+    <col min="28" max="28" width="14.6640625" style="9" customWidth="1"/>
+    <col min="29" max="29" width="11.1640625" style="9" customWidth="1"/>
+    <col min="30" max="30" width="12.1640625" style="9" customWidth="1"/>
+    <col min="31" max="31" width="9.33203125" style="9" customWidth="1"/>
+    <col min="32" max="32" width="14.83203125" style="9" customWidth="1"/>
+    <col min="33" max="33" width="16.1640625" style="9" customWidth="1"/>
+    <col min="34" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1657,7 +1661,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
@@ -1702,7 +1706,7 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:33" s="5" customFormat="1" ht="58.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" s="5" customFormat="1" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>41</v>
       </c>
@@ -1710,7 +1714,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>47</v>
@@ -1747,7 +1751,7 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>41</v>
       </c>
@@ -1803,7 +1807,7 @@
       <c r="AF4" s="11"/>
       <c r="AG4" s="11"/>
     </row>
-    <row r="5" spans="1:33" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
@@ -1864,7 +1868,7 @@
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
     </row>
-    <row r="6" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
@@ -1907,7 +1911,7 @@
       <c r="AF6" s="11"/>
       <c r="AG6" s="11"/>
     </row>
-    <row r="7" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -1952,7 +1956,7 @@
       <c r="AF7" s="11"/>
       <c r="AG7" s="11"/>
     </row>
-    <row r="8" spans="1:33" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" ht="75" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
@@ -1999,7 +2003,7 @@
       <c r="AF8" s="11"/>
       <c r="AG8" s="11"/>
     </row>
-    <row r="9" spans="1:33" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" ht="75" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -2045,7 +2049,7 @@
       <c r="AF9" s="11"/>
       <c r="AG9" s="11"/>
     </row>
-    <row r="10" spans="1:33" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" ht="75" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
@@ -2090,7 +2094,7 @@
       <c r="AF10" s="11"/>
       <c r="AG10" s="11"/>
     </row>
-    <row r="11" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
@@ -2137,7 +2141,7 @@
       <c r="AF11" s="15"/>
       <c r="AG11" s="15"/>
     </row>
-    <row r="12" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -2194,7 +2198,7 @@
       <c r="AF12" s="15"/>
       <c r="AG12" s="15"/>
     </row>
-    <row r="13" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>41</v>
       </c>
@@ -2241,7 +2245,7 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>41</v>
       </c>
@@ -2287,7 +2291,7 @@
       <c r="AF14" s="15"/>
       <c r="AG14" s="15"/>
     </row>
-    <row r="15" spans="1:33" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>41</v>
       </c>
@@ -2345,7 +2349,7 @@
       <c r="AF15" s="17"/>
       <c r="AG15" s="17"/>
     </row>
-    <row r="16" spans="1:33" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" ht="60" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -2397,7 +2401,7 @@
       <c r="AF16" s="15"/>
       <c r="AG16" s="15"/>
     </row>
-    <row r="17" spans="1:33" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>41</v>
       </c>
@@ -2437,7 +2441,7 @@
       <c r="AF17" s="15"/>
       <c r="AG17" s="15"/>
     </row>
-    <row r="18" spans="1:33" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
@@ -2495,7 +2499,7 @@
       <c r="AF18" s="15"/>
       <c r="AG18" s="15"/>
     </row>
-    <row r="19" spans="1:33" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>41</v>
       </c>
@@ -2540,7 +2544,7 @@
       <c r="AF19" s="15"/>
       <c r="AG19" s="15"/>
     </row>
-    <row r="20" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>41</v>
       </c>
@@ -2585,7 +2589,7 @@
       <c r="AF20" s="15"/>
       <c r="AG20" s="15"/>
     </row>
-    <row r="21" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>41</v>
       </c>
@@ -2626,7 +2630,7 @@
       <c r="AF21" s="15"/>
       <c r="AG21" s="15"/>
     </row>
-    <row r="22" spans="1:33" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" ht="60" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
@@ -2681,7 +2685,7 @@
       <c r="AF22" s="15"/>
       <c r="AG22" s="15"/>
     </row>
-    <row r="23" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
@@ -2725,7 +2729,7 @@
       <c r="AF23" s="15"/>
       <c r="AG23" s="15"/>
     </row>
-    <row r="24" spans="1:33" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" ht="75" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>41</v>
       </c>
@@ -2785,7 +2789,7 @@
       <c r="AF24" s="15"/>
       <c r="AG24" s="15"/>
     </row>
-    <row r="25" spans="1:33" ht="72" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" ht="75" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
@@ -2827,7 +2831,7 @@
       <c r="AF25" s="15"/>
       <c r="AG25" s="15"/>
     </row>
-    <row r="26" spans="1:33" ht="72" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" ht="75" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
@@ -2887,7 +2891,7 @@
       <c r="AF26" s="15"/>
       <c r="AG26" s="15"/>
     </row>
-    <row r="27" spans="1:33" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>41</v>
       </c>
@@ -2932,7 +2936,7 @@
       <c r="AF27" s="17"/>
       <c r="AG27" s="17"/>
     </row>
-    <row r="28" spans="1:33" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" ht="60" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>41</v>
       </c>
@@ -2977,7 +2981,7 @@
       <c r="AF28" s="15"/>
       <c r="AG28" s="15"/>
     </row>
-    <row r="29" spans="1:33" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" ht="60" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
@@ -3022,7 +3026,7 @@
       <c r="AF29" s="15"/>
       <c r="AG29" s="15"/>
     </row>
-    <row r="30" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" ht="45" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>41</v>
       </c>
@@ -3068,9 +3072,13 @@
       <c r="AF30" s="15"/>
       <c r="AG30" s="15"/>
     </row>
-    <row r="31" spans="1:33" ht="72" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="3"/>
+    <row r="31" spans="1:33" ht="75" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>126</v>
       </c>
@@ -3108,7 +3116,7 @@
       <c r="AF31" s="15"/>
       <c r="AG31" s="15"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="20"/>
       <c r="B32" s="3"/>
       <c r="D32" s="2"/>
@@ -3133,7 +3141,7 @@
       <c r="AF32" s="15"/>
       <c r="AG32" s="15"/>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="20"/>
       <c r="B33" s="3"/>
       <c r="D33" s="2"/>
@@ -3158,7 +3166,7 @@
       <c r="AF33" s="15"/>
       <c r="AG33" s="15"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -3188,7 +3196,7 @@
       <c r="AF34" s="15"/>
       <c r="AG34" s="15"/>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D35" s="2"/>
       <c r="E35" s="4"/>
       <c r="F35" s="10"/>
@@ -3211,7 +3219,7 @@
       <c r="AF35" s="15"/>
       <c r="AG35" s="15"/>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="G36" s="10"/>
       <c r="H36" s="2"/>
       <c r="I36" s="10"/>
@@ -3235,7 +3243,7 @@
       <c r="AF36" s="15"/>
       <c r="AG36" s="15"/>
     </row>
-    <row r="37" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -3260,7 +3268,7 @@
       <c r="AF37" s="17"/>
       <c r="AG37" s="17"/>
     </row>
-    <row r="38" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -3285,7 +3293,7 @@
       <c r="AF38" s="17"/>
       <c r="AG38" s="17"/>
     </row>
-    <row r="39" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -3310,7 +3318,7 @@
       <c r="AF39" s="17"/>
       <c r="AG39" s="17"/>
     </row>
-    <row r="40" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -3335,7 +3343,7 @@
       <c r="AF40" s="17"/>
       <c r="AG40" s="17"/>
     </row>
-    <row r="41" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -3360,7 +3368,7 @@
       <c r="AF41" s="17"/>
       <c r="AG41" s="17"/>
     </row>
-    <row r="42" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -3385,7 +3393,7 @@
       <c r="AF42" s="17"/>
       <c r="AG42" s="17"/>
     </row>
-    <row r="43" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -3410,7 +3418,7 @@
       <c r="AF43" s="17"/>
       <c r="AG43" s="17"/>
     </row>
-    <row r="44" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -3435,7 +3443,7 @@
       <c r="AF44" s="7"/>
       <c r="AG44" s="7"/>
     </row>
-    <row r="45" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -3460,7 +3468,7 @@
       <c r="AF45" s="7"/>
       <c r="AG45" s="7"/>
     </row>
-    <row r="46" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -3485,7 +3493,7 @@
       <c r="AF46" s="7"/>
       <c r="AG46" s="7"/>
     </row>
-    <row r="47" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -3510,7 +3518,7 @@
       <c r="AF47" s="7"/>
       <c r="AG47" s="7"/>
     </row>
-    <row r="48" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -3535,7 +3543,7 @@
       <c r="AF48" s="7"/>
       <c r="AG48" s="7"/>
     </row>
-    <row r="49" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -3560,7 +3568,7 @@
       <c r="AF49" s="7"/>
       <c r="AG49" s="7"/>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="12"/>
@@ -3579,7 +3587,7 @@
       <c r="AF50" s="11"/>
       <c r="AG50" s="11"/>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="12"/>
@@ -3598,7 +3606,7 @@
       <c r="AF51" s="11"/>
       <c r="AG51" s="11"/>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
       <c r="R52" s="12"/>
@@ -3617,7 +3625,7 @@
       <c r="AF52" s="11"/>
       <c r="AG52" s="11"/>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
       <c r="R53" s="12"/>
@@ -3636,7 +3644,7 @@
       <c r="AF53" s="11"/>
       <c r="AG53" s="11"/>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
       <c r="R54" s="12"/>
@@ -3655,7 +3663,7 @@
       <c r="AF54" s="11"/>
       <c r="AG54" s="11"/>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
       <c r="R55" s="12"/>
@@ -3674,7 +3682,7 @@
       <c r="AF55" s="11"/>
       <c r="AG55" s="11"/>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="12"/>
@@ -3693,7 +3701,7 @@
       <c r="AF56" s="11"/>
       <c r="AG56" s="11"/>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
       <c r="R57" s="12"/>
@@ -3712,7 +3720,7 @@
       <c r="AF57" s="11"/>
       <c r="AG57" s="11"/>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
       <c r="R58" s="12"/>
@@ -3731,7 +3739,7 @@
       <c r="AF58" s="11"/>
       <c r="AG58" s="11"/>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
       <c r="R59" s="12"/>
@@ -3750,7 +3758,7 @@
       <c r="AF59" s="11"/>
       <c r="AG59" s="11"/>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
       <c r="R60" s="12"/>
@@ -3769,7 +3777,7 @@
       <c r="AF60" s="11"/>
       <c r="AG60" s="11"/>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
       <c r="R61" s="12"/>
@@ -3788,7 +3796,7 @@
       <c r="AF61" s="11"/>
       <c r="AG61" s="11"/>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
       <c r="R62" s="12"/>
@@ -3807,7 +3815,7 @@
       <c r="AF62" s="11"/>
       <c r="AG62" s="11"/>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
       <c r="R63" s="12"/>
@@ -3826,7 +3834,7 @@
       <c r="AF63" s="11"/>
       <c r="AG63" s="11"/>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
       <c r="R64" s="12"/>
@@ -3845,7 +3853,7 @@
       <c r="AF64" s="11"/>
       <c r="AG64" s="11"/>
     </row>
-    <row r="65" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="65" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
       <c r="R65" s="12"/>
@@ -3864,7 +3872,7 @@
       <c r="AF65" s="11"/>
       <c r="AG65" s="11"/>
     </row>
-    <row r="66" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="66" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
       <c r="R66" s="12"/>
@@ -3883,7 +3891,7 @@
       <c r="AF66" s="11"/>
       <c r="AG66" s="11"/>
     </row>
-    <row r="67" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="67" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P67" s="11"/>
       <c r="Q67" s="11"/>
       <c r="R67" s="12"/>
@@ -3902,7 +3910,7 @@
       <c r="AF67" s="11"/>
       <c r="AG67" s="11"/>
     </row>
-    <row r="68" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="68" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
       <c r="R68" s="12"/>
@@ -3921,7 +3929,7 @@
       <c r="AF68" s="11"/>
       <c r="AG68" s="11"/>
     </row>
-    <row r="69" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="69" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P69" s="11"/>
       <c r="Q69" s="11"/>
       <c r="R69" s="12"/>
@@ -3940,7 +3948,7 @@
       <c r="AF69" s="11"/>
       <c r="AG69" s="11"/>
     </row>
-    <row r="70" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="70" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P70" s="11"/>
       <c r="Q70" s="11"/>
       <c r="R70" s="12"/>
@@ -3959,7 +3967,7 @@
       <c r="AF70" s="11"/>
       <c r="AG70" s="11"/>
     </row>
-    <row r="71" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="71" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P71" s="11"/>
       <c r="Q71" s="11"/>
       <c r="R71" s="12"/>
@@ -3978,7 +3986,7 @@
       <c r="AF71" s="11"/>
       <c r="AG71" s="11"/>
     </row>
-    <row r="72" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="72" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P72" s="11"/>
       <c r="Q72" s="11"/>
       <c r="R72" s="12"/>
@@ -3997,7 +4005,7 @@
       <c r="AF72" s="11"/>
       <c r="AG72" s="11"/>
     </row>
-    <row r="73" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="73" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P73" s="11"/>
       <c r="Q73" s="11"/>
       <c r="R73" s="12"/>
@@ -4016,7 +4024,7 @@
       <c r="AF73" s="11"/>
       <c r="AG73" s="11"/>
     </row>
-    <row r="74" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="74" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P74" s="11"/>
       <c r="Q74" s="11"/>
       <c r="R74" s="12"/>
@@ -4035,7 +4043,7 @@
       <c r="AF74" s="11"/>
       <c r="AG74" s="11"/>
     </row>
-    <row r="75" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="75" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P75" s="11"/>
       <c r="Q75" s="11"/>
       <c r="R75" s="12"/>
@@ -4054,7 +4062,7 @@
       <c r="AF75" s="11"/>
       <c r="AG75" s="11"/>
     </row>
-    <row r="76" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="76" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P76" s="11"/>
       <c r="Q76" s="11"/>
       <c r="R76" s="12"/>
@@ -4073,7 +4081,7 @@
       <c r="AF76" s="11"/>
       <c r="AG76" s="11"/>
     </row>
-    <row r="77" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="77" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P77" s="11"/>
       <c r="Q77" s="11"/>
       <c r="R77" s="12"/>
@@ -4092,7 +4100,7 @@
       <c r="AF77" s="11"/>
       <c r="AG77" s="11"/>
     </row>
-    <row r="78" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="78" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P78" s="11"/>
       <c r="Q78" s="11"/>
       <c r="R78" s="12"/>
@@ -4111,7 +4119,7 @@
       <c r="AF78" s="11"/>
       <c r="AG78" s="11"/>
     </row>
-    <row r="79" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="79" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P79" s="11"/>
       <c r="Q79" s="11"/>
       <c r="R79" s="12"/>
@@ -4130,7 +4138,7 @@
       <c r="AF79" s="11"/>
       <c r="AG79" s="11"/>
     </row>
-    <row r="80" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="80" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P80" s="11"/>
       <c r="Q80" s="11"/>
       <c r="R80" s="12"/>
@@ -4149,7 +4157,7 @@
       <c r="AF80" s="11"/>
       <c r="AG80" s="11"/>
     </row>
-    <row r="81" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="81" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P81" s="11"/>
       <c r="Q81" s="11"/>
       <c r="R81" s="12"/>
@@ -4168,7 +4176,7 @@
       <c r="AF81" s="11"/>
       <c r="AG81" s="11"/>
     </row>
-    <row r="82" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="82" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P82" s="11"/>
       <c r="Q82" s="11"/>
       <c r="R82" s="12"/>
@@ -4187,7 +4195,7 @@
       <c r="AF82" s="11"/>
       <c r="AG82" s="11"/>
     </row>
-    <row r="83" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="83" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P83" s="11"/>
       <c r="Q83" s="11"/>
       <c r="R83" s="12"/>
@@ -4206,7 +4214,7 @@
       <c r="AF83" s="11"/>
       <c r="AG83" s="11"/>
     </row>
-    <row r="84" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="84" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P84" s="11"/>
       <c r="Q84" s="11"/>
       <c r="R84" s="12"/>
@@ -4225,7 +4233,7 @@
       <c r="AF84" s="11"/>
       <c r="AG84" s="11"/>
     </row>
-    <row r="85" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="85" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P85" s="11"/>
       <c r="Q85" s="11"/>
       <c r="R85" s="12"/>
@@ -4244,7 +4252,7 @@
       <c r="AF85" s="11"/>
       <c r="AG85" s="11"/>
     </row>
-    <row r="86" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="86" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P86" s="11"/>
       <c r="Q86" s="11"/>
       <c r="R86" s="12"/>
@@ -4263,7 +4271,7 @@
       <c r="AF86" s="15"/>
       <c r="AG86" s="15"/>
     </row>
-    <row r="87" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="87" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P87" s="11"/>
       <c r="Q87" s="11"/>
       <c r="R87" s="12"/>
@@ -4282,7 +4290,7 @@
       <c r="AF87" s="15"/>
       <c r="AG87" s="15"/>
     </row>
-    <row r="88" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="88" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P88" s="11"/>
       <c r="Q88" s="11"/>
       <c r="R88" s="12"/>
@@ -4301,7 +4309,7 @@
       <c r="AF88" s="15"/>
       <c r="AG88" s="15"/>
     </row>
-    <row r="89" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="89" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P89" s="11"/>
       <c r="Q89" s="11"/>
       <c r="R89" s="12"/>
@@ -4320,7 +4328,7 @@
       <c r="AF89" s="15"/>
       <c r="AG89" s="15"/>
     </row>
-    <row r="90" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="90" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P90" s="11"/>
       <c r="Q90" s="11"/>
       <c r="R90" s="12"/>
@@ -4339,7 +4347,7 @@
       <c r="AF90" s="15"/>
       <c r="AG90" s="15"/>
     </row>
-    <row r="91" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="91" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P91" s="11"/>
       <c r="Q91" s="11"/>
       <c r="R91" s="12"/>
@@ -4358,7 +4366,7 @@
       <c r="AF91" s="15"/>
       <c r="AG91" s="15"/>
     </row>
-    <row r="92" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="92" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P92" s="11"/>
       <c r="Q92" s="11"/>
       <c r="R92" s="12"/>
@@ -4377,7 +4385,7 @@
       <c r="AF92" s="15"/>
       <c r="AG92" s="15"/>
     </row>
-    <row r="93" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="93" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P93" s="11"/>
       <c r="Q93" s="11"/>
       <c r="R93" s="12"/>
@@ -4396,7 +4404,7 @@
       <c r="AF93" s="15"/>
       <c r="AG93" s="15"/>
     </row>
-    <row r="94" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="94" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P94" s="11"/>
       <c r="Q94" s="11"/>
       <c r="R94" s="12"/>
@@ -4415,7 +4423,7 @@
       <c r="AF94" s="15"/>
       <c r="AG94" s="15"/>
     </row>
-    <row r="95" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="95" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P95" s="11"/>
       <c r="Q95" s="11"/>
       <c r="R95" s="12"/>
@@ -4434,7 +4442,7 @@
       <c r="AF95" s="15"/>
       <c r="AG95" s="15"/>
     </row>
-    <row r="96" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="96" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P96" s="11"/>
       <c r="Q96" s="11"/>
       <c r="R96" s="12"/>
@@ -4453,7 +4461,7 @@
       <c r="AF96" s="15"/>
       <c r="AG96" s="15"/>
     </row>
-    <row r="97" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="97" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P97" s="11"/>
       <c r="Q97" s="11"/>
       <c r="R97" s="12"/>
@@ -4472,7 +4480,7 @@
       <c r="AF97" s="15"/>
       <c r="AG97" s="15"/>
     </row>
-    <row r="98" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="98" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P98" s="11"/>
       <c r="Q98" s="11"/>
       <c r="R98" s="12"/>
@@ -4491,7 +4499,7 @@
       <c r="AF98" s="15"/>
       <c r="AG98" s="15"/>
     </row>
-    <row r="99" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="99" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P99" s="11"/>
       <c r="Q99" s="11"/>
       <c r="R99" s="12"/>
@@ -4510,7 +4518,7 @@
       <c r="AF99" s="15"/>
       <c r="AG99" s="15"/>
     </row>
-    <row r="100" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="100" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P100" s="11"/>
       <c r="Q100" s="11"/>
       <c r="R100" s="12"/>
@@ -4529,7 +4537,7 @@
       <c r="AF100" s="15"/>
       <c r="AG100" s="15"/>
     </row>
-    <row r="101" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="101" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P101" s="11"/>
       <c r="Q101" s="11"/>
       <c r="R101" s="12"/>
@@ -4548,7 +4556,7 @@
       <c r="AF101" s="15"/>
       <c r="AG101" s="15"/>
     </row>
-    <row r="102" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="102" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P102" s="11"/>
       <c r="Q102" s="11"/>
       <c r="R102" s="12"/>
@@ -4567,7 +4575,7 @@
       <c r="AF102" s="15"/>
       <c r="AG102" s="15"/>
     </row>
-    <row r="103" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="103" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P103" s="11"/>
       <c r="Q103" s="11"/>
       <c r="R103" s="12"/>
@@ -4586,7 +4594,7 @@
       <c r="AF103" s="15"/>
       <c r="AG103" s="15"/>
     </row>
-    <row r="104" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="104" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P104" s="11"/>
       <c r="Q104" s="11"/>
       <c r="R104" s="12"/>
@@ -4605,7 +4613,7 @@
       <c r="AF104" s="15"/>
       <c r="AG104" s="15"/>
     </row>
-    <row r="105" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="105" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P105" s="11"/>
       <c r="Q105" s="11"/>
       <c r="R105" s="12"/>
@@ -4624,7 +4632,7 @@
       <c r="AF105" s="15"/>
       <c r="AG105" s="15"/>
     </row>
-    <row r="106" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="106" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P106" s="11"/>
       <c r="Q106" s="11"/>
       <c r="R106" s="12"/>
@@ -4643,7 +4651,7 @@
       <c r="AF106" s="15"/>
       <c r="AG106" s="15"/>
     </row>
-    <row r="107" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="107" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P107" s="11"/>
       <c r="Q107" s="11"/>
       <c r="R107" s="12"/>
@@ -4662,7 +4670,7 @@
       <c r="AF107" s="15"/>
       <c r="AG107" s="15"/>
     </row>
-    <row r="108" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="108" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P108" s="11"/>
       <c r="Q108" s="11"/>
       <c r="R108" s="12"/>
@@ -4681,7 +4689,7 @@
       <c r="AF108" s="15"/>
       <c r="AG108" s="15"/>
     </row>
-    <row r="109" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="109" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P109" s="11"/>
       <c r="Q109" s="11"/>
       <c r="R109" s="12"/>
@@ -4700,7 +4708,7 @@
       <c r="AF109" s="15"/>
       <c r="AG109" s="15"/>
     </row>
-    <row r="110" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="110" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P110" s="11"/>
       <c r="Q110" s="11"/>
       <c r="R110" s="12"/>
@@ -4719,7 +4727,7 @@
       <c r="AF110" s="15"/>
       <c r="AG110" s="15"/>
     </row>
-    <row r="111" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="111" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P111" s="11"/>
       <c r="Q111" s="11"/>
       <c r="R111" s="12"/>
@@ -4738,7 +4746,7 @@
       <c r="AF111" s="15"/>
       <c r="AG111" s="15"/>
     </row>
-    <row r="112" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="112" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P112" s="11"/>
       <c r="Q112" s="11"/>
       <c r="R112" s="12"/>
@@ -4757,7 +4765,7 @@
       <c r="AF112" s="15"/>
       <c r="AG112" s="15"/>
     </row>
-    <row r="113" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="113" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P113" s="11"/>
       <c r="Q113" s="11"/>
       <c r="R113" s="12"/>
@@ -4776,7 +4784,7 @@
       <c r="AF113" s="15"/>
       <c r="AG113" s="15"/>
     </row>
-    <row r="114" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="114" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P114" s="11"/>
       <c r="Q114" s="11"/>
       <c r="R114" s="12"/>
@@ -4795,7 +4803,7 @@
       <c r="AF114" s="15"/>
       <c r="AG114" s="15"/>
     </row>
-    <row r="115" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="115" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P115" s="11"/>
       <c r="Q115" s="11"/>
       <c r="R115" s="12"/>
@@ -4814,7 +4822,7 @@
       <c r="AF115" s="15"/>
       <c r="AG115" s="15"/>
     </row>
-    <row r="116" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="116" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P116" s="11"/>
       <c r="Q116" s="11"/>
       <c r="R116" s="12"/>
@@ -4833,7 +4841,7 @@
       <c r="AF116" s="15"/>
       <c r="AG116" s="15"/>
     </row>
-    <row r="117" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="117" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P117" s="11"/>
       <c r="Q117" s="11"/>
       <c r="R117" s="12"/>
@@ -4852,7 +4860,7 @@
       <c r="AF117" s="15"/>
       <c r="AG117" s="15"/>
     </row>
-    <row r="118" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="118" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P118" s="11"/>
       <c r="Q118" s="11"/>
       <c r="R118" s="12"/>
@@ -4871,7 +4879,7 @@
       <c r="AF118" s="15"/>
       <c r="AG118" s="15"/>
     </row>
-    <row r="119" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="119" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P119" s="11"/>
       <c r="Q119" s="11"/>
       <c r="R119" s="12"/>
@@ -4890,7 +4898,7 @@
       <c r="AF119" s="15"/>
       <c r="AG119" s="15"/>
     </row>
-    <row r="120" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="120" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P120" s="11"/>
       <c r="Q120" s="11"/>
       <c r="R120" s="12"/>
@@ -4909,7 +4917,7 @@
       <c r="AF120" s="15"/>
       <c r="AG120" s="15"/>
     </row>
-    <row r="121" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="121" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P121" s="11"/>
       <c r="Q121" s="11"/>
       <c r="R121" s="12"/>
@@ -4928,7 +4936,7 @@
       <c r="AF121" s="15"/>
       <c r="AG121" s="15"/>
     </row>
-    <row r="122" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="122" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P122" s="11"/>
       <c r="Q122" s="11"/>
       <c r="R122" s="12"/>
@@ -4947,7 +4955,7 @@
       <c r="AF122" s="15"/>
       <c r="AG122" s="15"/>
     </row>
-    <row r="123" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="123" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P123" s="11"/>
       <c r="Q123" s="11"/>
       <c r="R123" s="12"/>
@@ -4966,7 +4974,7 @@
       <c r="AF123" s="15"/>
       <c r="AG123" s="15"/>
     </row>
-    <row r="124" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="124" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P124" s="11"/>
       <c r="Q124" s="11"/>
       <c r="R124" s="12"/>
@@ -4985,7 +4993,7 @@
       <c r="AF124" s="15"/>
       <c r="AG124" s="15"/>
     </row>
-    <row r="125" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="125" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P125" s="11"/>
       <c r="Q125" s="11"/>
       <c r="R125" s="12"/>
@@ -5004,7 +5012,7 @@
       <c r="AF125" s="15"/>
       <c r="AG125" s="15"/>
     </row>
-    <row r="126" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="126" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P126" s="11"/>
       <c r="Q126" s="11"/>
       <c r="R126" s="12"/>
@@ -5023,7 +5031,7 @@
       <c r="AF126" s="15"/>
       <c r="AG126" s="15"/>
     </row>
-    <row r="127" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="127" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P127" s="11"/>
       <c r="Q127" s="11"/>
       <c r="R127" s="12"/>
@@ -5042,7 +5050,7 @@
       <c r="AF127" s="15"/>
       <c r="AG127" s="15"/>
     </row>
-    <row r="128" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="128" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P128" s="11"/>
       <c r="Q128" s="11"/>
       <c r="R128" s="12"/>
@@ -5061,7 +5069,7 @@
       <c r="AF128" s="15"/>
       <c r="AG128" s="15"/>
     </row>
-    <row r="129" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="129" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P129" s="11"/>
       <c r="Q129" s="11"/>
       <c r="R129" s="12"/>
@@ -5080,7 +5088,7 @@
       <c r="AF129" s="15"/>
       <c r="AG129" s="15"/>
     </row>
-    <row r="130" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="130" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P130" s="11"/>
       <c r="Q130" s="11"/>
       <c r="R130" s="12"/>
@@ -5099,7 +5107,7 @@
       <c r="AF130" s="15"/>
       <c r="AG130" s="15"/>
     </row>
-    <row r="131" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="131" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P131" s="11"/>
       <c r="Q131" s="11"/>
       <c r="R131" s="12"/>
@@ -5118,7 +5126,7 @@
       <c r="AF131" s="15"/>
       <c r="AG131" s="15"/>
     </row>
-    <row r="132" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="132" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P132" s="11"/>
       <c r="Q132" s="11"/>
       <c r="R132" s="12"/>
@@ -5137,7 +5145,7 @@
       <c r="AF132" s="15"/>
       <c r="AG132" s="15"/>
     </row>
-    <row r="133" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="133" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P133" s="11"/>
       <c r="Q133" s="11"/>
       <c r="R133" s="12"/>
@@ -5156,7 +5164,7 @@
       <c r="AF133" s="15"/>
       <c r="AG133" s="15"/>
     </row>
-    <row r="134" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="134" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P134" s="11"/>
       <c r="Q134" s="11"/>
       <c r="R134" s="12"/>
@@ -5175,7 +5183,7 @@
       <c r="AF134" s="15"/>
       <c r="AG134" s="15"/>
     </row>
-    <row r="135" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="135" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P135" s="11"/>
       <c r="Q135" s="11"/>
       <c r="R135" s="12"/>
@@ -5194,7 +5202,7 @@
       <c r="AF135" s="15"/>
       <c r="AG135" s="15"/>
     </row>
-    <row r="136" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="136" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P136" s="11"/>
       <c r="Q136" s="11"/>
       <c r="R136" s="12"/>
@@ -5213,7 +5221,7 @@
       <c r="AF136" s="15"/>
       <c r="AG136" s="15"/>
     </row>
-    <row r="137" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="137" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P137" s="11"/>
       <c r="Q137" s="11"/>
       <c r="R137" s="12"/>
@@ -5232,7 +5240,7 @@
       <c r="AF137" s="15"/>
       <c r="AG137" s="15"/>
     </row>
-    <row r="138" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="138" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P138" s="11"/>
       <c r="Q138" s="11"/>
       <c r="R138" s="12"/>
@@ -5251,7 +5259,7 @@
       <c r="AF138" s="15"/>
       <c r="AG138" s="15"/>
     </row>
-    <row r="139" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="139" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P139" s="11"/>
       <c r="Q139" s="11"/>
       <c r="R139" s="12"/>
@@ -5270,7 +5278,7 @@
       <c r="AF139" s="15"/>
       <c r="AG139" s="15"/>
     </row>
-    <row r="140" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="140" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P140" s="11"/>
       <c r="Q140" s="11"/>
       <c r="R140" s="12"/>
@@ -5289,7 +5297,7 @@
       <c r="AF140" s="15"/>
       <c r="AG140" s="15"/>
     </row>
-    <row r="141" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="141" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P141" s="11"/>
       <c r="Q141" s="11"/>
       <c r="R141" s="12"/>
@@ -5308,7 +5316,7 @@
       <c r="AF141" s="11"/>
       <c r="AG141" s="15"/>
     </row>
-    <row r="142" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="142" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P142" s="11"/>
       <c r="Q142" s="11"/>
       <c r="R142" s="12"/>
@@ -5327,7 +5335,7 @@
       <c r="AF142" s="11"/>
       <c r="AG142" s="11"/>
     </row>
-    <row r="143" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="143" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P143" s="11"/>
       <c r="Q143" s="11"/>
       <c r="R143" s="12"/>
@@ -5346,7 +5354,7 @@
       <c r="AF143" s="11"/>
       <c r="AG143" s="15"/>
     </row>
-    <row r="144" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="144" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P144" s="11"/>
       <c r="Q144" s="11"/>
       <c r="R144" s="12"/>
@@ -5365,7 +5373,7 @@
       <c r="AF144" s="11"/>
       <c r="AG144" s="15"/>
     </row>
-    <row r="145" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="145" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P145" s="11"/>
       <c r="Q145" s="11"/>
       <c r="R145" s="12"/>
@@ -5384,7 +5392,7 @@
       <c r="AF145" s="11"/>
       <c r="AG145" s="15"/>
     </row>
-    <row r="146" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="146" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P146" s="11"/>
       <c r="Q146" s="11"/>
       <c r="R146" s="12"/>
@@ -5403,7 +5411,7 @@
       <c r="AF146" s="15"/>
       <c r="AG146" s="15"/>
     </row>
-    <row r="147" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="147" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P147" s="11"/>
       <c r="Q147" s="11"/>
       <c r="R147" s="12"/>
@@ -5422,7 +5430,7 @@
       <c r="AF147" s="15"/>
       <c r="AG147" s="15"/>
     </row>
-    <row r="148" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="148" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P148" s="11"/>
       <c r="Q148" s="11"/>
       <c r="R148" s="12"/>
@@ -5441,7 +5449,7 @@
       <c r="AF148" s="15"/>
       <c r="AG148" s="15"/>
     </row>
-    <row r="149" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="149" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P149" s="11"/>
       <c r="Q149" s="11"/>
       <c r="R149" s="12"/>
@@ -5460,7 +5468,7 @@
       <c r="AF149" s="15"/>
       <c r="AG149" s="15"/>
     </row>
-    <row r="150" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="150" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P150" s="11"/>
       <c r="Q150" s="11"/>
       <c r="R150" s="12"/>
@@ -5479,7 +5487,7 @@
       <c r="AF150" s="15"/>
       <c r="AG150" s="15"/>
     </row>
-    <row r="151" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="151" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P151" s="11"/>
       <c r="Q151" s="11"/>
       <c r="R151" s="12"/>
@@ -5498,7 +5506,7 @@
       <c r="AF151" s="11"/>
       <c r="AG151" s="15"/>
     </row>
-    <row r="152" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="152" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P152" s="11"/>
       <c r="Q152" s="11"/>
       <c r="R152" s="12"/>
@@ -5517,7 +5525,7 @@
       <c r="AF152" s="11"/>
       <c r="AG152" s="15"/>
     </row>
-    <row r="153" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="153" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P153" s="11"/>
       <c r="Q153" s="11"/>
       <c r="R153" s="12"/>
@@ -5536,7 +5544,7 @@
       <c r="AF153" s="15"/>
       <c r="AG153" s="15"/>
     </row>
-    <row r="154" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="154" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P154" s="11"/>
       <c r="Q154" s="11"/>
       <c r="R154" s="12"/>
@@ -5555,7 +5563,7 @@
       <c r="AF154" s="15"/>
       <c r="AG154" s="15"/>
     </row>
-    <row r="155" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="155" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P155" s="11"/>
       <c r="Q155" s="11"/>
       <c r="R155" s="12"/>
@@ -5574,7 +5582,7 @@
       <c r="AF155" s="15"/>
       <c r="AG155" s="15"/>
     </row>
-    <row r="156" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="156" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P156" s="11"/>
       <c r="Q156" s="11"/>
       <c r="R156" s="12"/>
@@ -5593,7 +5601,7 @@
       <c r="AF156" s="15"/>
       <c r="AG156" s="15"/>
     </row>
-    <row r="157" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="157" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P157" s="11"/>
       <c r="Q157" s="11"/>
       <c r="R157" s="12"/>
@@ -5612,7 +5620,7 @@
       <c r="AF157" s="15"/>
       <c r="AG157" s="15"/>
     </row>
-    <row r="158" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="158" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P158" s="11"/>
       <c r="Q158" s="11"/>
       <c r="R158" s="12"/>
@@ -5631,7 +5639,7 @@
       <c r="AF158" s="15"/>
       <c r="AG158" s="15"/>
     </row>
-    <row r="159" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="159" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P159" s="11"/>
       <c r="Q159" s="11"/>
       <c r="R159" s="12"/>
@@ -5650,7 +5658,7 @@
       <c r="AF159" s="15"/>
       <c r="AG159" s="15"/>
     </row>
-    <row r="160" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="160" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P160" s="11"/>
       <c r="Q160" s="11"/>
       <c r="R160" s="12"/>
@@ -5669,7 +5677,7 @@
       <c r="AF160" s="15"/>
       <c r="AG160" s="15"/>
     </row>
-    <row r="161" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="161" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P161" s="11"/>
       <c r="Q161" s="11"/>
       <c r="R161" s="12"/>
@@ -5688,7 +5696,7 @@
       <c r="AF161" s="15"/>
       <c r="AG161" s="15"/>
     </row>
-    <row r="162" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="162" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P162" s="11"/>
       <c r="Q162" s="11"/>
       <c r="R162" s="12"/>
@@ -5707,7 +5715,7 @@
       <c r="AF162" s="15"/>
       <c r="AG162" s="15"/>
     </row>
-    <row r="163" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="163" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P163" s="11"/>
       <c r="Q163" s="11"/>
       <c r="R163" s="12"/>
@@ -5726,7 +5734,7 @@
       <c r="AF163" s="15"/>
       <c r="AG163" s="15"/>
     </row>
-    <row r="164" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="164" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P164" s="11"/>
       <c r="Q164" s="11"/>
       <c r="R164" s="12"/>
@@ -5745,7 +5753,7 @@
       <c r="AF164" s="15"/>
       <c r="AG164" s="15"/>
     </row>
-    <row r="165" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="165" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P165" s="11"/>
       <c r="Q165" s="11"/>
       <c r="R165" s="12"/>
@@ -5764,7 +5772,7 @@
       <c r="AF165" s="15"/>
       <c r="AG165" s="15"/>
     </row>
-    <row r="166" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="166" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P166" s="11"/>
       <c r="Q166" s="11"/>
       <c r="R166" s="12"/>
@@ -5783,7 +5791,7 @@
       <c r="AF166" s="15"/>
       <c r="AG166" s="15"/>
     </row>
-    <row r="167" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="167" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P167" s="11"/>
       <c r="Q167" s="11"/>
       <c r="R167" s="12"/>
@@ -5802,7 +5810,7 @@
       <c r="AF167" s="15"/>
       <c r="AG167" s="15"/>
     </row>
-    <row r="168" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="168" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P168" s="11"/>
       <c r="Q168" s="11"/>
       <c r="R168" s="12"/>
@@ -5821,7 +5829,7 @@
       <c r="AF168" s="15"/>
       <c r="AG168" s="15"/>
     </row>
-    <row r="169" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="169" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P169" s="11"/>
       <c r="Q169" s="11"/>
       <c r="R169" s="12"/>
@@ -5840,7 +5848,7 @@
       <c r="AF169" s="15"/>
       <c r="AG169" s="15"/>
     </row>
-    <row r="170" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="170" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P170" s="11"/>
       <c r="Q170" s="11"/>
       <c r="R170" s="12"/>
@@ -5859,7 +5867,7 @@
       <c r="AF170" s="15"/>
       <c r="AG170" s="15"/>
     </row>
-    <row r="171" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="171" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P171" s="11"/>
       <c r="Q171" s="11"/>
       <c r="R171" s="12"/>
@@ -5878,7 +5886,7 @@
       <c r="AF171" s="15"/>
       <c r="AG171" s="15"/>
     </row>
-    <row r="172" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="172" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P172" s="11"/>
       <c r="Q172" s="11"/>
       <c r="R172" s="12"/>
@@ -5897,7 +5905,7 @@
       <c r="AF172" s="15"/>
       <c r="AG172" s="15"/>
     </row>
-    <row r="173" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="173" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P173" s="11"/>
       <c r="Q173" s="11"/>
       <c r="R173" s="12"/>
@@ -5916,7 +5924,7 @@
       <c r="AF173" s="15"/>
       <c r="AG173" s="15"/>
     </row>
-    <row r="174" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="174" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P174" s="11"/>
       <c r="Q174" s="11"/>
       <c r="R174" s="12"/>
@@ -5935,7 +5943,7 @@
       <c r="AF174" s="15"/>
       <c r="AG174" s="15"/>
     </row>
-    <row r="175" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="175" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P175" s="11"/>
       <c r="Q175" s="11"/>
       <c r="R175" s="12"/>
@@ -5954,7 +5962,7 @@
       <c r="AF175" s="11"/>
       <c r="AG175" s="15"/>
     </row>
-    <row r="176" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="176" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P176" s="11"/>
       <c r="Q176" s="11"/>
       <c r="R176" s="12"/>
@@ -5973,7 +5981,7 @@
       <c r="AF176" s="11"/>
       <c r="AG176" s="15"/>
     </row>
-    <row r="177" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="177" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P177" s="11"/>
       <c r="Q177" s="11"/>
       <c r="R177" s="12"/>
@@ -5992,7 +6000,7 @@
       <c r="AF177" s="15"/>
       <c r="AG177" s="15"/>
     </row>
-    <row r="178" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="178" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P178" s="11"/>
       <c r="Q178" s="11"/>
       <c r="R178" s="12"/>
@@ -6011,7 +6019,7 @@
       <c r="AF178" s="15"/>
       <c r="AG178" s="15"/>
     </row>
-    <row r="179" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="179" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P179" s="11"/>
       <c r="Q179" s="11"/>
       <c r="R179" s="12"/>
@@ -6030,7 +6038,7 @@
       <c r="AF179" s="15"/>
       <c r="AG179" s="15"/>
     </row>
-    <row r="180" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="180" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P180" s="11"/>
       <c r="Q180" s="11"/>
       <c r="R180" s="12"/>
@@ -6049,7 +6057,7 @@
       <c r="AF180" s="15"/>
       <c r="AG180" s="15"/>
     </row>
-    <row r="181" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="181" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P181" s="11"/>
       <c r="Q181" s="11"/>
       <c r="R181" s="12"/>
@@ -6068,7 +6076,7 @@
       <c r="AF181" s="15"/>
       <c r="AG181" s="15"/>
     </row>
-    <row r="182" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="182" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P182" s="11"/>
       <c r="Q182" s="11"/>
       <c r="R182" s="12"/>
@@ -6087,7 +6095,7 @@
       <c r="AF182" s="15"/>
       <c r="AG182" s="15"/>
     </row>
-    <row r="183" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="183" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P183" s="11"/>
       <c r="Q183" s="11"/>
       <c r="R183" s="12"/>
@@ -6106,7 +6114,7 @@
       <c r="AF183" s="15"/>
       <c r="AG183" s="15"/>
     </row>
-    <row r="184" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="184" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P184" s="11"/>
       <c r="Q184" s="11"/>
       <c r="R184" s="12"/>
@@ -6125,7 +6133,7 @@
       <c r="AF184" s="15"/>
       <c r="AG184" s="15"/>
     </row>
-    <row r="185" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="185" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P185" s="11"/>
       <c r="Q185" s="11"/>
       <c r="R185" s="12"/>
@@ -6144,7 +6152,7 @@
       <c r="AF185" s="15"/>
       <c r="AG185" s="15"/>
     </row>
-    <row r="186" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="186" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P186" s="11"/>
       <c r="Q186" s="11"/>
       <c r="R186" s="12"/>
@@ -6163,7 +6171,7 @@
       <c r="AF186" s="15"/>
       <c r="AG186" s="15"/>
     </row>
-    <row r="187" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="187" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P187" s="11"/>
       <c r="Q187" s="11"/>
       <c r="R187" s="12"/>
@@ -6182,7 +6190,7 @@
       <c r="AF187" s="15"/>
       <c r="AG187" s="15"/>
     </row>
-    <row r="188" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="188" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P188" s="11"/>
       <c r="Q188" s="11"/>
       <c r="R188" s="12"/>
@@ -6201,7 +6209,7 @@
       <c r="AF188" s="15"/>
       <c r="AG188" s="15"/>
     </row>
-    <row r="189" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="189" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P189" s="11"/>
       <c r="Q189" s="11"/>
       <c r="R189" s="12"/>
@@ -6220,7 +6228,7 @@
       <c r="AF189" s="15"/>
       <c r="AG189" s="15"/>
     </row>
-    <row r="190" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="190" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P190" s="11"/>
       <c r="Q190" s="11"/>
       <c r="R190" s="12"/>
@@ -6239,7 +6247,7 @@
       <c r="AF190" s="15"/>
       <c r="AG190" s="15"/>
     </row>
-    <row r="191" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="191" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P191" s="11"/>
       <c r="Q191" s="11"/>
       <c r="R191" s="12"/>
@@ -6258,7 +6266,7 @@
       <c r="AF191" s="15"/>
       <c r="AG191" s="15"/>
     </row>
-    <row r="192" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="192" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P192" s="11"/>
       <c r="Q192" s="11"/>
       <c r="R192" s="12"/>
@@ -6277,7 +6285,7 @@
       <c r="AF192" s="15"/>
       <c r="AG192" s="15"/>
     </row>
-    <row r="193" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="193" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P193" s="11"/>
       <c r="Q193" s="11"/>
       <c r="R193" s="12"/>
@@ -6296,7 +6304,7 @@
       <c r="AF193" s="15"/>
       <c r="AG193" s="15"/>
     </row>
-    <row r="194" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="194" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P194" s="11"/>
       <c r="Q194" s="11"/>
       <c r="R194" s="12"/>
@@ -6315,7 +6323,7 @@
       <c r="AF194" s="15"/>
       <c r="AG194" s="15"/>
     </row>
-    <row r="195" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="195" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P195" s="11"/>
       <c r="Q195" s="11"/>
       <c r="R195" s="12"/>
@@ -6334,7 +6342,7 @@
       <c r="AF195" s="15"/>
       <c r="AG195" s="15"/>
     </row>
-    <row r="196" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="196" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P196" s="11"/>
       <c r="Q196" s="11"/>
       <c r="R196" s="12"/>
@@ -6353,7 +6361,7 @@
       <c r="AF196" s="15"/>
       <c r="AG196" s="15"/>
     </row>
-    <row r="197" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="197" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P197" s="11"/>
       <c r="Q197" s="11"/>
       <c r="R197" s="12"/>
@@ -6372,7 +6380,7 @@
       <c r="AF197" s="15"/>
       <c r="AG197" s="15"/>
     </row>
-    <row r="198" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="198" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P198" s="11"/>
       <c r="Q198" s="11"/>
       <c r="R198" s="12"/>
@@ -6391,7 +6399,7 @@
       <c r="AF198" s="15"/>
       <c r="AG198" s="15"/>
     </row>
-    <row r="199" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="199" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P199" s="11"/>
       <c r="Q199" s="11"/>
       <c r="R199" s="12"/>
@@ -6410,7 +6418,7 @@
       <c r="AF199" s="15"/>
       <c r="AG199" s="15"/>
     </row>
-    <row r="200" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="200" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P200" s="11"/>
       <c r="Q200" s="11"/>
       <c r="R200" s="12"/>
@@ -6429,7 +6437,7 @@
       <c r="AF200" s="15"/>
       <c r="AG200" s="15"/>
     </row>
-    <row r="201" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="201" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P201" s="11"/>
       <c r="Q201" s="11"/>
       <c r="R201" s="12"/>
@@ -6448,7 +6456,7 @@
       <c r="AF201" s="15"/>
       <c r="AG201" s="15"/>
     </row>
-    <row r="202" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="202" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P202" s="11"/>
       <c r="Q202" s="11"/>
       <c r="R202" s="12"/>
@@ -6467,7 +6475,7 @@
       <c r="AF202" s="15"/>
       <c r="AG202" s="15"/>
     </row>
-    <row r="203" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="203" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P203" s="11"/>
       <c r="Q203" s="11"/>
       <c r="R203" s="12"/>
@@ -6486,7 +6494,7 @@
       <c r="AF203" s="15"/>
       <c r="AG203" s="15"/>
     </row>
-    <row r="204" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="204" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P204" s="11"/>
       <c r="Q204" s="11"/>
       <c r="R204" s="12"/>
@@ -6505,7 +6513,7 @@
       <c r="AF204" s="15"/>
       <c r="AG204" s="15"/>
     </row>
-    <row r="205" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="205" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P205" s="11"/>
       <c r="Q205" s="11"/>
       <c r="R205" s="12"/>
@@ -6524,7 +6532,7 @@
       <c r="AF205" s="15"/>
       <c r="AG205" s="15"/>
     </row>
-    <row r="206" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="206" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P206" s="11"/>
       <c r="Q206" s="11"/>
       <c r="R206" s="12"/>
@@ -6543,7 +6551,7 @@
       <c r="AF206" s="11"/>
       <c r="AG206" s="11"/>
     </row>
-    <row r="207" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="207" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P207" s="11"/>
       <c r="Q207" s="11"/>
       <c r="R207" s="12"/>
@@ -6562,7 +6570,7 @@
       <c r="AF207" s="11"/>
       <c r="AG207" s="11"/>
     </row>
-    <row r="208" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="208" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P208" s="11"/>
       <c r="Q208" s="11"/>
       <c r="R208" s="12"/>
@@ -6581,7 +6589,7 @@
       <c r="AF208" s="11"/>
       <c r="AG208" s="11"/>
     </row>
-    <row r="209" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="209" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P209" s="11"/>
       <c r="Q209" s="11"/>
       <c r="R209" s="12"/>
@@ -6600,7 +6608,7 @@
       <c r="AF209" s="11"/>
       <c r="AG209" s="11"/>
     </row>
-    <row r="210" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="210" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P210" s="11"/>
       <c r="Q210" s="11"/>
       <c r="R210" s="12"/>
@@ -6619,7 +6627,7 @@
       <c r="AF210" s="11"/>
       <c r="AG210" s="11"/>
     </row>
-    <row r="211" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="211" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P211" s="11"/>
       <c r="Q211" s="11"/>
       <c r="R211" s="12"/>
@@ -6638,7 +6646,7 @@
       <c r="AF211" s="11"/>
       <c r="AG211" s="11"/>
     </row>
-    <row r="212" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="212" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P212" s="11"/>
       <c r="Q212" s="11"/>
       <c r="R212" s="12"/>
@@ -6657,7 +6665,7 @@
       <c r="AF212" s="11"/>
       <c r="AG212" s="11"/>
     </row>
-    <row r="213" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="213" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P213" s="11"/>
       <c r="Q213" s="11"/>
       <c r="R213" s="12"/>
@@ -6676,7 +6684,7 @@
       <c r="AF213" s="11"/>
       <c r="AG213" s="11"/>
     </row>
-    <row r="214" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="214" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P214" s="11"/>
       <c r="Q214" s="11"/>
       <c r="R214" s="12"/>
@@ -6695,7 +6703,7 @@
       <c r="AF214" s="11"/>
       <c r="AG214" s="11"/>
     </row>
-    <row r="215" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="215" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P215" s="11"/>
       <c r="Q215" s="11"/>
       <c r="R215" s="12"/>
@@ -6714,7 +6722,7 @@
       <c r="AF215" s="11"/>
       <c r="AG215" s="15"/>
     </row>
-    <row r="216" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="216" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P216" s="11"/>
       <c r="Q216" s="11"/>
       <c r="R216" s="12"/>
@@ -6733,7 +6741,7 @@
       <c r="AF216" s="15"/>
       <c r="AG216" s="15"/>
     </row>
-    <row r="217" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="217" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P217" s="11"/>
       <c r="Q217" s="11"/>
       <c r="R217" s="12"/>
@@ -6752,7 +6760,7 @@
       <c r="AF217" s="15"/>
       <c r="AG217" s="15"/>
     </row>
-    <row r="218" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="218" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P218" s="11"/>
       <c r="Q218" s="11"/>
       <c r="R218" s="12"/>
@@ -6771,7 +6779,7 @@
       <c r="AF218" s="15"/>
       <c r="AG218" s="15"/>
     </row>
-    <row r="219" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="219" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P219" s="11"/>
       <c r="Q219" s="11"/>
       <c r="R219" s="12"/>
@@ -6790,7 +6798,7 @@
       <c r="AF219" s="15"/>
       <c r="AG219" s="15"/>
     </row>
-    <row r="220" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="220" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P220" s="11"/>
       <c r="Q220" s="11"/>
       <c r="R220" s="12"/>
@@ -6809,7 +6817,7 @@
       <c r="AF220" s="15"/>
       <c r="AG220" s="15"/>
     </row>
-    <row r="221" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="221" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P221" s="11"/>
       <c r="Q221" s="11"/>
       <c r="R221" s="12"/>
@@ -6828,7 +6836,7 @@
       <c r="AF221" s="15"/>
       <c r="AG221" s="15"/>
     </row>
-    <row r="222" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="222" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P222" s="11"/>
       <c r="Q222" s="11"/>
       <c r="R222" s="12"/>
@@ -6847,7 +6855,7 @@
       <c r="AF222" s="15"/>
       <c r="AG222" s="15"/>
     </row>
-    <row r="223" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="223" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P223" s="11"/>
       <c r="Q223" s="11"/>
       <c r="R223" s="12"/>
@@ -6866,7 +6874,7 @@
       <c r="AF223" s="15"/>
       <c r="AG223" s="15"/>
     </row>
-    <row r="224" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="224" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P224" s="11"/>
       <c r="Q224" s="11"/>
       <c r="R224" s="12"/>
@@ -6885,7 +6893,7 @@
       <c r="AF224" s="15"/>
       <c r="AG224" s="15"/>
     </row>
-    <row r="225" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="225" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P225" s="11"/>
       <c r="Q225" s="11"/>
       <c r="R225" s="12"/>
@@ -6904,7 +6912,7 @@
       <c r="AF225" s="15"/>
       <c r="AG225" s="15"/>
     </row>
-    <row r="226" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="226" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P226" s="11"/>
       <c r="Q226" s="11"/>
       <c r="R226" s="12"/>
@@ -6923,7 +6931,7 @@
       <c r="AF226" s="15"/>
       <c r="AG226" s="15"/>
     </row>
-    <row r="227" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="227" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P227" s="11"/>
       <c r="Q227" s="11"/>
       <c r="R227" s="12"/>
@@ -6942,7 +6950,7 @@
       <c r="AF227" s="15"/>
       <c r="AG227" s="15"/>
     </row>
-    <row r="228" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="228" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P228" s="11"/>
       <c r="Q228" s="11"/>
       <c r="R228" s="12"/>
@@ -6961,7 +6969,7 @@
       <c r="AF228" s="15"/>
       <c r="AG228" s="15"/>
     </row>
-    <row r="229" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="229" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P229" s="11"/>
       <c r="Q229" s="11"/>
       <c r="R229" s="12"/>
@@ -6980,7 +6988,7 @@
       <c r="AF229" s="15"/>
       <c r="AG229" s="15"/>
     </row>
-    <row r="230" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="230" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P230" s="11"/>
       <c r="Q230" s="11"/>
       <c r="R230" s="12"/>
@@ -6999,7 +7007,7 @@
       <c r="AF230" s="15"/>
       <c r="AG230" s="15"/>
     </row>
-    <row r="231" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="231" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P231" s="11"/>
       <c r="Q231" s="11"/>
       <c r="R231" s="12"/>
@@ -7018,7 +7026,7 @@
       <c r="AF231" s="15"/>
       <c r="AG231" s="15"/>
     </row>
-    <row r="232" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="232" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P232" s="11"/>
       <c r="Q232" s="11"/>
       <c r="R232" s="12"/>
@@ -7037,7 +7045,7 @@
       <c r="AF232" s="15"/>
       <c r="AG232" s="15"/>
     </row>
-    <row r="233" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="233" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P233" s="11"/>
       <c r="Q233" s="11"/>
       <c r="R233" s="12"/>
@@ -7056,7 +7064,7 @@
       <c r="AF233" s="11"/>
       <c r="AG233" s="11"/>
     </row>
-    <row r="234" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="234" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P234" s="11"/>
       <c r="Q234" s="11"/>
       <c r="R234" s="12"/>
@@ -7075,7 +7083,7 @@
       <c r="AF234" s="11"/>
       <c r="AG234" s="11"/>
     </row>
-    <row r="235" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="235" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P235" s="11"/>
       <c r="Q235" s="11"/>
       <c r="R235" s="12"/>
@@ -7094,7 +7102,7 @@
       <c r="AF235" s="11"/>
       <c r="AG235" s="11"/>
     </row>
-    <row r="236" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="236" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P236" s="11"/>
       <c r="Q236" s="11"/>
       <c r="R236" s="12"/>
@@ -7113,7 +7121,7 @@
       <c r="AF236" s="11"/>
       <c r="AG236" s="11"/>
     </row>
-    <row r="237" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="237" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P237" s="11"/>
       <c r="Q237" s="11"/>
       <c r="R237" s="12"/>
@@ -7132,7 +7140,7 @@
       <c r="AF237" s="11"/>
       <c r="AG237" s="11"/>
     </row>
-    <row r="238" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="238" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P238" s="11"/>
       <c r="Q238" s="11"/>
       <c r="R238" s="12"/>
@@ -7151,7 +7159,7 @@
       <c r="AF238" s="11"/>
       <c r="AG238" s="11"/>
     </row>
-    <row r="239" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="239" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P239" s="11"/>
       <c r="Q239" s="11"/>
       <c r="R239" s="12"/>
@@ -7170,7 +7178,7 @@
       <c r="AF239" s="11"/>
       <c r="AG239" s="11"/>
     </row>
-    <row r="240" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="240" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P240" s="11"/>
       <c r="Q240" s="11"/>
       <c r="R240" s="12"/>
@@ -7189,7 +7197,7 @@
       <c r="AF240" s="11"/>
       <c r="AG240" s="11"/>
     </row>
-    <row r="241" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="241" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P241" s="11"/>
       <c r="Q241" s="11"/>
       <c r="R241" s="12"/>
@@ -7208,7 +7216,7 @@
       <c r="AF241" s="11"/>
       <c r="AG241" s="11"/>
     </row>
-    <row r="242" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="242" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P242" s="11"/>
       <c r="Q242" s="11"/>
       <c r="R242" s="12"/>
@@ -7227,7 +7235,7 @@
       <c r="AF242" s="11"/>
       <c r="AG242" s="11"/>
     </row>
-    <row r="243" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="243" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P243" s="11"/>
       <c r="Q243" s="11"/>
       <c r="R243" s="12"/>
@@ -7246,7 +7254,7 @@
       <c r="AF243" s="11"/>
       <c r="AG243" s="11"/>
     </row>
-    <row r="244" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="244" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P244" s="11"/>
       <c r="Q244" s="11"/>
       <c r="R244" s="12"/>
@@ -7265,7 +7273,7 @@
       <c r="AF244" s="11"/>
       <c r="AG244" s="11"/>
     </row>
-    <row r="245" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="245" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P245" s="11"/>
       <c r="Q245" s="11"/>
       <c r="R245" s="12"/>
@@ -7284,7 +7292,7 @@
       <c r="AF245" s="11"/>
       <c r="AG245" s="11"/>
     </row>
-    <row r="246" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="246" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P246" s="11"/>
       <c r="Q246" s="11"/>
       <c r="R246" s="12"/>
@@ -7303,7 +7311,7 @@
       <c r="AF246" s="11"/>
       <c r="AG246" s="11"/>
     </row>
-    <row r="247" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="247" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P247" s="11"/>
       <c r="Q247" s="11"/>
       <c r="R247" s="12"/>
@@ -7322,7 +7330,7 @@
       <c r="AF247" s="11"/>
       <c r="AG247" s="11"/>
     </row>
-    <row r="248" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="248" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P248" s="11"/>
       <c r="Q248" s="11"/>
       <c r="R248" s="12"/>
@@ -7341,7 +7349,7 @@
       <c r="AF248" s="11"/>
       <c r="AG248" s="11"/>
     </row>
-    <row r="249" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="249" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P249" s="11"/>
       <c r="Q249" s="11"/>
       <c r="R249" s="12"/>
@@ -7360,7 +7368,7 @@
       <c r="AF249" s="11"/>
       <c r="AG249" s="11"/>
     </row>
-    <row r="250" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="250" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P250" s="11"/>
       <c r="Q250" s="11"/>
       <c r="R250" s="12"/>
@@ -7379,7 +7387,7 @@
       <c r="AF250" s="11"/>
       <c r="AG250" s="11"/>
     </row>
-    <row r="251" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="251" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P251" s="11"/>
       <c r="Q251" s="11"/>
       <c r="R251" s="12"/>
@@ -7398,7 +7406,7 @@
       <c r="AF251" s="11"/>
       <c r="AG251" s="11"/>
     </row>
-    <row r="252" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="252" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P252" s="11"/>
       <c r="Q252" s="11"/>
       <c r="R252" s="12"/>
@@ -7417,7 +7425,7 @@
       <c r="AF252" s="11"/>
       <c r="AG252" s="11"/>
     </row>
-    <row r="253" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="253" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P253" s="11"/>
       <c r="Q253" s="11"/>
       <c r="R253" s="12"/>
@@ -7436,7 +7444,7 @@
       <c r="AF253" s="11"/>
       <c r="AG253" s="11"/>
     </row>
-    <row r="254" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="254" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P254" s="11"/>
       <c r="Q254" s="11"/>
       <c r="R254" s="12"/>
@@ -7455,7 +7463,7 @@
       <c r="AF254" s="11"/>
       <c r="AG254" s="11"/>
     </row>
-    <row r="255" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="255" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P255" s="11"/>
       <c r="Q255" s="11"/>
       <c r="R255" s="12"/>
@@ -7474,7 +7482,7 @@
       <c r="AF255" s="15"/>
       <c r="AG255" s="15"/>
     </row>
-    <row r="256" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="256" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P256" s="11"/>
       <c r="Q256" s="11"/>
       <c r="R256" s="12"/>
@@ -7493,7 +7501,7 @@
       <c r="AF256" s="15"/>
       <c r="AG256" s="15"/>
     </row>
-    <row r="257" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="257" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P257" s="11"/>
       <c r="Q257" s="11"/>
       <c r="R257" s="12"/>
@@ -7512,7 +7520,7 @@
       <c r="AF257" s="15"/>
       <c r="AG257" s="15"/>
     </row>
-    <row r="258" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="258" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P258" s="11"/>
       <c r="Q258" s="11"/>
       <c r="R258" s="12"/>
@@ -7531,7 +7539,7 @@
       <c r="AF258" s="15"/>
       <c r="AG258" s="15"/>
     </row>
-    <row r="259" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="259" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P259" s="11"/>
       <c r="Q259" s="11"/>
       <c r="R259" s="12"/>
@@ -7550,7 +7558,7 @@
       <c r="AF259" s="15"/>
       <c r="AG259" s="15"/>
     </row>
-    <row r="260" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="260" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P260" s="11"/>
       <c r="Q260" s="11"/>
       <c r="R260" s="12"/>
@@ -7569,7 +7577,7 @@
       <c r="AF260" s="15"/>
       <c r="AG260" s="15"/>
     </row>
-    <row r="261" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="261" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P261" s="11"/>
       <c r="Q261" s="11"/>
       <c r="R261" s="12"/>
@@ -7588,7 +7596,7 @@
       <c r="AF261" s="15"/>
       <c r="AG261" s="15"/>
     </row>
-    <row r="262" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="262" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P262" s="11"/>
       <c r="Q262" s="11"/>
       <c r="R262" s="12"/>
@@ -7607,7 +7615,7 @@
       <c r="AF262" s="15"/>
       <c r="AG262" s="15"/>
     </row>
-    <row r="263" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="263" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P263" s="11"/>
       <c r="Q263" s="11"/>
       <c r="R263" s="12"/>
@@ -7626,7 +7634,7 @@
       <c r="AF263" s="15"/>
       <c r="AG263" s="15"/>
     </row>
-    <row r="264" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="264" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P264" s="11"/>
       <c r="Q264" s="11"/>
       <c r="R264" s="12"/>
@@ -7645,7 +7653,7 @@
       <c r="AF264" s="15"/>
       <c r="AG264" s="15"/>
     </row>
-    <row r="265" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="265" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P265" s="11"/>
       <c r="Q265" s="11"/>
       <c r="R265" s="12"/>
@@ -7664,7 +7672,7 @@
       <c r="AF265" s="15"/>
       <c r="AG265" s="15"/>
     </row>
-    <row r="266" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="266" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P266" s="11"/>
       <c r="Q266" s="11"/>
       <c r="R266" s="12"/>
@@ -7683,7 +7691,7 @@
       <c r="AF266" s="15"/>
       <c r="AG266" s="15"/>
     </row>
-    <row r="267" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="267" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P267" s="11"/>
       <c r="Q267" s="11"/>
       <c r="R267" s="12"/>
@@ -7702,7 +7710,7 @@
       <c r="AF267" s="15"/>
       <c r="AG267" s="15"/>
     </row>
-    <row r="268" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="268" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P268" s="11"/>
       <c r="Q268" s="11"/>
       <c r="R268" s="12"/>
@@ -7721,7 +7729,7 @@
       <c r="AF268" s="15"/>
       <c r="AG268" s="15"/>
     </row>
-    <row r="269" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="269" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P269" s="11"/>
       <c r="Q269" s="11"/>
       <c r="R269" s="12"/>
@@ -7740,7 +7748,7 @@
       <c r="AF269" s="15"/>
       <c r="AG269" s="15"/>
     </row>
-    <row r="270" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="270" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P270" s="11"/>
       <c r="Q270" s="11"/>
       <c r="R270" s="12"/>
@@ -7759,7 +7767,7 @@
       <c r="AF270" s="15"/>
       <c r="AG270" s="15"/>
     </row>
-    <row r="271" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="271" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P271" s="11"/>
       <c r="Q271" s="11"/>
       <c r="R271" s="12"/>
@@ -7778,7 +7786,7 @@
       <c r="AF271" s="15"/>
       <c r="AG271" s="15"/>
     </row>
-    <row r="272" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="272" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P272" s="11"/>
       <c r="Q272" s="11"/>
       <c r="R272" s="12"/>
@@ -7797,7 +7805,7 @@
       <c r="AF272" s="15"/>
       <c r="AG272" s="15"/>
     </row>
-    <row r="273" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="273" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P273" s="11"/>
       <c r="Q273" s="11"/>
       <c r="R273" s="12"/>
@@ -7816,7 +7824,7 @@
       <c r="AF273" s="15"/>
       <c r="AG273" s="15"/>
     </row>
-    <row r="274" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="274" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P274" s="11"/>
       <c r="Q274" s="11"/>
       <c r="R274" s="12"/>
@@ -7835,7 +7843,7 @@
       <c r="AF274" s="15"/>
       <c r="AG274" s="15"/>
     </row>
-    <row r="275" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="275" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P275" s="11"/>
       <c r="Q275" s="11"/>
       <c r="R275" s="12"/>
@@ -7854,7 +7862,7 @@
       <c r="AF275" s="15"/>
       <c r="AG275" s="15"/>
     </row>
-    <row r="276" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="276" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P276" s="11"/>
       <c r="Q276" s="11"/>
       <c r="R276" s="12"/>
@@ -7873,7 +7881,7 @@
       <c r="AF276" s="15"/>
       <c r="AG276" s="15"/>
     </row>
-    <row r="277" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="277" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P277" s="11"/>
       <c r="Q277" s="11"/>
       <c r="R277" s="12"/>
@@ -7892,7 +7900,7 @@
       <c r="AF277" s="15"/>
       <c r="AG277" s="15"/>
     </row>
-    <row r="278" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="278" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P278" s="11"/>
       <c r="Q278" s="11"/>
       <c r="R278" s="12"/>
@@ -7911,7 +7919,7 @@
       <c r="AF278" s="15"/>
       <c r="AG278" s="15"/>
     </row>
-    <row r="279" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="279" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P279" s="11"/>
       <c r="Q279" s="11"/>
       <c r="R279" s="12"/>
@@ -7930,7 +7938,7 @@
       <c r="AF279" s="15"/>
       <c r="AG279" s="15"/>
     </row>
-    <row r="280" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="280" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P280" s="11"/>
       <c r="Q280" s="11"/>
       <c r="R280" s="12"/>
@@ -7949,7 +7957,7 @@
       <c r="AF280" s="15"/>
       <c r="AG280" s="15"/>
     </row>
-    <row r="281" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="281" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P281" s="11"/>
       <c r="Q281" s="11"/>
       <c r="R281" s="12"/>
@@ -7968,7 +7976,7 @@
       <c r="AF281" s="15"/>
       <c r="AG281" s="15"/>
     </row>
-    <row r="282" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="282" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P282" s="11"/>
       <c r="Q282" s="11"/>
       <c r="R282" s="12"/>
@@ -7987,7 +7995,7 @@
       <c r="AF282" s="15"/>
       <c r="AG282" s="15"/>
     </row>
-    <row r="283" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="283" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P283" s="11"/>
       <c r="Q283" s="11"/>
       <c r="R283" s="12"/>
@@ -8006,7 +8014,7 @@
       <c r="AF283" s="15"/>
       <c r="AG283" s="15"/>
     </row>
-    <row r="284" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="284" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P284" s="11"/>
       <c r="Q284" s="11"/>
       <c r="R284" s="12"/>
@@ -8025,7 +8033,7 @@
       <c r="AF284" s="15"/>
       <c r="AG284" s="15"/>
     </row>
-    <row r="285" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="285" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P285" s="11"/>
       <c r="Q285" s="11"/>
       <c r="R285" s="12"/>
@@ -8044,7 +8052,7 @@
       <c r="AF285" s="15"/>
       <c r="AG285" s="15"/>
     </row>
-    <row r="286" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="286" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P286" s="11"/>
       <c r="Q286" s="11"/>
       <c r="R286" s="12"/>
@@ -8063,7 +8071,7 @@
       <c r="AF286" s="15"/>
       <c r="AG286" s="15"/>
     </row>
-    <row r="287" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="287" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P287" s="11"/>
       <c r="Q287" s="11"/>
       <c r="R287" s="12"/>
@@ -8082,7 +8090,7 @@
       <c r="AF287" s="15"/>
       <c r="AG287" s="15"/>
     </row>
-    <row r="288" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="288" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P288" s="11"/>
       <c r="Q288" s="11"/>
       <c r="R288" s="12"/>
@@ -8101,7 +8109,7 @@
       <c r="AF288" s="15"/>
       <c r="AG288" s="15"/>
     </row>
-    <row r="289" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="289" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P289" s="11"/>
       <c r="Q289" s="11"/>
       <c r="R289" s="12"/>
@@ -8120,7 +8128,7 @@
       <c r="AF289" s="15"/>
       <c r="AG289" s="15"/>
     </row>
-    <row r="290" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="290" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P290" s="11"/>
       <c r="Q290" s="11"/>
       <c r="R290" s="12"/>
@@ -8139,7 +8147,7 @@
       <c r="AF290" s="15"/>
       <c r="AG290" s="15"/>
     </row>
-    <row r="291" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="291" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P291" s="11"/>
       <c r="Q291" s="11"/>
       <c r="R291" s="12"/>
@@ -8158,7 +8166,7 @@
       <c r="AF291" s="15"/>
       <c r="AG291" s="15"/>
     </row>
-    <row r="292" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="292" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P292" s="11"/>
       <c r="Q292" s="11"/>
       <c r="R292" s="12"/>
@@ -8177,7 +8185,7 @@
       <c r="AF292" s="15"/>
       <c r="AG292" s="15"/>
     </row>
-    <row r="293" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="293" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P293" s="11"/>
       <c r="Q293" s="11"/>
       <c r="R293" s="12"/>
@@ -8196,7 +8204,7 @@
       <c r="AF293" s="15"/>
       <c r="AG293" s="15"/>
     </row>
-    <row r="294" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="294" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P294" s="11"/>
       <c r="Q294" s="11"/>
       <c r="R294" s="12"/>
@@ -8215,7 +8223,7 @@
       <c r="AF294" s="15"/>
       <c r="AG294" s="15"/>
     </row>
-    <row r="295" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="295" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P295" s="11"/>
       <c r="Q295" s="11"/>
       <c r="R295" s="12"/>
@@ -8234,7 +8242,7 @@
       <c r="AF295" s="15"/>
       <c r="AG295" s="15"/>
     </row>
-    <row r="296" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="296" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P296" s="11"/>
       <c r="Q296" s="11"/>
       <c r="R296" s="12"/>
@@ -8253,7 +8261,7 @@
       <c r="AF296" s="15"/>
       <c r="AG296" s="15"/>
     </row>
-    <row r="297" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="297" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P297" s="11"/>
       <c r="Q297" s="11"/>
       <c r="R297" s="12"/>
@@ -8272,7 +8280,7 @@
       <c r="AF297" s="15"/>
       <c r="AG297" s="15"/>
     </row>
-    <row r="298" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="298" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P298" s="11"/>
       <c r="Q298" s="11"/>
       <c r="R298" s="12"/>
@@ -8291,7 +8299,7 @@
       <c r="AF298" s="15"/>
       <c r="AG298" s="15"/>
     </row>
-    <row r="299" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="299" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P299" s="11"/>
       <c r="Q299" s="11"/>
       <c r="R299" s="12"/>
@@ -8310,7 +8318,7 @@
       <c r="AF299" s="15"/>
       <c r="AG299" s="15"/>
     </row>
-    <row r="300" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="300" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P300" s="11"/>
       <c r="Q300" s="11"/>
       <c r="R300" s="12"/>
@@ -8329,7 +8337,7 @@
       <c r="AF300" s="15"/>
       <c r="AG300" s="15"/>
     </row>
-    <row r="301" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="301" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P301" s="11"/>
       <c r="Q301" s="11"/>
       <c r="R301" s="12"/>
@@ -8348,7 +8356,7 @@
       <c r="AF301" s="11"/>
       <c r="AG301" s="11"/>
     </row>
-    <row r="302" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="302" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P302" s="11"/>
       <c r="Q302" s="11"/>
       <c r="R302" s="12"/>
@@ -8367,7 +8375,7 @@
       <c r="AF302" s="15"/>
       <c r="AG302" s="15"/>
     </row>
-    <row r="303" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="303" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P303" s="11"/>
       <c r="Q303" s="11"/>
       <c r="R303" s="12"/>
@@ -8386,7 +8394,7 @@
       <c r="AF303" s="15"/>
       <c r="AG303" s="15"/>
     </row>
-    <row r="304" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="304" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P304" s="11"/>
       <c r="Q304" s="11"/>
       <c r="R304" s="12"/>
@@ -8405,7 +8413,7 @@
       <c r="AF304" s="15"/>
       <c r="AG304" s="15"/>
     </row>
-    <row r="305" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="305" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P305" s="11"/>
       <c r="Q305" s="11"/>
       <c r="R305" s="12"/>
@@ -8424,7 +8432,7 @@
       <c r="AF305" s="15"/>
       <c r="AG305" s="15"/>
     </row>
-    <row r="306" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="306" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P306" s="11"/>
       <c r="Q306" s="11"/>
       <c r="R306" s="12"/>
@@ -8443,7 +8451,7 @@
       <c r="AF306" s="15"/>
       <c r="AG306" s="15"/>
     </row>
-    <row r="307" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="307" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P307" s="11"/>
       <c r="Q307" s="11"/>
       <c r="R307" s="12"/>
@@ -8462,7 +8470,7 @@
       <c r="AF307" s="15"/>
       <c r="AG307" s="15"/>
     </row>
-    <row r="308" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="308" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P308" s="11"/>
       <c r="Q308" s="11"/>
       <c r="R308" s="12"/>
@@ -8481,7 +8489,7 @@
       <c r="AF308" s="15"/>
       <c r="AG308" s="15"/>
     </row>
-    <row r="309" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="309" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P309" s="11"/>
       <c r="Q309" s="11"/>
       <c r="R309" s="12"/>
@@ -8500,7 +8508,7 @@
       <c r="AF309" s="15"/>
       <c r="AG309" s="15"/>
     </row>
-    <row r="310" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="310" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P310" s="11"/>
       <c r="Q310" s="11"/>
       <c r="R310" s="12"/>
@@ -8519,7 +8527,7 @@
       <c r="AF310" s="15"/>
       <c r="AG310" s="15"/>
     </row>
-    <row r="311" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="311" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P311" s="11"/>
       <c r="Q311" s="11"/>
       <c r="R311" s="12"/>
@@ -8538,7 +8546,7 @@
       <c r="AF311" s="15"/>
       <c r="AG311" s="15"/>
     </row>
-    <row r="312" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="312" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P312" s="11"/>
       <c r="Q312" s="11"/>
       <c r="R312" s="12"/>
@@ -8557,7 +8565,7 @@
       <c r="AF312" s="15"/>
       <c r="AG312" s="15"/>
     </row>
-    <row r="313" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="313" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P313" s="11"/>
       <c r="Q313" s="11"/>
       <c r="R313" s="12"/>
@@ -8576,7 +8584,7 @@
       <c r="AF313" s="15"/>
       <c r="AG313" s="15"/>
     </row>
-    <row r="314" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="314" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P314" s="11"/>
       <c r="Q314" s="11"/>
       <c r="R314" s="12"/>
@@ -8595,7 +8603,7 @@
       <c r="AF314" s="15"/>
       <c r="AG314" s="15"/>
     </row>
-    <row r="315" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="315" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P315" s="11"/>
       <c r="Q315" s="11"/>
       <c r="R315" s="12"/>
@@ -8614,7 +8622,7 @@
       <c r="AF315" s="15"/>
       <c r="AG315" s="15"/>
     </row>
-    <row r="316" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="316" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P316" s="11"/>
       <c r="Q316" s="11"/>
       <c r="R316" s="12"/>
@@ -8633,7 +8641,7 @@
       <c r="AF316" s="15"/>
       <c r="AG316" s="15"/>
     </row>
-    <row r="317" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="317" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P317" s="11"/>
       <c r="Q317" s="11"/>
       <c r="R317" s="12"/>
@@ -8652,7 +8660,7 @@
       <c r="AF317" s="15"/>
       <c r="AG317" s="15"/>
     </row>
-    <row r="318" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="318" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P318" s="11"/>
       <c r="Q318" s="11"/>
       <c r="R318" s="12"/>
@@ -8671,7 +8679,7 @@
       <c r="AF318" s="15"/>
       <c r="AG318" s="15"/>
     </row>
-    <row r="319" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="319" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P319" s="11"/>
       <c r="Q319" s="11"/>
       <c r="R319" s="12"/>
@@ -8690,7 +8698,7 @@
       <c r="AF319" s="15"/>
       <c r="AG319" s="15"/>
     </row>
-    <row r="320" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="320" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P320" s="11"/>
       <c r="Q320" s="11"/>
       <c r="R320" s="12"/>
@@ -8709,7 +8717,7 @@
       <c r="AF320" s="15"/>
       <c r="AG320" s="15"/>
     </row>
-    <row r="321" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="321" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P321" s="11"/>
       <c r="Q321" s="11"/>
       <c r="R321" s="12"/>
@@ -8728,7 +8736,7 @@
       <c r="AF321" s="15"/>
       <c r="AG321" s="15"/>
     </row>
-    <row r="322" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="322" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P322" s="11"/>
       <c r="Q322" s="11"/>
       <c r="R322" s="12"/>
@@ -8747,7 +8755,7 @@
       <c r="AF322" s="15"/>
       <c r="AG322" s="15"/>
     </row>
-    <row r="323" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="323" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P323" s="11"/>
       <c r="Q323" s="11"/>
       <c r="R323" s="12"/>
@@ -8766,7 +8774,7 @@
       <c r="AF323" s="15"/>
       <c r="AG323" s="15"/>
     </row>
-    <row r="324" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="324" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P324" s="11"/>
       <c r="Q324" s="11"/>
       <c r="R324" s="12"/>
@@ -8785,7 +8793,7 @@
       <c r="AF324" s="15"/>
       <c r="AG324" s="15"/>
     </row>
-    <row r="325" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="325" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P325" s="11"/>
       <c r="Q325" s="11"/>
       <c r="R325" s="12"/>
@@ -8804,7 +8812,7 @@
       <c r="AF325" s="15"/>
       <c r="AG325" s="15"/>
     </row>
-    <row r="326" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="326" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P326" s="11"/>
       <c r="Q326" s="11"/>
       <c r="R326" s="12"/>
@@ -8823,7 +8831,7 @@
       <c r="AF326" s="15"/>
       <c r="AG326" s="15"/>
     </row>
-    <row r="327" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="327" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P327" s="11"/>
       <c r="Q327" s="11"/>
       <c r="R327" s="12"/>
@@ -8842,7 +8850,7 @@
       <c r="AF327" s="15"/>
       <c r="AG327" s="15"/>
     </row>
-    <row r="328" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="328" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P328" s="11"/>
       <c r="Q328" s="11"/>
       <c r="R328" s="12"/>
@@ -8861,7 +8869,7 @@
       <c r="AF328" s="15"/>
       <c r="AG328" s="15"/>
     </row>
-    <row r="329" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="329" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P329" s="11"/>
       <c r="Q329" s="11"/>
       <c r="R329" s="12"/>
@@ -8880,7 +8888,7 @@
       <c r="AF329" s="15"/>
       <c r="AG329" s="15"/>
     </row>
-    <row r="330" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="330" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P330" s="11"/>
       <c r="Q330" s="11"/>
       <c r="R330" s="12"/>
@@ -8899,7 +8907,7 @@
       <c r="AF330" s="11"/>
       <c r="AG330" s="11"/>
     </row>
-    <row r="331" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="331" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P331" s="11"/>
       <c r="Q331" s="11"/>
       <c r="R331" s="12"/>
@@ -8918,7 +8926,7 @@
       <c r="AF331" s="11"/>
       <c r="AG331" s="15"/>
     </row>
-    <row r="332" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="332" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P332" s="11"/>
       <c r="Q332" s="11"/>
       <c r="R332" s="12"/>
@@ -8937,7 +8945,7 @@
       <c r="AF332" s="11"/>
       <c r="AG332" s="15"/>
     </row>
-    <row r="333" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="333" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P333" s="11"/>
       <c r="Q333" s="11"/>
       <c r="R333" s="12"/>
@@ -8956,7 +8964,7 @@
       <c r="AF333" s="11"/>
       <c r="AG333" s="11"/>
     </row>
-    <row r="334" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="334" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P334" s="11"/>
       <c r="Q334" s="11"/>
       <c r="R334" s="12"/>
@@ -8975,7 +8983,7 @@
       <c r="AF334" s="11"/>
       <c r="AG334" s="11"/>
     </row>
-    <row r="335" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="335" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P335" s="11"/>
       <c r="Q335" s="11"/>
       <c r="R335" s="12"/>
@@ -8994,7 +9002,7 @@
       <c r="AF335" s="11"/>
       <c r="AG335" s="11"/>
     </row>
-    <row r="336" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="336" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P336" s="11"/>
       <c r="Q336" s="11"/>
       <c r="R336" s="12"/>
@@ -9013,7 +9021,7 @@
       <c r="AF336" s="15"/>
       <c r="AG336" s="15"/>
     </row>
-    <row r="337" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="337" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P337" s="11"/>
       <c r="Q337" s="11"/>
       <c r="R337" s="12"/>
@@ -9032,7 +9040,7 @@
       <c r="AF337" s="15"/>
       <c r="AG337" s="15"/>
     </row>
-    <row r="338" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="338" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P338" s="11"/>
       <c r="Q338" s="11"/>
       <c r="R338" s="12"/>
@@ -9051,7 +9059,7 @@
       <c r="AF338" s="15"/>
       <c r="AG338" s="15"/>
     </row>
-    <row r="339" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="339" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P339" s="11"/>
       <c r="Q339" s="11"/>
       <c r="R339" s="12"/>
@@ -9070,7 +9078,7 @@
       <c r="AF339" s="15"/>
       <c r="AG339" s="15"/>
     </row>
-    <row r="340" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="340" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P340" s="11"/>
       <c r="Q340" s="11"/>
       <c r="R340" s="12"/>
@@ -9089,7 +9097,7 @@
       <c r="AF340" s="15"/>
       <c r="AG340" s="15"/>
     </row>
-    <row r="341" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="341" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P341" s="11"/>
       <c r="Q341" s="11"/>
       <c r="R341" s="12"/>
@@ -9108,7 +9116,7 @@
       <c r="AF341" s="15"/>
       <c r="AG341" s="15"/>
     </row>
-    <row r="342" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="342" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P342" s="11"/>
       <c r="Q342" s="11"/>
       <c r="R342" s="12"/>
@@ -9127,7 +9135,7 @@
       <c r="AF342" s="15"/>
       <c r="AG342" s="15"/>
     </row>
-    <row r="343" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="343" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P343" s="11"/>
       <c r="Q343" s="11"/>
       <c r="R343" s="12"/>
@@ -9146,7 +9154,7 @@
       <c r="AF343" s="15"/>
       <c r="AG343" s="15"/>
     </row>
-    <row r="344" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="344" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P344" s="11"/>
       <c r="Q344" s="11"/>
       <c r="R344" s="12"/>
@@ -9165,7 +9173,7 @@
       <c r="AF344" s="15"/>
       <c r="AG344" s="15"/>
     </row>
-    <row r="345" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="345" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P345" s="11"/>
       <c r="Q345" s="11"/>
       <c r="R345" s="12"/>
@@ -9184,7 +9192,7 @@
       <c r="AF345" s="15"/>
       <c r="AG345" s="15"/>
     </row>
-    <row r="346" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="346" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P346" s="11"/>
       <c r="Q346" s="11"/>
       <c r="R346" s="12"/>
@@ -9203,7 +9211,7 @@
       <c r="AF346" s="15"/>
       <c r="AG346" s="15"/>
     </row>
-    <row r="347" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="347" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P347" s="11"/>
       <c r="Q347" s="11"/>
       <c r="R347" s="12"/>
@@ -9222,7 +9230,7 @@
       <c r="AF347" s="15"/>
       <c r="AG347" s="15"/>
     </row>
-    <row r="348" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="348" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P348" s="11"/>
       <c r="Q348" s="11"/>
       <c r="R348" s="12"/>
@@ -9241,7 +9249,7 @@
       <c r="AF348" s="15"/>
       <c r="AG348" s="15"/>
     </row>
-    <row r="349" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="349" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P349" s="11"/>
       <c r="Q349" s="11"/>
       <c r="R349" s="12"/>
@@ -9260,7 +9268,7 @@
       <c r="AF349" s="15"/>
       <c r="AG349" s="15"/>
     </row>
-    <row r="350" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="350" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P350" s="11"/>
       <c r="Q350" s="11"/>
       <c r="R350" s="12"/>
@@ -9279,7 +9287,7 @@
       <c r="AF350" s="15"/>
       <c r="AG350" s="15"/>
     </row>
-    <row r="351" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="351" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P351" s="11"/>
       <c r="Q351" s="11"/>
       <c r="R351" s="12"/>
@@ -9298,7 +9306,7 @@
       <c r="AF351" s="15"/>
       <c r="AG351" s="15"/>
     </row>
-    <row r="352" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="352" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P352" s="11"/>
       <c r="Q352" s="11"/>
       <c r="R352" s="12"/>
@@ -9317,7 +9325,7 @@
       <c r="AF352" s="15"/>
       <c r="AG352" s="15"/>
     </row>
-    <row r="353" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="353" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P353" s="11"/>
       <c r="Q353" s="11"/>
       <c r="R353" s="12"/>
@@ -9336,7 +9344,7 @@
       <c r="AF353" s="15"/>
       <c r="AG353" s="15"/>
     </row>
-    <row r="354" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="354" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P354" s="11"/>
       <c r="Q354" s="11"/>
       <c r="R354" s="12"/>
@@ -9355,7 +9363,7 @@
       <c r="AF354" s="15"/>
       <c r="AG354" s="15"/>
     </row>
-    <row r="355" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="355" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P355" s="11"/>
       <c r="Q355" s="11"/>
       <c r="R355" s="12"/>
@@ -9374,7 +9382,7 @@
       <c r="AF355" s="11"/>
       <c r="AG355" s="11"/>
     </row>
-    <row r="356" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="356" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P356" s="11"/>
       <c r="Q356" s="11"/>
       <c r="R356" s="12"/>
@@ -9393,7 +9401,7 @@
       <c r="AF356" s="11"/>
       <c r="AG356" s="11"/>
     </row>
-    <row r="357" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="357" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P357" s="11"/>
       <c r="Q357" s="11"/>
       <c r="R357" s="12"/>
@@ -9412,7 +9420,7 @@
       <c r="AF357" s="11"/>
       <c r="AG357" s="11"/>
     </row>
-    <row r="358" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="358" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P358" s="11"/>
       <c r="Q358" s="11"/>
       <c r="R358" s="12"/>
@@ -9431,7 +9439,7 @@
       <c r="AF358" s="11"/>
       <c r="AG358" s="15"/>
     </row>
-    <row r="359" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="359" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P359" s="11"/>
       <c r="Q359" s="11"/>
       <c r="R359" s="12"/>
@@ -9450,7 +9458,7 @@
       <c r="AF359" s="15"/>
       <c r="AG359" s="15"/>
     </row>
-    <row r="360" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="360" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P360" s="11"/>
       <c r="Q360" s="11"/>
       <c r="R360" s="12"/>
@@ -9469,7 +9477,7 @@
       <c r="AF360" s="15"/>
       <c r="AG360" s="15"/>
     </row>
-    <row r="361" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="361" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P361" s="11"/>
       <c r="Q361" s="11"/>
       <c r="R361" s="12"/>
@@ -9488,7 +9496,7 @@
       <c r="AF361" s="15"/>
       <c r="AG361" s="15"/>
     </row>
-    <row r="362" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="362" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P362" s="11"/>
       <c r="Q362" s="11"/>
       <c r="R362" s="12"/>
@@ -9507,7 +9515,7 @@
       <c r="AF362" s="15"/>
       <c r="AG362" s="15"/>
     </row>
-    <row r="363" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="363" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P363" s="11"/>
       <c r="Q363" s="11"/>
       <c r="R363" s="12"/>
@@ -9526,7 +9534,7 @@
       <c r="AF363" s="15"/>
       <c r="AG363" s="15"/>
     </row>
-    <row r="364" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="364" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P364" s="11"/>
       <c r="Q364" s="11"/>
       <c r="R364" s="12"/>
@@ -9545,7 +9553,7 @@
       <c r="AF364" s="15"/>
       <c r="AG364" s="15"/>
     </row>
-    <row r="365" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="365" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P365" s="11"/>
       <c r="Q365" s="11"/>
       <c r="R365" s="12"/>
@@ -9564,7 +9572,7 @@
       <c r="AF365" s="15"/>
       <c r="AG365" s="15"/>
     </row>
-    <row r="366" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="366" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P366" s="11"/>
       <c r="Q366" s="11"/>
       <c r="R366" s="12"/>
@@ -9583,7 +9591,7 @@
       <c r="AF366" s="15"/>
       <c r="AG366" s="15"/>
     </row>
-    <row r="367" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="367" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P367" s="11"/>
       <c r="Q367" s="11"/>
       <c r="R367" s="12"/>
@@ -9602,7 +9610,7 @@
       <c r="AF367" s="15"/>
       <c r="AG367" s="15"/>
     </row>
-    <row r="368" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="368" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P368" s="11"/>
       <c r="Q368" s="11"/>
       <c r="R368" s="12"/>
@@ -9621,7 +9629,7 @@
       <c r="AF368" s="15"/>
       <c r="AG368" s="15"/>
     </row>
-    <row r="369" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="369" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P369" s="11"/>
       <c r="Q369" s="11"/>
       <c r="R369" s="12"/>
@@ -9640,7 +9648,7 @@
       <c r="AF369" s="15"/>
       <c r="AG369" s="15"/>
     </row>
-    <row r="370" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="370" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P370" s="11"/>
       <c r="Q370" s="11"/>
       <c r="R370" s="12"/>
@@ -9659,7 +9667,7 @@
       <c r="AF370" s="15"/>
       <c r="AG370" s="15"/>
     </row>
-    <row r="371" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="371" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P371" s="11"/>
       <c r="Q371" s="11"/>
       <c r="R371" s="12"/>
@@ -9678,7 +9686,7 @@
       <c r="AF371" s="15"/>
       <c r="AG371" s="15"/>
     </row>
-    <row r="372" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="372" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P372" s="11"/>
       <c r="Q372" s="11"/>
       <c r="R372" s="12"/>
@@ -9697,7 +9705,7 @@
       <c r="AF372" s="15"/>
       <c r="AG372" s="15"/>
     </row>
-    <row r="373" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="373" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P373" s="11"/>
       <c r="Q373" s="11"/>
       <c r="R373" s="12"/>
@@ -9716,7 +9724,7 @@
       <c r="AF373" s="15"/>
       <c r="AG373" s="15"/>
     </row>
-    <row r="374" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="374" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P374" s="11"/>
       <c r="Q374" s="11"/>
       <c r="R374" s="12"/>
@@ -9735,7 +9743,7 @@
       <c r="AF374" s="15"/>
       <c r="AG374" s="15"/>
     </row>
-    <row r="375" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="375" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P375" s="11"/>
       <c r="Q375" s="11"/>
       <c r="R375" s="12"/>
@@ -9754,7 +9762,7 @@
       <c r="AF375" s="15"/>
       <c r="AG375" s="15"/>
     </row>
-    <row r="376" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="376" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P376" s="11"/>
       <c r="Q376" s="11"/>
       <c r="R376" s="12"/>
@@ -9773,7 +9781,7 @@
       <c r="AF376" s="15"/>
       <c r="AG376" s="15"/>
     </row>
-    <row r="377" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="377" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P377" s="11"/>
       <c r="Q377" s="11"/>
       <c r="R377" s="12"/>
@@ -9792,7 +9800,7 @@
       <c r="AF377" s="15"/>
       <c r="AG377" s="15"/>
     </row>
-    <row r="378" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="378" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P378" s="11"/>
       <c r="Q378" s="11"/>
       <c r="R378" s="12"/>
@@ -9811,7 +9819,7 @@
       <c r="AF378" s="15"/>
       <c r="AG378" s="15"/>
     </row>
-    <row r="379" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="379" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P379" s="11"/>
       <c r="Q379" s="11"/>
       <c r="R379" s="12"/>
@@ -9830,7 +9838,7 @@
       <c r="AF379" s="15"/>
       <c r="AG379" s="15"/>
     </row>
-    <row r="380" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="380" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P380" s="11"/>
       <c r="Q380" s="11"/>
       <c r="R380" s="12"/>
@@ -9849,7 +9857,7 @@
       <c r="AF380" s="15"/>
       <c r="AG380" s="15"/>
     </row>
-    <row r="381" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="381" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P381" s="11"/>
       <c r="Q381" s="11"/>
       <c r="R381" s="12"/>
@@ -9868,7 +9876,7 @@
       <c r="AF381" s="15"/>
       <c r="AG381" s="15"/>
     </row>
-    <row r="382" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="382" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P382" s="11"/>
       <c r="Q382" s="11"/>
       <c r="R382" s="12"/>
@@ -9887,7 +9895,7 @@
       <c r="AF382" s="15"/>
       <c r="AG382" s="15"/>
     </row>
-    <row r="383" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="383" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P383" s="11"/>
       <c r="Q383" s="11"/>
       <c r="R383" s="12"/>
@@ -9906,7 +9914,7 @@
       <c r="AF383" s="15"/>
       <c r="AG383" s="15"/>
     </row>
-    <row r="384" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="384" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P384" s="11"/>
       <c r="Q384" s="11"/>
       <c r="R384" s="12"/>
@@ -9925,7 +9933,7 @@
       <c r="AF384" s="15"/>
       <c r="AG384" s="15"/>
     </row>
-    <row r="385" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="385" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P385" s="11"/>
       <c r="Q385" s="11"/>
       <c r="R385" s="12"/>
@@ -9944,7 +9952,7 @@
       <c r="AF385" s="15"/>
       <c r="AG385" s="15"/>
     </row>
-    <row r="386" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="386" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P386" s="11"/>
       <c r="Q386" s="11"/>
       <c r="R386" s="12"/>
@@ -9963,7 +9971,7 @@
       <c r="AF386" s="15"/>
       <c r="AG386" s="15"/>
     </row>
-    <row r="387" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="387" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P387" s="11"/>
       <c r="Q387" s="11"/>
       <c r="R387" s="12"/>
@@ -9982,7 +9990,7 @@
       <c r="AF387" s="15"/>
       <c r="AG387" s="15"/>
     </row>
-    <row r="388" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="388" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P388" s="11"/>
       <c r="Q388" s="11"/>
       <c r="R388" s="12"/>
@@ -10001,7 +10009,7 @@
       <c r="AF388" s="15"/>
       <c r="AG388" s="15"/>
     </row>
-    <row r="389" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="389" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P389" s="11"/>
       <c r="Q389" s="11"/>
       <c r="R389" s="12"/>
@@ -10020,7 +10028,7 @@
       <c r="AF389" s="15"/>
       <c r="AG389" s="15"/>
     </row>
-    <row r="390" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="390" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P390" s="11"/>
       <c r="Q390" s="11"/>
       <c r="R390" s="12"/>
@@ -10039,7 +10047,7 @@
       <c r="AF390" s="15"/>
       <c r="AG390" s="15"/>
     </row>
-    <row r="391" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="391" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P391" s="11"/>
       <c r="Q391" s="11"/>
       <c r="R391" s="12"/>
@@ -10058,7 +10066,7 @@
       <c r="AF391" s="15"/>
       <c r="AG391" s="15"/>
     </row>
-    <row r="392" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="392" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P392" s="11"/>
       <c r="Q392" s="11"/>
       <c r="R392" s="12"/>
@@ -10077,7 +10085,7 @@
       <c r="AF392" s="15"/>
       <c r="AG392" s="15"/>
     </row>
-    <row r="393" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="393" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P393" s="11"/>
       <c r="Q393" s="11"/>
       <c r="R393" s="12"/>
@@ -10096,7 +10104,7 @@
       <c r="AF393" s="15"/>
       <c r="AG393" s="15"/>
     </row>
-    <row r="394" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="394" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P394" s="11"/>
       <c r="Q394" s="11"/>
       <c r="R394" s="12"/>
@@ -10115,7 +10123,7 @@
       <c r="AF394" s="15"/>
       <c r="AG394" s="15"/>
     </row>
-    <row r="395" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="395" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P395" s="11"/>
       <c r="Q395" s="11"/>
       <c r="R395" s="12"/>
@@ -10134,7 +10142,7 @@
       <c r="AF395" s="15"/>
       <c r="AG395" s="15"/>
     </row>
-    <row r="396" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="396" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P396" s="11"/>
       <c r="Q396" s="11"/>
       <c r="R396" s="12"/>
@@ -10153,7 +10161,7 @@
       <c r="AF396" s="15"/>
       <c r="AG396" s="15"/>
     </row>
-    <row r="397" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="397" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P397" s="11"/>
       <c r="Q397" s="11"/>
       <c r="R397" s="12"/>
@@ -10172,7 +10180,7 @@
       <c r="AF397" s="15"/>
       <c r="AG397" s="15"/>
     </row>
-    <row r="398" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="398" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P398" s="11"/>
       <c r="Q398" s="11"/>
       <c r="R398" s="12"/>
@@ -10191,7 +10199,7 @@
       <c r="AF398" s="15"/>
       <c r="AG398" s="15"/>
     </row>
-    <row r="399" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="399" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P399" s="11"/>
       <c r="Q399" s="11"/>
       <c r="R399" s="12"/>
@@ -10210,7 +10218,7 @@
       <c r="AF399" s="15"/>
       <c r="AG399" s="15"/>
     </row>
-    <row r="400" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="400" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P400" s="11"/>
       <c r="Q400" s="11"/>
       <c r="R400" s="12"/>
@@ -10229,7 +10237,7 @@
       <c r="AF400" s="15"/>
       <c r="AG400" s="15"/>
     </row>
-    <row r="401" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="401" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P401" s="11"/>
       <c r="Q401" s="11"/>
       <c r="R401" s="12"/>
@@ -10248,7 +10256,7 @@
       <c r="AF401" s="15"/>
       <c r="AG401" s="15"/>
     </row>
-    <row r="402" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="402" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P402" s="11"/>
       <c r="Q402" s="11"/>
       <c r="R402" s="12"/>
@@ -10267,7 +10275,7 @@
       <c r="AF402" s="15"/>
       <c r="AG402" s="15"/>
     </row>
-    <row r="403" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="403" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P403" s="11"/>
       <c r="Q403" s="11"/>
       <c r="R403" s="12"/>
@@ -10286,7 +10294,7 @@
       <c r="AF403" s="15"/>
       <c r="AG403" s="15"/>
     </row>
-    <row r="404" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="404" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P404" s="11"/>
       <c r="Q404" s="11"/>
       <c r="R404" s="12"/>
@@ -10305,7 +10313,7 @@
       <c r="AF404" s="15"/>
       <c r="AG404" s="15"/>
     </row>
-    <row r="405" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="405" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P405" s="11"/>
       <c r="Q405" s="11"/>
       <c r="R405" s="12"/>
@@ -10324,7 +10332,7 @@
       <c r="AF405" s="15"/>
       <c r="AG405" s="15"/>
     </row>
-    <row r="406" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="406" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P406" s="11"/>
       <c r="Q406" s="11"/>
       <c r="R406" s="12"/>
@@ -10343,7 +10351,7 @@
       <c r="AF406" s="15"/>
       <c r="AG406" s="15"/>
     </row>
-    <row r="407" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="407" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P407" s="11"/>
       <c r="Q407" s="11"/>
       <c r="R407" s="12"/>
@@ -10362,7 +10370,7 @@
       <c r="AF407" s="15"/>
       <c r="AG407" s="15"/>
     </row>
-    <row r="408" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="408" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P408" s="11"/>
       <c r="Q408" s="11"/>
       <c r="R408" s="12"/>
@@ -10381,7 +10389,7 @@
       <c r="AF408" s="15"/>
       <c r="AG408" s="15"/>
     </row>
-    <row r="409" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="409" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P409" s="11"/>
       <c r="Q409" s="11"/>
       <c r="R409" s="12"/>
@@ -10400,7 +10408,7 @@
       <c r="AF409" s="15"/>
       <c r="AG409" s="15"/>
     </row>
-    <row r="410" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="410" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P410" s="11"/>
       <c r="Q410" s="11"/>
       <c r="R410" s="12"/>
@@ -10419,7 +10427,7 @@
       <c r="AF410" s="11"/>
       <c r="AG410" s="11"/>
     </row>
-    <row r="411" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="411" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P411" s="11"/>
       <c r="Q411" s="11"/>
       <c r="R411" s="12"/>
@@ -10438,7 +10446,7 @@
       <c r="AF411" s="11"/>
       <c r="AG411" s="11"/>
     </row>
-    <row r="412" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="412" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P412" s="11"/>
       <c r="Q412" s="11"/>
       <c r="R412" s="12"/>
@@ -10457,7 +10465,7 @@
       <c r="AF412" s="11"/>
       <c r="AG412" s="11"/>
     </row>
-    <row r="413" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="413" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P413" s="11"/>
       <c r="Q413" s="11"/>
       <c r="R413" s="12"/>
@@ -10476,7 +10484,7 @@
       <c r="AF413" s="11"/>
       <c r="AG413" s="11"/>
     </row>
-    <row r="414" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="414" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P414" s="11"/>
       <c r="Q414" s="11"/>
       <c r="R414" s="12"/>
@@ -10495,7 +10503,7 @@
       <c r="AF414" s="11"/>
       <c r="AG414" s="11"/>
     </row>
-    <row r="415" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="415" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P415" s="11"/>
       <c r="Q415" s="11"/>
       <c r="R415" s="12"/>
@@ -10514,7 +10522,7 @@
       <c r="AF415" s="11"/>
       <c r="AG415" s="11"/>
     </row>
-    <row r="416" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="416" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P416" s="11"/>
       <c r="Q416" s="11"/>
       <c r="R416" s="12"/>
@@ -10533,7 +10541,7 @@
       <c r="AF416" s="11"/>
       <c r="AG416" s="15"/>
     </row>
-    <row r="417" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="417" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P417" s="11"/>
       <c r="Q417" s="11"/>
       <c r="R417" s="12"/>
@@ -10552,7 +10560,7 @@
       <c r="AF417" s="15"/>
       <c r="AG417" s="15"/>
     </row>
-    <row r="418" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="418" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P418" s="11"/>
       <c r="Q418" s="11"/>
       <c r="R418" s="12"/>
@@ -10571,7 +10579,7 @@
       <c r="AF418" s="15"/>
       <c r="AG418" s="15"/>
     </row>
-    <row r="419" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="419" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P419" s="11"/>
       <c r="Q419" s="11"/>
       <c r="R419" s="12"/>
@@ -10590,7 +10598,7 @@
       <c r="AF419" s="15"/>
       <c r="AG419" s="15"/>
     </row>
-    <row r="420" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="420" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P420" s="11"/>
       <c r="Q420" s="11"/>
       <c r="R420" s="12"/>
@@ -10609,7 +10617,7 @@
       <c r="AF420" s="15"/>
       <c r="AG420" s="15"/>
     </row>
-    <row r="421" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="421" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P421" s="11"/>
       <c r="Q421" s="11"/>
       <c r="R421" s="12"/>
@@ -10628,7 +10636,7 @@
       <c r="AF421" s="15"/>
       <c r="AG421" s="15"/>
     </row>
-    <row r="422" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="422" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P422" s="11"/>
       <c r="Q422" s="11"/>
       <c r="R422" s="12"/>
@@ -10647,7 +10655,7 @@
       <c r="AF422" s="15"/>
       <c r="AG422" s="15"/>
     </row>
-    <row r="423" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="423" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P423" s="11"/>
       <c r="Q423" s="11"/>
       <c r="R423" s="12"/>
@@ -10666,7 +10674,7 @@
       <c r="AF423" s="15"/>
       <c r="AG423" s="15"/>
     </row>
-    <row r="424" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="424" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P424" s="11"/>
       <c r="Q424" s="11"/>
       <c r="R424" s="12"/>
@@ -10685,7 +10693,7 @@
       <c r="AF424" s="15"/>
       <c r="AG424" s="15"/>
     </row>
-    <row r="425" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="425" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P425" s="11"/>
       <c r="Q425" s="11"/>
       <c r="R425" s="12"/>
@@ -10704,7 +10712,7 @@
       <c r="AF425" s="15"/>
       <c r="AG425" s="15"/>
     </row>
-    <row r="426" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="426" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P426" s="11"/>
       <c r="Q426" s="11"/>
       <c r="R426" s="12"/>
@@ -10723,7 +10731,7 @@
       <c r="AF426" s="15"/>
       <c r="AG426" s="15"/>
     </row>
-    <row r="427" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="427" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P427" s="11"/>
       <c r="Q427" s="11"/>
       <c r="R427" s="12"/>
@@ -10742,7 +10750,7 @@
       <c r="AF427" s="15"/>
       <c r="AG427" s="15"/>
     </row>
-    <row r="428" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="428" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P428" s="11"/>
       <c r="Q428" s="11"/>
       <c r="R428" s="12"/>
@@ -10761,7 +10769,7 @@
       <c r="AF428" s="15"/>
       <c r="AG428" s="15"/>
     </row>
-    <row r="429" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="429" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P429" s="11"/>
       <c r="Q429" s="11"/>
       <c r="R429" s="12"/>
@@ -10780,7 +10788,7 @@
       <c r="AF429" s="15"/>
       <c r="AG429" s="15"/>
     </row>
-    <row r="430" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="430" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P430" s="11"/>
       <c r="Q430" s="11"/>
       <c r="R430" s="12"/>
@@ -10799,7 +10807,7 @@
       <c r="AF430" s="15"/>
       <c r="AG430" s="15"/>
     </row>
-    <row r="431" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="431" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P431" s="11"/>
       <c r="Q431" s="11"/>
       <c r="R431" s="12"/>
@@ -10818,7 +10826,7 @@
       <c r="AF431" s="15"/>
       <c r="AG431" s="15"/>
     </row>
-    <row r="432" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="432" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P432" s="11"/>
       <c r="Q432" s="11"/>
       <c r="R432" s="12"/>
@@ -10837,7 +10845,7 @@
       <c r="AF432" s="15"/>
       <c r="AG432" s="15"/>
     </row>
-    <row r="433" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="433" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P433" s="11"/>
       <c r="Q433" s="11"/>
       <c r="R433" s="12"/>
@@ -10856,7 +10864,7 @@
       <c r="AF433" s="15"/>
       <c r="AG433" s="15"/>
     </row>
-    <row r="434" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="434" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P434" s="11"/>
       <c r="Q434" s="11"/>
       <c r="R434" s="12"/>
@@ -10875,7 +10883,7 @@
       <c r="AF434" s="15"/>
       <c r="AG434" s="15"/>
     </row>
-    <row r="435" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="435" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P435" s="11"/>
       <c r="Q435" s="11"/>
       <c r="R435" s="12"/>
@@ -10894,7 +10902,7 @@
       <c r="AF435" s="15"/>
       <c r="AG435" s="15"/>
     </row>
-    <row r="436" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="436" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P436" s="11"/>
       <c r="Q436" s="11"/>
       <c r="R436" s="12"/>
@@ -10913,7 +10921,7 @@
       <c r="AF436" s="15"/>
       <c r="AG436" s="15"/>
     </row>
-    <row r="437" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="437" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P437" s="11"/>
       <c r="Q437" s="11"/>
       <c r="R437" s="12"/>
@@ -10932,7 +10940,7 @@
       <c r="AF437" s="15"/>
       <c r="AG437" s="15"/>
     </row>
-    <row r="438" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="438" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P438" s="11"/>
       <c r="Q438" s="11"/>
       <c r="R438" s="12"/>
@@ -10951,7 +10959,7 @@
       <c r="AF438" s="15"/>
       <c r="AG438" s="15"/>
     </row>
-    <row r="439" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="439" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P439" s="11"/>
       <c r="Q439" s="11"/>
       <c r="R439" s="12"/>
@@ -10970,7 +10978,7 @@
       <c r="AF439" s="15"/>
       <c r="AG439" s="15"/>
     </row>
-    <row r="440" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="440" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P440" s="11"/>
       <c r="Q440" s="11"/>
       <c r="R440" s="12"/>
@@ -10989,7 +10997,7 @@
       <c r="AF440" s="11"/>
       <c r="AG440" s="11"/>
     </row>
-    <row r="441" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="441" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P441" s="11"/>
       <c r="Q441" s="11"/>
       <c r="R441" s="12"/>
@@ -11008,7 +11016,7 @@
       <c r="AF441" s="11"/>
       <c r="AG441" s="11"/>
     </row>
-    <row r="442" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="442" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P442" s="11"/>
       <c r="Q442" s="11"/>
       <c r="R442" s="12"/>
@@ -11027,7 +11035,7 @@
       <c r="AF442" s="11"/>
       <c r="AG442" s="11"/>
     </row>
-    <row r="443" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="443" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P443" s="11"/>
       <c r="Q443" s="11"/>
       <c r="R443" s="12"/>
@@ -11046,7 +11054,7 @@
       <c r="AF443" s="11"/>
       <c r="AG443" s="11"/>
     </row>
-    <row r="444" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="444" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P444" s="11"/>
       <c r="Q444" s="11"/>
       <c r="R444" s="12"/>
@@ -11065,7 +11073,7 @@
       <c r="AF444" s="11"/>
       <c r="AG444" s="11"/>
     </row>
-    <row r="445" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="445" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P445" s="11"/>
       <c r="Q445" s="11"/>
       <c r="R445" s="12"/>
@@ -11084,7 +11092,7 @@
       <c r="AF445" s="11"/>
       <c r="AG445" s="11"/>
     </row>
-    <row r="446" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="446" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P446" s="11"/>
       <c r="Q446" s="11"/>
       <c r="R446" s="12"/>
@@ -11103,7 +11111,7 @@
       <c r="AF446" s="11"/>
       <c r="AG446" s="11"/>
     </row>
-    <row r="447" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="447" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P447" s="11"/>
       <c r="Q447" s="11"/>
       <c r="R447" s="12"/>
@@ -11122,7 +11130,7 @@
       <c r="AF447" s="11"/>
       <c r="AG447" s="11"/>
     </row>
-    <row r="448" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="448" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P448" s="11"/>
       <c r="Q448" s="11"/>
       <c r="R448" s="12"/>
@@ -11141,7 +11149,7 @@
       <c r="AF448" s="11"/>
       <c r="AG448" s="11"/>
     </row>
-    <row r="449" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="449" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P449" s="11"/>
       <c r="Q449" s="11"/>
       <c r="R449" s="12"/>
@@ -11160,7 +11168,7 @@
       <c r="AF449" s="11"/>
       <c r="AG449" s="11"/>
     </row>
-    <row r="450" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="450" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P450" s="11"/>
       <c r="Q450" s="11"/>
       <c r="R450" s="12"/>
@@ -11179,7 +11187,7 @@
       <c r="AF450" s="11"/>
       <c r="AG450" s="11"/>
     </row>
-    <row r="451" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="451" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P451" s="11"/>
       <c r="Q451" s="11"/>
       <c r="R451" s="12"/>
@@ -11198,7 +11206,7 @@
       <c r="AF451" s="11"/>
       <c r="AG451" s="11"/>
     </row>
-    <row r="452" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="452" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P452" s="11"/>
       <c r="Q452" s="11"/>
       <c r="R452" s="12"/>
@@ -11217,7 +11225,7 @@
       <c r="AF452" s="11"/>
       <c r="AG452" s="11"/>
     </row>
-    <row r="453" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="453" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P453" s="11"/>
       <c r="Q453" s="11"/>
       <c r="R453" s="12"/>
@@ -11236,7 +11244,7 @@
       <c r="AF453" s="11"/>
       <c r="AG453" s="11"/>
     </row>
-    <row r="454" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="454" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P454" s="11"/>
       <c r="Q454" s="11"/>
       <c r="R454" s="12"/>
@@ -11255,7 +11263,7 @@
       <c r="AF454" s="11"/>
       <c r="AG454" s="11"/>
     </row>
-    <row r="455" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="455" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P455" s="11"/>
       <c r="Q455" s="11"/>
       <c r="R455" s="12"/>
@@ -11274,7 +11282,7 @@
       <c r="AF455" s="15"/>
       <c r="AG455" s="15"/>
     </row>
-    <row r="456" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="456" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P456" s="11"/>
       <c r="Q456" s="11"/>
       <c r="R456" s="12"/>
@@ -11293,7 +11301,7 @@
       <c r="AF456" s="15"/>
       <c r="AG456" s="15"/>
     </row>
-    <row r="457" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="457" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P457" s="11"/>
       <c r="Q457" s="11"/>
       <c r="R457" s="12"/>
@@ -11312,7 +11320,7 @@
       <c r="AF457" s="15"/>
       <c r="AG457" s="15"/>
     </row>
-    <row r="458" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="458" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P458" s="11"/>
       <c r="Q458" s="11"/>
       <c r="R458" s="12"/>
@@ -11331,7 +11339,7 @@
       <c r="AF458" s="15"/>
       <c r="AG458" s="15"/>
     </row>
-    <row r="459" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="459" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P459" s="11"/>
       <c r="Q459" s="11"/>
       <c r="R459" s="12"/>
@@ -11350,7 +11358,7 @@
       <c r="AF459" s="15"/>
       <c r="AG459" s="15"/>
     </row>
-    <row r="460" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="460" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P460" s="11"/>
       <c r="Q460" s="11"/>
       <c r="R460" s="12"/>
@@ -11369,7 +11377,7 @@
       <c r="AF460" s="15"/>
       <c r="AG460" s="15"/>
     </row>
-    <row r="461" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="461" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P461" s="11"/>
       <c r="Q461" s="11"/>
       <c r="R461" s="12"/>
@@ -11388,7 +11396,7 @@
       <c r="AF461" s="15"/>
       <c r="AG461" s="15"/>
     </row>
-    <row r="462" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="462" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P462" s="11"/>
       <c r="Q462" s="11"/>
       <c r="R462" s="12"/>
@@ -11407,7 +11415,7 @@
       <c r="AF462" s="15"/>
       <c r="AG462" s="15"/>
     </row>
-    <row r="463" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="463" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P463" s="11"/>
       <c r="Q463" s="11"/>
       <c r="R463" s="12"/>
@@ -11426,7 +11434,7 @@
       <c r="AF463" s="15"/>
       <c r="AG463" s="15"/>
     </row>
-    <row r="464" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="464" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P464" s="11"/>
       <c r="Q464" s="11"/>
       <c r="R464" s="12"/>
@@ -11445,7 +11453,7 @@
       <c r="AF464" s="15"/>
       <c r="AG464" s="15"/>
     </row>
-    <row r="465" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="465" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P465" s="11"/>
       <c r="Q465" s="11"/>
       <c r="R465" s="12"/>
@@ -11464,7 +11472,7 @@
       <c r="AF465" s="15"/>
       <c r="AG465" s="15"/>
     </row>
-    <row r="466" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="466" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P466" s="11"/>
       <c r="Q466" s="11"/>
       <c r="R466" s="12"/>
@@ -11483,7 +11491,7 @@
       <c r="AF466" s="15"/>
       <c r="AG466" s="15"/>
     </row>
-    <row r="467" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="467" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P467" s="11"/>
       <c r="Q467" s="11"/>
       <c r="R467" s="12"/>
@@ -11502,7 +11510,7 @@
       <c r="AF467" s="15"/>
       <c r="AG467" s="15"/>
     </row>
-    <row r="468" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="468" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P468" s="11"/>
       <c r="Q468" s="11"/>
       <c r="R468" s="12"/>
@@ -11521,7 +11529,7 @@
       <c r="AF468" s="15"/>
       <c r="AG468" s="15"/>
     </row>
-    <row r="469" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="469" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P469" s="11"/>
       <c r="Q469" s="11"/>
       <c r="R469" s="12"/>
@@ -11540,7 +11548,7 @@
       <c r="AF469" s="15"/>
       <c r="AG469" s="15"/>
     </row>
-    <row r="470" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="470" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P470" s="11"/>
       <c r="Q470" s="11"/>
       <c r="R470" s="12"/>
@@ -11559,7 +11567,7 @@
       <c r="AF470" s="15"/>
       <c r="AG470" s="15"/>
     </row>
-    <row r="471" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="471" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P471" s="11"/>
       <c r="Q471" s="11"/>
       <c r="R471" s="12"/>
@@ -11578,7 +11586,7 @@
       <c r="AF471" s="15"/>
       <c r="AG471" s="15"/>
     </row>
-    <row r="472" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="472" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P472" s="11"/>
       <c r="Q472" s="11"/>
       <c r="R472" s="12"/>
@@ -11597,7 +11605,7 @@
       <c r="AF472" s="15"/>
       <c r="AG472" s="15"/>
     </row>
-    <row r="473" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="473" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P473" s="11"/>
       <c r="Q473" s="11"/>
       <c r="R473" s="12"/>
@@ -11616,7 +11624,7 @@
       <c r="AF473" s="15"/>
       <c r="AG473" s="15"/>
     </row>
-    <row r="474" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="474" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P474" s="11"/>
       <c r="Q474" s="11"/>
       <c r="R474" s="12"/>
@@ -11635,7 +11643,7 @@
       <c r="AF474" s="15"/>
       <c r="AG474" s="15"/>
     </row>
-    <row r="475" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="475" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P475" s="11"/>
       <c r="Q475" s="11"/>
       <c r="R475" s="12"/>
@@ -11654,7 +11662,7 @@
       <c r="AF475" s="15"/>
       <c r="AG475" s="15"/>
     </row>
-    <row r="476" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="476" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P476" s="11"/>
       <c r="Q476" s="11"/>
       <c r="R476" s="12"/>
@@ -11673,7 +11681,7 @@
       <c r="AF476" s="15"/>
       <c r="AG476" s="15"/>
     </row>
-    <row r="477" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="477" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P477" s="11"/>
       <c r="Q477" s="11"/>
       <c r="R477" s="12"/>
@@ -11692,7 +11700,7 @@
       <c r="AF477" s="15"/>
       <c r="AG477" s="15"/>
     </row>
-    <row r="478" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="478" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P478" s="11"/>
       <c r="Q478" s="11"/>
       <c r="R478" s="12"/>
@@ -11711,7 +11719,7 @@
       <c r="AF478" s="15"/>
       <c r="AG478" s="15"/>
     </row>
-    <row r="479" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="479" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P479" s="11"/>
       <c r="Q479" s="11"/>
       <c r="R479" s="12"/>
@@ -11730,7 +11738,7 @@
       <c r="AF479" s="15"/>
       <c r="AG479" s="15"/>
     </row>
-    <row r="480" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="480" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P480" s="11"/>
       <c r="Q480" s="11"/>
       <c r="R480" s="12"/>
@@ -11749,7 +11757,7 @@
       <c r="AF480" s="15"/>
       <c r="AG480" s="15"/>
     </row>
-    <row r="481" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="481" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P481" s="11"/>
       <c r="Q481" s="11"/>
       <c r="R481" s="12"/>
@@ -11768,7 +11776,7 @@
       <c r="AF481" s="15"/>
       <c r="AG481" s="15"/>
     </row>
-    <row r="482" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="482" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P482" s="11"/>
       <c r="Q482" s="11"/>
       <c r="R482" s="12"/>
@@ -11787,7 +11795,7 @@
       <c r="AF482" s="15"/>
       <c r="AG482" s="15"/>
     </row>
-    <row r="483" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="483" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P483" s="11"/>
       <c r="Q483" s="11"/>
       <c r="R483" s="12"/>
@@ -11806,7 +11814,7 @@
       <c r="AF483" s="15"/>
       <c r="AG483" s="15"/>
     </row>
-    <row r="484" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="484" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P484" s="11"/>
       <c r="Q484" s="11"/>
       <c r="R484" s="12"/>
@@ -11825,7 +11833,7 @@
       <c r="AF484" s="15"/>
       <c r="AG484" s="15"/>
     </row>
-    <row r="485" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="485" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P485" s="11"/>
       <c r="Q485" s="11"/>
       <c r="R485" s="12"/>
@@ -11844,7 +11852,7 @@
       <c r="AF485" s="11"/>
       <c r="AG485" s="15"/>
     </row>
-    <row r="486" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="486" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P486" s="11"/>
       <c r="Q486" s="11"/>
       <c r="R486" s="12"/>
@@ -11863,7 +11871,7 @@
       <c r="AF486" s="11"/>
       <c r="AG486" s="15"/>
     </row>
-    <row r="487" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="487" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P487" s="11"/>
       <c r="Q487" s="11"/>
       <c r="R487" s="12"/>
@@ -11882,7 +11890,7 @@
       <c r="AF487" s="11"/>
       <c r="AG487" s="15"/>
     </row>
-    <row r="488" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="488" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P488" s="11"/>
       <c r="Q488" s="11"/>
       <c r="R488" s="12"/>
@@ -11901,7 +11909,7 @@
       <c r="AF488" s="11"/>
       <c r="AG488" s="15"/>
     </row>
-    <row r="489" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="489" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P489" s="11"/>
       <c r="Q489" s="11"/>
       <c r="R489" s="12"/>
@@ -11920,7 +11928,7 @@
       <c r="AF489" s="11"/>
       <c r="AG489" s="15"/>
     </row>
-    <row r="490" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="490" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P490" s="11"/>
       <c r="Q490" s="11"/>
       <c r="R490" s="12"/>
@@ -11939,7 +11947,7 @@
       <c r="AF490" s="11"/>
       <c r="AG490" s="15"/>
     </row>
-    <row r="491" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="491" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P491" s="11"/>
       <c r="Q491" s="11"/>
       <c r="R491" s="12"/>
@@ -11958,7 +11966,7 @@
       <c r="AF491" s="11"/>
       <c r="AG491" s="15"/>
     </row>
-    <row r="492" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="492" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P492" s="11"/>
       <c r="Q492" s="11"/>
       <c r="R492" s="12"/>
@@ -11977,7 +11985,7 @@
       <c r="AF492" s="11"/>
       <c r="AG492" s="15"/>
     </row>
-    <row r="493" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="493" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P493" s="11"/>
       <c r="Q493" s="11"/>
       <c r="R493" s="12"/>
@@ -11996,7 +12004,7 @@
       <c r="AF493" s="15"/>
       <c r="AG493" s="15"/>
     </row>
-    <row r="494" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="494" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P494" s="11"/>
       <c r="Q494" s="11"/>
       <c r="R494" s="12"/>
@@ -12015,7 +12023,7 @@
       <c r="AF494" s="15"/>
       <c r="AG494" s="15"/>
     </row>
-    <row r="495" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="495" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P495" s="11"/>
       <c r="Q495" s="11"/>
       <c r="R495" s="12"/>
@@ -12034,7 +12042,7 @@
       <c r="AF495" s="15"/>
       <c r="AG495" s="15"/>
     </row>
-    <row r="496" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="496" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P496" s="11"/>
       <c r="Q496" s="11"/>
       <c r="R496" s="12"/>
@@ -12053,7 +12061,7 @@
       <c r="AF496" s="15"/>
       <c r="AG496" s="15"/>
     </row>
-    <row r="497" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="497" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P497" s="11"/>
       <c r="Q497" s="11"/>
       <c r="R497" s="12"/>
@@ -12072,7 +12080,7 @@
       <c r="AF497" s="15"/>
       <c r="AG497" s="15"/>
     </row>
-    <row r="498" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="498" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P498" s="11"/>
       <c r="Q498" s="11"/>
       <c r="R498" s="12"/>
@@ -12091,7 +12099,7 @@
       <c r="AF498" s="15"/>
       <c r="AG498" s="15"/>
     </row>
-    <row r="499" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="499" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P499" s="11"/>
       <c r="Q499" s="11"/>
       <c r="R499" s="12"/>
@@ -12110,7 +12118,7 @@
       <c r="AF499" s="15"/>
       <c r="AG499" s="15"/>
     </row>
-    <row r="500" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="500" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P500" s="11"/>
       <c r="Q500" s="11"/>
       <c r="R500" s="12"/>
@@ -12129,7 +12137,7 @@
       <c r="AF500" s="15"/>
       <c r="AG500" s="15"/>
     </row>
-    <row r="501" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="501" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P501" s="11"/>
       <c r="Q501" s="11"/>
       <c r="R501" s="12"/>
@@ -12148,7 +12156,7 @@
       <c r="AF501" s="15"/>
       <c r="AG501" s="15"/>
     </row>
-    <row r="502" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="502" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P502" s="11"/>
       <c r="Q502" s="11"/>
       <c r="R502" s="12"/>
@@ -12167,7 +12175,7 @@
       <c r="AF502" s="15"/>
       <c r="AG502" s="15"/>
     </row>
-    <row r="503" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="503" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P503" s="11"/>
       <c r="Q503" s="11"/>
       <c r="R503" s="12"/>
@@ -12186,7 +12194,7 @@
       <c r="AF503" s="15"/>
       <c r="AG503" s="15"/>
     </row>
-    <row r="504" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="504" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P504" s="11"/>
       <c r="Q504" s="11"/>
       <c r="R504" s="12"/>
@@ -12205,7 +12213,7 @@
       <c r="AF504" s="15"/>
       <c r="AG504" s="15"/>
     </row>
-    <row r="505" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="505" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P505" s="11"/>
       <c r="Q505" s="11"/>
       <c r="R505" s="12"/>
@@ -12224,7 +12232,7 @@
       <c r="AF505" s="15"/>
       <c r="AG505" s="15"/>
     </row>
-    <row r="506" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="506" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P506" s="11"/>
       <c r="Q506" s="11"/>
       <c r="R506" s="12"/>
@@ -12243,7 +12251,7 @@
       <c r="AF506" s="15"/>
       <c r="AG506" s="15"/>
     </row>
-    <row r="507" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="507" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P507" s="11"/>
       <c r="Q507" s="11"/>
       <c r="R507" s="12"/>
@@ -12262,7 +12270,7 @@
       <c r="AF507" s="15"/>
       <c r="AG507" s="15"/>
     </row>
-    <row r="508" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="508" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P508" s="11"/>
       <c r="Q508" s="11"/>
       <c r="R508" s="12"/>
@@ -12281,7 +12289,7 @@
       <c r="AF508" s="15"/>
       <c r="AG508" s="15"/>
     </row>
-    <row r="509" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="509" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P509" s="11"/>
       <c r="Q509" s="11"/>
       <c r="R509" s="12"/>
@@ -12300,7 +12308,7 @@
       <c r="AF509" s="15"/>
       <c r="AG509" s="15"/>
     </row>
-    <row r="510" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="510" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P510" s="11"/>
       <c r="Q510" s="11"/>
       <c r="R510" s="12"/>
@@ -12319,7 +12327,7 @@
       <c r="AF510" s="15"/>
       <c r="AG510" s="15"/>
     </row>
-    <row r="511" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="511" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P511" s="11"/>
       <c r="Q511" s="11"/>
       <c r="R511" s="12"/>
@@ -12338,7 +12346,7 @@
       <c r="AF511" s="15"/>
       <c r="AG511" s="15"/>
     </row>
-    <row r="512" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="512" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P512" s="11"/>
       <c r="Q512" s="11"/>
       <c r="R512" s="12"/>
@@ -12357,7 +12365,7 @@
       <c r="AF512" s="15"/>
       <c r="AG512" s="15"/>
     </row>
-    <row r="513" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="513" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P513" s="11"/>
       <c r="Q513" s="11"/>
       <c r="R513" s="12"/>
@@ -12376,7 +12384,7 @@
       <c r="AF513" s="15"/>
       <c r="AG513" s="15"/>
     </row>
-    <row r="514" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="514" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P514" s="11"/>
       <c r="Q514" s="11"/>
       <c r="R514" s="12"/>
@@ -12395,7 +12403,7 @@
       <c r="AF514" s="15"/>
       <c r="AG514" s="15"/>
     </row>
-    <row r="515" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="515" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P515" s="11"/>
       <c r="Q515" s="11"/>
       <c r="R515" s="12"/>
@@ -12414,7 +12422,7 @@
       <c r="AF515" s="15"/>
       <c r="AG515" s="15"/>
     </row>
-    <row r="516" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="516" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P516" s="11"/>
       <c r="Q516" s="11"/>
       <c r="R516" s="12"/>
@@ -12433,7 +12441,7 @@
       <c r="AF516" s="15"/>
       <c r="AG516" s="15"/>
     </row>
-    <row r="517" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="517" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P517" s="11"/>
       <c r="Q517" s="11"/>
       <c r="R517" s="12"/>
@@ -12452,7 +12460,7 @@
       <c r="AF517" s="15"/>
       <c r="AG517" s="15"/>
     </row>
-    <row r="518" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="518" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P518" s="11"/>
       <c r="Q518" s="11"/>
       <c r="R518" s="12"/>
@@ -12471,7 +12479,7 @@
       <c r="AF518" s="15"/>
       <c r="AG518" s="15"/>
     </row>
-    <row r="519" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="519" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P519" s="11"/>
       <c r="Q519" s="11"/>
       <c r="R519" s="12"/>
@@ -12490,7 +12498,7 @@
       <c r="AF519" s="15"/>
       <c r="AG519" s="15"/>
     </row>
-    <row r="520" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="520" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P520" s="11"/>
       <c r="Q520" s="11"/>
       <c r="R520" s="12"/>
@@ -12509,7 +12517,7 @@
       <c r="AF520" s="15"/>
       <c r="AG520" s="15"/>
     </row>
-    <row r="521" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="521" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P521" s="11"/>
       <c r="Q521" s="11"/>
       <c r="R521" s="12"/>
@@ -12528,7 +12536,7 @@
       <c r="AF521" s="15"/>
       <c r="AG521" s="15"/>
     </row>
-    <row r="522" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="522" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P522" s="11"/>
       <c r="Q522" s="11"/>
       <c r="R522" s="12"/>
@@ -12547,7 +12555,7 @@
       <c r="AF522" s="15"/>
       <c r="AG522" s="15"/>
     </row>
-    <row r="523" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="523" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P523" s="11"/>
       <c r="Q523" s="11"/>
       <c r="R523" s="12"/>
@@ -12566,7 +12574,7 @@
       <c r="AF523" s="15"/>
       <c r="AG523" s="15"/>
     </row>
-    <row r="524" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="524" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P524" s="11"/>
       <c r="Q524" s="11"/>
       <c r="R524" s="12"/>
@@ -12585,7 +12593,7 @@
       <c r="AF524" s="15"/>
       <c r="AG524" s="15"/>
     </row>
-    <row r="525" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="525" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P525" s="11"/>
       <c r="Q525" s="11"/>
       <c r="R525" s="12"/>
@@ -12604,7 +12612,7 @@
       <c r="AF525" s="15"/>
       <c r="AG525" s="15"/>
     </row>
-    <row r="526" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="526" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P526" s="11"/>
       <c r="Q526" s="11"/>
       <c r="R526" s="12"/>
@@ -12623,7 +12631,7 @@
       <c r="AF526" s="15"/>
       <c r="AG526" s="15"/>
     </row>
-    <row r="527" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="527" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P527" s="11"/>
       <c r="Q527" s="11"/>
       <c r="R527" s="12"/>
@@ -12642,7 +12650,7 @@
       <c r="AF527" s="15"/>
       <c r="AG527" s="15"/>
     </row>
-    <row r="528" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="528" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P528" s="11"/>
       <c r="Q528" s="11"/>
       <c r="R528" s="12"/>
@@ -12661,7 +12669,7 @@
       <c r="AF528" s="15"/>
       <c r="AG528" s="15"/>
     </row>
-    <row r="529" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="529" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P529" s="11"/>
       <c r="Q529" s="11"/>
       <c r="R529" s="12"/>
@@ -12680,7 +12688,7 @@
       <c r="AF529" s="15"/>
       <c r="AG529" s="15"/>
     </row>
-    <row r="530" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="530" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P530" s="11"/>
       <c r="Q530" s="11"/>
       <c r="R530" s="12"/>
@@ -12699,7 +12707,7 @@
       <c r="AF530" s="15"/>
       <c r="AG530" s="15"/>
     </row>
-    <row r="531" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="531" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P531" s="11"/>
       <c r="Q531" s="11"/>
       <c r="R531" s="12"/>
@@ -12718,7 +12726,7 @@
       <c r="AF531" s="15"/>
       <c r="AG531" s="15"/>
     </row>
-    <row r="532" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="532" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P532" s="11"/>
       <c r="Q532" s="11"/>
       <c r="R532" s="12"/>
@@ -12737,7 +12745,7 @@
       <c r="AF532" s="15"/>
       <c r="AG532" s="15"/>
     </row>
-    <row r="533" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="533" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P533" s="11"/>
       <c r="Q533" s="11"/>
       <c r="R533" s="12"/>
@@ -12756,7 +12764,7 @@
       <c r="AF533" s="15"/>
       <c r="AG533" s="15"/>
     </row>
-    <row r="534" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="534" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P534" s="11"/>
       <c r="Q534" s="11"/>
       <c r="R534" s="12"/>
@@ -12775,7 +12783,7 @@
       <c r="AF534" s="15"/>
       <c r="AG534" s="15"/>
     </row>
-    <row r="535" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="535" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P535" s="11"/>
       <c r="Q535" s="11"/>
       <c r="R535" s="12"/>
@@ -12794,7 +12802,7 @@
       <c r="AF535" s="15"/>
       <c r="AG535" s="15"/>
     </row>
-    <row r="536" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="536" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P536" s="11"/>
       <c r="Q536" s="11"/>
       <c r="R536" s="12"/>
@@ -12813,7 +12821,7 @@
       <c r="AF536" s="15"/>
       <c r="AG536" s="15"/>
     </row>
-    <row r="537" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="537" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P537" s="11"/>
       <c r="Q537" s="11"/>
       <c r="R537" s="12"/>
@@ -12832,7 +12840,7 @@
       <c r="AF537" s="15"/>
       <c r="AG537" s="15"/>
     </row>
-    <row r="538" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="538" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P538" s="11"/>
       <c r="Q538" s="11"/>
       <c r="R538" s="12"/>
@@ -12851,7 +12859,7 @@
       <c r="AF538" s="15"/>
       <c r="AG538" s="15"/>
     </row>
-    <row r="539" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="539" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P539" s="11"/>
       <c r="Q539" s="11"/>
       <c r="R539" s="12"/>
@@ -12870,7 +12878,7 @@
       <c r="AF539" s="15"/>
       <c r="AG539" s="15"/>
     </row>
-    <row r="540" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="540" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P540" s="11"/>
       <c r="Q540" s="11"/>
       <c r="R540" s="12"/>
@@ -12889,7 +12897,7 @@
       <c r="AF540" s="15"/>
       <c r="AG540" s="15"/>
     </row>
-    <row r="541" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="541" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P541" s="11"/>
       <c r="Q541" s="11"/>
       <c r="R541" s="12"/>
@@ -12908,7 +12916,7 @@
       <c r="AF541" s="15"/>
       <c r="AG541" s="15"/>
     </row>
-    <row r="542" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="542" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P542" s="11"/>
       <c r="Q542" s="11"/>
       <c r="R542" s="12"/>
@@ -12927,7 +12935,7 @@
       <c r="AF542" s="15"/>
       <c r="AG542" s="15"/>
     </row>
-    <row r="543" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="543" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P543" s="11"/>
       <c r="Q543" s="11"/>
       <c r="R543" s="12"/>
@@ -12946,7 +12954,7 @@
       <c r="AF543" s="15"/>
       <c r="AG543" s="15"/>
     </row>
-    <row r="544" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="544" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P544" s="11"/>
       <c r="Q544" s="11"/>
       <c r="R544" s="12"/>
@@ -12965,7 +12973,7 @@
       <c r="AF544" s="11"/>
       <c r="AG544" s="11"/>
     </row>
-    <row r="545" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="545" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P545" s="11"/>
       <c r="Q545" s="11"/>
       <c r="R545" s="12"/>
@@ -12984,7 +12992,7 @@
       <c r="AF545" s="11"/>
       <c r="AG545" s="11"/>
     </row>
-    <row r="546" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="546" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P546" s="11"/>
       <c r="Q546" s="11"/>
       <c r="R546" s="12"/>
@@ -13003,7 +13011,7 @@
       <c r="AF546" s="11"/>
       <c r="AG546" s="11"/>
     </row>
-    <row r="547" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="547" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P547" s="11"/>
       <c r="Q547" s="11"/>
       <c r="R547" s="12"/>
@@ -13022,7 +13030,7 @@
       <c r="AF547" s="11"/>
       <c r="AG547" s="11"/>
     </row>
-    <row r="548" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="548" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P548" s="11"/>
       <c r="Q548" s="11"/>
       <c r="R548" s="12"/>
@@ -13041,7 +13049,7 @@
       <c r="AF548" s="11"/>
       <c r="AG548" s="11"/>
     </row>
-    <row r="549" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="549" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P549" s="11"/>
       <c r="Q549" s="11"/>
       <c r="R549" s="12"/>
@@ -13060,7 +13068,7 @@
       <c r="AF549" s="11"/>
       <c r="AG549" s="11"/>
     </row>
-    <row r="550" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="550" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P550" s="11"/>
       <c r="Q550" s="11"/>
       <c r="R550" s="12"/>
@@ -13079,7 +13087,7 @@
       <c r="AF550" s="11"/>
       <c r="AG550" s="11"/>
     </row>
-    <row r="551" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="551" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P551" s="11"/>
       <c r="Q551" s="11"/>
       <c r="R551" s="12"/>
@@ -13098,7 +13106,7 @@
       <c r="AF551" s="11"/>
       <c r="AG551" s="15"/>
     </row>
-    <row r="552" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="552" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P552" s="11"/>
       <c r="Q552" s="11"/>
       <c r="R552" s="12"/>
@@ -13117,7 +13125,7 @@
       <c r="AF552" s="11"/>
       <c r="AG552" s="15"/>
     </row>
-    <row r="553" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="553" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P553" s="11"/>
       <c r="Q553" s="11"/>
       <c r="R553" s="12"/>
@@ -13136,7 +13144,7 @@
       <c r="AF553" s="11"/>
       <c r="AG553" s="15"/>
     </row>
-    <row r="554" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="554" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P554" s="11"/>
       <c r="Q554" s="11"/>
       <c r="R554" s="12"/>
@@ -13155,7 +13163,7 @@
       <c r="AF554" s="11"/>
       <c r="AG554" s="15"/>
     </row>
-    <row r="555" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="555" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P555" s="11"/>
       <c r="Q555" s="11"/>
       <c r="R555" s="12"/>
@@ -13174,7 +13182,7 @@
       <c r="AF555" s="15"/>
       <c r="AG555" s="15"/>
     </row>
-    <row r="556" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="556" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P556" s="11"/>
       <c r="Q556" s="11"/>
       <c r="R556" s="12"/>
@@ -13193,7 +13201,7 @@
       <c r="AF556" s="15"/>
       <c r="AG556" s="15"/>
     </row>
-    <row r="557" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="557" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P557" s="11"/>
       <c r="Q557" s="11"/>
       <c r="R557" s="12"/>
@@ -13212,7 +13220,7 @@
       <c r="AF557" s="15"/>
       <c r="AG557" s="15"/>
     </row>
-    <row r="558" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="558" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P558" s="11"/>
       <c r="Q558" s="11"/>
       <c r="R558" s="12"/>
@@ -13231,7 +13239,7 @@
       <c r="AF558" s="15"/>
       <c r="AG558" s="15"/>
     </row>
-    <row r="559" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="559" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P559" s="11"/>
       <c r="Q559" s="11"/>
       <c r="R559" s="12"/>
@@ -13250,7 +13258,7 @@
       <c r="AF559" s="15"/>
       <c r="AG559" s="15"/>
     </row>
-    <row r="560" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="560" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P560" s="11"/>
       <c r="Q560" s="11"/>
       <c r="R560" s="12"/>
@@ -13269,7 +13277,7 @@
       <c r="AF560" s="15"/>
       <c r="AG560" s="15"/>
     </row>
-    <row r="561" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="561" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P561" s="11"/>
       <c r="Q561" s="11"/>
       <c r="R561" s="12"/>
@@ -13288,7 +13296,7 @@
       <c r="AF561" s="15"/>
       <c r="AG561" s="15"/>
     </row>
-    <row r="562" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="562" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P562" s="11"/>
       <c r="Q562" s="11"/>
       <c r="R562" s="12"/>
@@ -13307,7 +13315,7 @@
       <c r="AF562" s="15"/>
       <c r="AG562" s="15"/>
     </row>
-    <row r="563" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="563" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P563" s="11"/>
       <c r="Q563" s="11"/>
       <c r="R563" s="12"/>
@@ -13326,7 +13334,7 @@
       <c r="AF563" s="15"/>
       <c r="AG563" s="15"/>
     </row>
-    <row r="564" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="564" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P564" s="11"/>
       <c r="Q564" s="11"/>
       <c r="R564" s="12"/>
@@ -13345,7 +13353,7 @@
       <c r="AF564" s="15"/>
       <c r="AG564" s="15"/>
     </row>
-    <row r="565" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="565" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P565" s="11"/>
       <c r="Q565" s="11"/>
       <c r="R565" s="12"/>
@@ -13364,7 +13372,7 @@
       <c r="AF565" s="15"/>
       <c r="AG565" s="15"/>
     </row>
-    <row r="566" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="566" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P566" s="11"/>
       <c r="Q566" s="11"/>
       <c r="R566" s="12"/>
@@ -13383,7 +13391,7 @@
       <c r="AF566" s="15"/>
       <c r="AG566" s="15"/>
     </row>
-    <row r="567" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="567" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P567" s="11"/>
       <c r="Q567" s="11"/>
       <c r="R567" s="12"/>
@@ -13402,7 +13410,7 @@
       <c r="AF567" s="15"/>
       <c r="AG567" s="15"/>
     </row>
-    <row r="568" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="568" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P568" s="11"/>
       <c r="Q568" s="11"/>
       <c r="R568" s="12"/>
@@ -13421,7 +13429,7 @@
       <c r="AF568" s="15"/>
       <c r="AG568" s="15"/>
     </row>
-    <row r="569" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="569" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P569" s="11"/>
       <c r="Q569" s="11"/>
       <c r="R569" s="12"/>
@@ -13440,7 +13448,7 @@
       <c r="AF569" s="15"/>
       <c r="AG569" s="15"/>
     </row>
-    <row r="570" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="570" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P570" s="11"/>
       <c r="Q570" s="11"/>
       <c r="R570" s="12"/>
@@ -13459,7 +13467,7 @@
       <c r="AF570" s="15"/>
       <c r="AG570" s="15"/>
     </row>
-    <row r="571" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="571" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P571" s="11"/>
       <c r="Q571" s="11"/>
       <c r="R571" s="12"/>
@@ -13478,7 +13486,7 @@
       <c r="AF571" s="15"/>
       <c r="AG571" s="15"/>
     </row>
-    <row r="572" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="572" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P572" s="11"/>
       <c r="Q572" s="11"/>
       <c r="R572" s="12"/>
@@ -13497,7 +13505,7 @@
       <c r="AF572" s="15"/>
       <c r="AG572" s="15"/>
     </row>
-    <row r="573" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="573" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P573" s="11"/>
       <c r="Q573" s="11"/>
       <c r="R573" s="12"/>
@@ -13516,7 +13524,7 @@
       <c r="AF573" s="15"/>
       <c r="AG573" s="15"/>
     </row>
-    <row r="574" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="574" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P574" s="11"/>
       <c r="Q574" s="11"/>
       <c r="R574" s="12"/>
@@ -13535,7 +13543,7 @@
       <c r="AF574" s="15"/>
       <c r="AG574" s="15"/>
     </row>
-    <row r="575" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="575" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P575" s="11"/>
       <c r="Q575" s="11"/>
       <c r="R575" s="12"/>
@@ -13554,7 +13562,7 @@
       <c r="AF575" s="15"/>
       <c r="AG575" s="15"/>
     </row>
-    <row r="576" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="576" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P576" s="11"/>
       <c r="Q576" s="11"/>
       <c r="R576" s="12"/>
@@ -13573,7 +13581,7 @@
       <c r="AF576" s="15"/>
       <c r="AG576" s="15"/>
     </row>
-    <row r="577" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="577" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P577" s="11"/>
       <c r="Q577" s="11"/>
       <c r="R577" s="12"/>
@@ -13592,7 +13600,7 @@
       <c r="AF577" s="15"/>
       <c r="AG577" s="15"/>
     </row>
-    <row r="578" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="578" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P578" s="11"/>
       <c r="Q578" s="11"/>
       <c r="R578" s="12"/>
@@ -13611,7 +13619,7 @@
       <c r="AF578" s="15"/>
       <c r="AG578" s="15"/>
     </row>
-    <row r="579" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="579" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P579" s="11"/>
       <c r="Q579" s="11"/>
       <c r="R579" s="12"/>
@@ -13630,7 +13638,7 @@
       <c r="AF579" s="15"/>
       <c r="AG579" s="15"/>
     </row>
-    <row r="580" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="580" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P580" s="11"/>
       <c r="Q580" s="11"/>
       <c r="R580" s="12"/>
@@ -13649,7 +13657,7 @@
       <c r="AF580" s="15"/>
       <c r="AG580" s="15"/>
     </row>
-    <row r="581" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="581" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P581" s="11"/>
       <c r="Q581" s="11"/>
       <c r="R581" s="12"/>
@@ -13668,7 +13676,7 @@
       <c r="AF581" s="15"/>
       <c r="AG581" s="15"/>
     </row>
-    <row r="582" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="582" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P582" s="11"/>
       <c r="Q582" s="11"/>
       <c r="R582" s="12"/>
@@ -13687,7 +13695,7 @@
       <c r="AF582" s="15"/>
       <c r="AG582" s="15"/>
     </row>
-    <row r="583" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="583" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P583" s="11"/>
       <c r="Q583" s="11"/>
       <c r="R583" s="12"/>
@@ -13706,7 +13714,7 @@
       <c r="AF583" s="15"/>
       <c r="AG583" s="15"/>
     </row>
-    <row r="584" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="584" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P584" s="11"/>
       <c r="Q584" s="11"/>
       <c r="R584" s="12"/>
@@ -13725,7 +13733,7 @@
       <c r="AF584" s="15"/>
       <c r="AG584" s="15"/>
     </row>
-    <row r="585" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="585" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P585" s="11"/>
       <c r="Q585" s="11"/>
       <c r="R585" s="12"/>
@@ -13744,7 +13752,7 @@
       <c r="AF585" s="15"/>
       <c r="AG585" s="15"/>
     </row>
-    <row r="586" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="586" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P586" s="11"/>
       <c r="Q586" s="11"/>
       <c r="R586" s="12"/>
@@ -13763,7 +13771,7 @@
       <c r="AF586" s="15"/>
       <c r="AG586" s="15"/>
     </row>
-    <row r="587" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="587" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P587" s="11"/>
       <c r="Q587" s="11"/>
       <c r="R587" s="12"/>
@@ -13782,7 +13790,7 @@
       <c r="AF587" s="15"/>
       <c r="AG587" s="15"/>
     </row>
-    <row r="588" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="588" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P588" s="11"/>
       <c r="Q588" s="11"/>
       <c r="R588" s="12"/>
@@ -13801,7 +13809,7 @@
       <c r="AF588" s="15"/>
       <c r="AG588" s="15"/>
     </row>
-    <row r="589" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="589" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P589" s="11"/>
       <c r="Q589" s="11"/>
       <c r="R589" s="12"/>
@@ -13820,7 +13828,7 @@
       <c r="AF589" s="15"/>
       <c r="AG589" s="15"/>
     </row>
-    <row r="590" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="590" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P590" s="11"/>
       <c r="Q590" s="11"/>
       <c r="R590" s="12"/>
@@ -13839,7 +13847,7 @@
       <c r="AF590" s="15"/>
       <c r="AG590" s="15"/>
     </row>
-    <row r="591" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="591" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P591" s="11"/>
       <c r="Q591" s="11"/>
       <c r="R591" s="12"/>
@@ -13858,7 +13866,7 @@
       <c r="AF591" s="15"/>
       <c r="AG591" s="15"/>
     </row>
-    <row r="592" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="592" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P592" s="11"/>
       <c r="Q592" s="11"/>
       <c r="R592" s="12"/>
@@ -13877,7 +13885,7 @@
       <c r="AF592" s="15"/>
       <c r="AG592" s="15"/>
     </row>
-    <row r="593" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="593" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P593" s="11"/>
       <c r="Q593" s="11"/>
       <c r="R593" s="12"/>
@@ -13896,7 +13904,7 @@
       <c r="AF593" s="15"/>
       <c r="AG593" s="15"/>
     </row>
-    <row r="594" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="594" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P594" s="11"/>
       <c r="Q594" s="11"/>
       <c r="R594" s="12"/>
@@ -13915,7 +13923,7 @@
       <c r="AF594" s="15"/>
       <c r="AG594" s="15"/>
     </row>
-    <row r="595" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="595" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P595" s="11"/>
       <c r="Q595" s="11"/>
       <c r="R595" s="12"/>
@@ -13934,7 +13942,7 @@
       <c r="AF595" s="15"/>
       <c r="AG595" s="15"/>
     </row>
-    <row r="596" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="596" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P596" s="11"/>
       <c r="Q596" s="11"/>
       <c r="R596" s="12"/>
@@ -13953,7 +13961,7 @@
       <c r="AF596" s="15"/>
       <c r="AG596" s="15"/>
     </row>
-    <row r="597" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="597" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P597" s="11"/>
       <c r="Q597" s="11"/>
       <c r="R597" s="12"/>
@@ -13972,7 +13980,7 @@
       <c r="AF597" s="15"/>
       <c r="AG597" s="15"/>
     </row>
-    <row r="598" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="598" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P598" s="11"/>
       <c r="Q598" s="11"/>
       <c r="R598" s="12"/>
@@ -13991,7 +13999,7 @@
       <c r="AF598" s="15"/>
       <c r="AG598" s="15"/>
     </row>
-    <row r="599" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="599" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P599" s="11"/>
       <c r="Q599" s="11"/>
       <c r="R599" s="12"/>
@@ -14010,7 +14018,7 @@
       <c r="AF599" s="15"/>
       <c r="AG599" s="15"/>
     </row>
-    <row r="600" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="600" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P600" s="11"/>
       <c r="Q600" s="11"/>
       <c r="R600" s="12"/>
@@ -14029,7 +14037,7 @@
       <c r="AF600" s="15"/>
       <c r="AG600" s="15"/>
     </row>
-    <row r="601" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="601" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P601" s="11"/>
       <c r="Q601" s="11"/>
       <c r="R601" s="12"/>
@@ -14048,7 +14056,7 @@
       <c r="AF601" s="15"/>
       <c r="AG601" s="15"/>
     </row>
-    <row r="602" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="602" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P602" s="11"/>
       <c r="Q602" s="11"/>
       <c r="R602" s="12"/>
@@ -14067,7 +14075,7 @@
       <c r="AF602" s="15"/>
       <c r="AG602" s="15"/>
     </row>
-    <row r="603" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="603" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P603" s="11"/>
       <c r="Q603" s="11"/>
       <c r="R603" s="12"/>
@@ -14086,7 +14094,7 @@
       <c r="AF603" s="15"/>
       <c r="AG603" s="15"/>
     </row>
-    <row r="604" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="604" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P604" s="11"/>
       <c r="Q604" s="11"/>
       <c r="R604" s="12"/>
@@ -14105,7 +14113,7 @@
       <c r="AF604" s="15"/>
       <c r="AG604" s="15"/>
     </row>
-    <row r="605" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="605" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P605" s="11"/>
       <c r="Q605" s="11"/>
       <c r="R605" s="12"/>
@@ -14124,7 +14132,7 @@
       <c r="AF605" s="15"/>
       <c r="AG605" s="15"/>
     </row>
-    <row r="606" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="606" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P606" s="11"/>
       <c r="Q606" s="11"/>
       <c r="R606" s="12"/>
@@ -14143,7 +14151,7 @@
       <c r="AF606" s="15"/>
       <c r="AG606" s="15"/>
     </row>
-    <row r="607" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="607" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P607" s="11"/>
       <c r="Q607" s="11"/>
       <c r="R607" s="12"/>
@@ -14162,7 +14170,7 @@
       <c r="AF607" s="15"/>
       <c r="AG607" s="15"/>
     </row>
-    <row r="608" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="608" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P608" s="11"/>
       <c r="Q608" s="11"/>
       <c r="R608" s="12"/>
@@ -14181,7 +14189,7 @@
       <c r="AF608" s="15"/>
       <c r="AG608" s="15"/>
     </row>
-    <row r="609" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="609" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P609" s="11"/>
       <c r="Q609" s="11"/>
       <c r="R609" s="12"/>
@@ -14200,7 +14208,7 @@
       <c r="AF609" s="15"/>
       <c r="AG609" s="15"/>
     </row>
-    <row r="610" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="610" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P610" s="11"/>
       <c r="Q610" s="11"/>
       <c r="R610" s="12"/>
@@ -14219,7 +14227,7 @@
       <c r="AF610" s="15"/>
       <c r="AG610" s="15"/>
     </row>
-    <row r="611" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="611" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P611" s="11"/>
       <c r="Q611" s="11"/>
       <c r="R611" s="12"/>
@@ -14238,7 +14246,7 @@
       <c r="AF611" s="15"/>
       <c r="AG611" s="15"/>
     </row>
-    <row r="612" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="612" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P612" s="11"/>
       <c r="Q612" s="11"/>
       <c r="R612" s="12"/>
@@ -14257,7 +14265,7 @@
       <c r="AF612" s="15"/>
       <c r="AG612" s="15"/>
     </row>
-    <row r="613" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="613" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P613" s="11"/>
       <c r="Q613" s="11"/>
       <c r="R613" s="12"/>
@@ -14276,7 +14284,7 @@
       <c r="AF613" s="15"/>
       <c r="AG613" s="15"/>
     </row>
-    <row r="614" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="614" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P614" s="11"/>
       <c r="Q614" s="11"/>
       <c r="R614" s="12"/>
@@ -14295,7 +14303,7 @@
       <c r="AF614" s="15"/>
       <c r="AG614" s="15"/>
     </row>
-    <row r="615" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="615" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P615" s="11"/>
       <c r="Q615" s="11"/>
       <c r="R615" s="12"/>
@@ -14314,7 +14322,7 @@
       <c r="AF615" s="15"/>
       <c r="AG615" s="15"/>
     </row>
-    <row r="616" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="616" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P616" s="11"/>
       <c r="Q616" s="11"/>
       <c r="R616" s="12"/>
@@ -14333,7 +14341,7 @@
       <c r="AF616" s="15"/>
       <c r="AG616" s="15"/>
     </row>
-    <row r="617" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="617" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P617" s="11"/>
       <c r="Q617" s="11"/>
       <c r="R617" s="12"/>
@@ -14352,7 +14360,7 @@
       <c r="AF617" s="15"/>
       <c r="AG617" s="15"/>
     </row>
-    <row r="618" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="618" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P618" s="11"/>
       <c r="Q618" s="11"/>
       <c r="R618" s="12"/>
@@ -14371,7 +14379,7 @@
       <c r="AF618" s="15"/>
       <c r="AG618" s="15"/>
     </row>
-    <row r="619" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="619" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P619" s="11"/>
       <c r="Q619" s="11"/>
       <c r="R619" s="12"/>
@@ -14390,7 +14398,7 @@
       <c r="AF619" s="15"/>
       <c r="AG619" s="15"/>
     </row>
-    <row r="620" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="620" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P620" s="11"/>
       <c r="Q620" s="11"/>
       <c r="R620" s="12"/>
@@ -14409,7 +14417,7 @@
       <c r="AF620" s="15"/>
       <c r="AG620" s="15"/>
     </row>
-    <row r="621" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="621" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P621" s="11"/>
       <c r="Q621" s="11"/>
       <c r="R621" s="12"/>
@@ -14428,7 +14436,7 @@
       <c r="AF621" s="15"/>
       <c r="AG621" s="15"/>
     </row>
-    <row r="622" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="622" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P622" s="11"/>
       <c r="Q622" s="11"/>
       <c r="R622" s="12"/>
@@ -14447,7 +14455,7 @@
       <c r="AF622" s="15"/>
       <c r="AG622" s="15"/>
     </row>
-    <row r="623" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="623" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P623" s="11"/>
       <c r="Q623" s="11"/>
       <c r="R623" s="12"/>
@@ -14466,7 +14474,7 @@
       <c r="AF623" s="15"/>
       <c r="AG623" s="15"/>
     </row>
-    <row r="624" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="624" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P624" s="11"/>
       <c r="Q624" s="11"/>
       <c r="R624" s="12"/>
@@ -14485,7 +14493,7 @@
       <c r="AF624" s="15"/>
       <c r="AG624" s="15"/>
     </row>
-    <row r="625" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="625" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P625" s="11"/>
       <c r="Q625" s="11"/>
       <c r="R625" s="12"/>
@@ -14504,7 +14512,7 @@
       <c r="AF625" s="15"/>
       <c r="AG625" s="15"/>
     </row>
-    <row r="626" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="626" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P626" s="11"/>
       <c r="Q626" s="11"/>
       <c r="R626" s="12"/>
@@ -14523,7 +14531,7 @@
       <c r="AF626" s="15"/>
       <c r="AG626" s="15"/>
     </row>
-    <row r="627" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="627" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P627" s="11"/>
       <c r="Q627" s="11"/>
       <c r="R627" s="12"/>
@@ -14542,7 +14550,7 @@
       <c r="AF627" s="15"/>
       <c r="AG627" s="15"/>
     </row>
-    <row r="628" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="628" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P628" s="11"/>
       <c r="Q628" s="11"/>
       <c r="R628" s="12"/>
@@ -14561,7 +14569,7 @@
       <c r="AF628" s="15"/>
       <c r="AG628" s="15"/>
     </row>
-    <row r="629" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="629" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P629" s="11"/>
       <c r="Q629" s="11"/>
       <c r="R629" s="12"/>
@@ -14580,7 +14588,7 @@
       <c r="AF629" s="15"/>
       <c r="AG629" s="15"/>
     </row>
-    <row r="630" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="630" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P630" s="11"/>
       <c r="Q630" s="11"/>
       <c r="R630" s="12"/>
@@ -14599,7 +14607,7 @@
       <c r="AF630" s="15"/>
       <c r="AG630" s="15"/>
     </row>
-    <row r="631" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="631" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P631" s="11"/>
       <c r="Q631" s="11"/>
       <c r="R631" s="12"/>
@@ -14618,7 +14626,7 @@
       <c r="AF631" s="15"/>
       <c r="AG631" s="15"/>
     </row>
-    <row r="632" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="632" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P632" s="11"/>
       <c r="Q632" s="11"/>
       <c r="R632" s="12"/>
@@ -14637,7 +14645,7 @@
       <c r="AF632" s="15"/>
       <c r="AG632" s="15"/>
     </row>
-    <row r="633" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="633" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P633" s="11"/>
       <c r="Q633" s="11"/>
       <c r="R633" s="12"/>
@@ -14656,7 +14664,7 @@
       <c r="AF633" s="15"/>
       <c r="AG633" s="15"/>
     </row>
-    <row r="634" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="634" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P634" s="11"/>
       <c r="Q634" s="11"/>
       <c r="R634" s="12"/>
@@ -14675,7 +14683,7 @@
       <c r="AF634" s="15"/>
       <c r="AG634" s="15"/>
     </row>
-    <row r="635" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="635" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P635" s="11"/>
       <c r="Q635" s="11"/>
       <c r="R635" s="12"/>
@@ -14694,7 +14702,7 @@
       <c r="AF635" s="15"/>
       <c r="AG635" s="15"/>
     </row>
-    <row r="636" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="636" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P636" s="11"/>
       <c r="Q636" s="11"/>
       <c r="R636" s="12"/>
@@ -14713,7 +14721,7 @@
       <c r="AF636" s="15"/>
       <c r="AG636" s="15"/>
     </row>
-    <row r="637" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="637" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P637" s="11"/>
       <c r="Q637" s="11"/>
       <c r="R637" s="12"/>
@@ -14732,7 +14740,7 @@
       <c r="AF637" s="15"/>
       <c r="AG637" s="15"/>
     </row>
-    <row r="638" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="638" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P638" s="11"/>
       <c r="Q638" s="11"/>
       <c r="R638" s="12"/>
@@ -14751,7 +14759,7 @@
       <c r="AF638" s="15"/>
       <c r="AG638" s="15"/>
     </row>
-    <row r="639" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="639" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P639" s="11"/>
       <c r="Q639" s="11"/>
       <c r="R639" s="12"/>
@@ -14770,7 +14778,7 @@
       <c r="AF639" s="15"/>
       <c r="AG639" s="15"/>
     </row>
-    <row r="640" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="640" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P640" s="11"/>
       <c r="Q640" s="11"/>
       <c r="R640" s="12"/>
@@ -14789,7 +14797,7 @@
       <c r="AF640" s="15"/>
       <c r="AG640" s="15"/>
     </row>
-    <row r="641" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="641" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P641" s="11"/>
       <c r="Q641" s="11"/>
       <c r="R641" s="12"/>
@@ -14808,7 +14816,7 @@
       <c r="AF641" s="15"/>
       <c r="AG641" s="15"/>
     </row>
-    <row r="642" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="642" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P642" s="11"/>
       <c r="Q642" s="11"/>
       <c r="R642" s="12"/>
@@ -14827,7 +14835,7 @@
       <c r="AF642" s="15"/>
       <c r="AG642" s="15"/>
     </row>
-    <row r="643" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="643" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P643" s="11"/>
       <c r="Q643" s="11"/>
       <c r="R643" s="12"/>
@@ -14846,7 +14854,7 @@
       <c r="AF643" s="15"/>
       <c r="AG643" s="15"/>
     </row>
-    <row r="644" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="644" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P644" s="11"/>
       <c r="Q644" s="11"/>
       <c r="R644" s="12"/>
@@ -14865,7 +14873,7 @@
       <c r="AF644" s="15"/>
       <c r="AG644" s="15"/>
     </row>
-    <row r="645" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="645" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P645" s="11"/>
       <c r="Q645" s="11"/>
       <c r="R645" s="12"/>
@@ -14884,7 +14892,7 @@
       <c r="AF645" s="15"/>
       <c r="AG645" s="15"/>
     </row>
-    <row r="646" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="646" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P646" s="11"/>
       <c r="Q646" s="11"/>
       <c r="R646" s="12"/>
@@ -14903,7 +14911,7 @@
       <c r="AF646" s="15"/>
       <c r="AG646" s="15"/>
     </row>
-    <row r="647" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="647" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P647" s="11"/>
       <c r="Q647" s="11"/>
       <c r="R647" s="12"/>
@@ -14922,7 +14930,7 @@
       <c r="AF647" s="15"/>
       <c r="AG647" s="15"/>
     </row>
-    <row r="648" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="648" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P648" s="11"/>
       <c r="Q648" s="11"/>
       <c r="R648" s="12"/>
@@ -14941,7 +14949,7 @@
       <c r="AF648" s="15"/>
       <c r="AG648" s="15"/>
     </row>
-    <row r="649" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="649" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P649" s="11"/>
       <c r="Q649" s="11"/>
       <c r="R649" s="12"/>
@@ -14960,7 +14968,7 @@
       <c r="AF649" s="11"/>
       <c r="AG649" s="11"/>
     </row>
-    <row r="650" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="650" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P650" s="11"/>
       <c r="Q650" s="11"/>
       <c r="R650" s="12"/>
@@ -14979,7 +14987,7 @@
       <c r="AF650" s="11"/>
       <c r="AG650" s="15"/>
     </row>
-    <row r="651" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="651" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P651" s="11"/>
       <c r="Q651" s="11"/>
       <c r="R651" s="12"/>
@@ -14998,7 +15006,7 @@
       <c r="AF651" s="11"/>
       <c r="AG651" s="15"/>
     </row>
-    <row r="652" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="652" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P652" s="11"/>
       <c r="Q652" s="11"/>
       <c r="R652" s="12"/>
@@ -15017,7 +15025,7 @@
       <c r="AF652" s="15"/>
       <c r="AG652" s="15"/>
     </row>
-    <row r="653" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="653" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P653" s="11"/>
       <c r="Q653" s="11"/>
       <c r="R653" s="12"/>
@@ -15036,7 +15044,7 @@
       <c r="AF653" s="15"/>
       <c r="AG653" s="15"/>
     </row>
-    <row r="654" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="654" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P654" s="11"/>
       <c r="Q654" s="11"/>
       <c r="R654" s="12"/>
@@ -15055,7 +15063,7 @@
       <c r="AF654" s="15"/>
       <c r="AG654" s="15"/>
     </row>
-    <row r="655" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="655" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P655" s="11"/>
       <c r="Q655" s="11"/>
       <c r="R655" s="12"/>
@@ -15074,7 +15082,7 @@
       <c r="AF655" s="15"/>
       <c r="AG655" s="15"/>
     </row>
-    <row r="656" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="656" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P656" s="11"/>
       <c r="Q656" s="11"/>
       <c r="R656" s="12"/>
@@ -15093,7 +15101,7 @@
       <c r="AF656" s="15"/>
       <c r="AG656" s="15"/>
     </row>
-    <row r="657" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="657" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P657" s="11"/>
       <c r="Q657" s="11"/>
       <c r="R657" s="12"/>
@@ -15112,7 +15120,7 @@
       <c r="AF657" s="15"/>
       <c r="AG657" s="15"/>
     </row>
-    <row r="658" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="658" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P658" s="11"/>
       <c r="Q658" s="11"/>
       <c r="R658" s="12"/>
@@ -15131,7 +15139,7 @@
       <c r="AF658" s="15"/>
       <c r="AG658" s="15"/>
     </row>
-    <row r="659" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="659" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P659" s="11"/>
       <c r="Q659" s="11"/>
       <c r="R659" s="12"/>
@@ -15150,7 +15158,7 @@
       <c r="AF659" s="15"/>
       <c r="AG659" s="15"/>
     </row>
-    <row r="660" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="660" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P660" s="11"/>
       <c r="Q660" s="11"/>
       <c r="R660" s="12"/>
@@ -15169,7 +15177,7 @@
       <c r="AF660" s="15"/>
       <c r="AG660" s="15"/>
     </row>
-    <row r="661" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="661" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P661" s="11"/>
       <c r="Q661" s="11"/>
       <c r="R661" s="12"/>
@@ -15188,7 +15196,7 @@
       <c r="AF661" s="15"/>
       <c r="AG661" s="15"/>
     </row>
-    <row r="662" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="662" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P662" s="11"/>
       <c r="Q662" s="11"/>
       <c r="R662" s="12"/>
@@ -15207,7 +15215,7 @@
       <c r="AF662" s="15"/>
       <c r="AG662" s="15"/>
     </row>
-    <row r="663" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="663" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P663" s="11"/>
       <c r="Q663" s="11"/>
       <c r="R663" s="12"/>
@@ -15226,7 +15234,7 @@
       <c r="AF663" s="15"/>
       <c r="AG663" s="15"/>
     </row>
-    <row r="664" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="664" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P664" s="11"/>
       <c r="Q664" s="11"/>
       <c r="R664" s="12"/>
@@ -15245,7 +15253,7 @@
       <c r="AF664" s="15"/>
       <c r="AG664" s="15"/>
     </row>
-    <row r="665" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="665" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P665" s="11"/>
       <c r="Q665" s="11"/>
       <c r="R665" s="12"/>
@@ -15264,7 +15272,7 @@
       <c r="AF665" s="15"/>
       <c r="AG665" s="15"/>
     </row>
-    <row r="666" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="666" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P666" s="11"/>
       <c r="Q666" s="11"/>
       <c r="R666" s="12"/>
@@ -15283,7 +15291,7 @@
       <c r="AF666" s="15"/>
       <c r="AG666" s="15"/>
     </row>
-    <row r="667" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="667" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P667" s="11"/>
       <c r="Q667" s="11"/>
       <c r="R667" s="12"/>
@@ -15302,7 +15310,7 @@
       <c r="AF667" s="15"/>
       <c r="AG667" s="15"/>
     </row>
-    <row r="668" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="668" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P668" s="11"/>
       <c r="Q668" s="11"/>
       <c r="R668" s="12"/>
@@ -15321,7 +15329,7 @@
       <c r="AF668" s="15"/>
       <c r="AG668" s="15"/>
     </row>
-    <row r="669" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="669" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P669" s="11"/>
       <c r="Q669" s="11"/>
       <c r="R669" s="12"/>
@@ -15340,7 +15348,7 @@
       <c r="AF669" s="15"/>
       <c r="AG669" s="15"/>
     </row>
-    <row r="670" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="670" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P670" s="11"/>
       <c r="Q670" s="11"/>
       <c r="R670" s="12"/>
@@ -15359,7 +15367,7 @@
       <c r="AF670" s="15"/>
       <c r="AG670" s="15"/>
     </row>
-    <row r="671" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="671" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P671" s="11"/>
       <c r="Q671" s="11"/>
       <c r="R671" s="12"/>
@@ -15378,7 +15386,7 @@
       <c r="AF671" s="15"/>
       <c r="AG671" s="15"/>
     </row>
-    <row r="672" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="672" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P672" s="11"/>
       <c r="Q672" s="11"/>
       <c r="R672" s="12"/>
@@ -15397,7 +15405,7 @@
       <c r="AF672" s="15"/>
       <c r="AG672" s="15"/>
     </row>
-    <row r="673" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="673" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P673" s="11"/>
       <c r="Q673" s="11"/>
       <c r="R673" s="12"/>
@@ -15416,7 +15424,7 @@
       <c r="AF673" s="15"/>
       <c r="AG673" s="15"/>
     </row>
-    <row r="674" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="674" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P674" s="11"/>
       <c r="Q674" s="11"/>
       <c r="R674" s="12"/>
@@ -15435,7 +15443,7 @@
       <c r="AF674" s="15"/>
       <c r="AG674" s="15"/>
     </row>
-    <row r="675" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="675" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P675" s="11"/>
       <c r="Q675" s="11"/>
       <c r="R675" s="12"/>
@@ -15454,7 +15462,7 @@
       <c r="AF675" s="15"/>
       <c r="AG675" s="15"/>
     </row>
-    <row r="676" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="676" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P676" s="11"/>
       <c r="Q676" s="11"/>
       <c r="R676" s="12"/>
@@ -15473,7 +15481,7 @@
       <c r="AF676" s="15"/>
       <c r="AG676" s="15"/>
     </row>
-    <row r="677" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="677" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P677" s="11"/>
       <c r="Q677" s="11"/>
       <c r="R677" s="12"/>
@@ -15492,7 +15500,7 @@
       <c r="AF677" s="15"/>
       <c r="AG677" s="15"/>
     </row>
-    <row r="678" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="678" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P678" s="11"/>
       <c r="Q678" s="11"/>
       <c r="R678" s="12"/>
@@ -15511,7 +15519,7 @@
       <c r="AF678" s="15"/>
       <c r="AG678" s="15"/>
     </row>
-    <row r="679" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="679" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P679" s="11"/>
       <c r="Q679" s="11"/>
       <c r="R679" s="12"/>
@@ -15530,7 +15538,7 @@
       <c r="AF679" s="15"/>
       <c r="AG679" s="15"/>
     </row>
-    <row r="680" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="680" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P680" s="11"/>
       <c r="Q680" s="11"/>
       <c r="R680" s="12"/>
@@ -15549,7 +15557,7 @@
       <c r="AF680" s="15"/>
       <c r="AG680" s="15"/>
     </row>
-    <row r="681" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="681" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P681" s="11"/>
       <c r="Q681" s="11"/>
       <c r="R681" s="12"/>
@@ -15568,7 +15576,7 @@
       <c r="AF681" s="15"/>
       <c r="AG681" s="15"/>
     </row>
-    <row r="682" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="682" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P682" s="11"/>
       <c r="Q682" s="11"/>
       <c r="R682" s="12"/>
@@ -15587,7 +15595,7 @@
       <c r="AF682" s="11"/>
       <c r="AG682" s="11"/>
     </row>
-    <row r="683" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="683" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P683" s="11"/>
       <c r="Q683" s="11"/>
       <c r="R683" s="12"/>
@@ -15606,7 +15614,7 @@
       <c r="AF683" s="11"/>
       <c r="AG683" s="11"/>
     </row>
-    <row r="684" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="684" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P684" s="11"/>
       <c r="Q684" s="11"/>
       <c r="R684" s="12"/>
@@ -15625,7 +15633,7 @@
       <c r="AF684" s="11"/>
       <c r="AG684" s="11"/>
     </row>
-    <row r="685" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="685" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P685" s="11"/>
       <c r="Q685" s="11"/>
       <c r="R685" s="12"/>
@@ -15644,7 +15652,7 @@
       <c r="AF685" s="11"/>
       <c r="AG685" s="11"/>
     </row>
-    <row r="686" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="686" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P686" s="11"/>
       <c r="Q686" s="11"/>
       <c r="R686" s="12"/>
@@ -15663,7 +15671,7 @@
       <c r="AF686" s="11"/>
       <c r="AG686" s="11"/>
     </row>
-    <row r="687" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="687" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P687" s="11"/>
       <c r="Q687" s="11"/>
       <c r="R687" s="12"/>
@@ -15682,7 +15690,7 @@
       <c r="AF687" s="11"/>
       <c r="AG687" s="11"/>
     </row>
-    <row r="688" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="688" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P688" s="11"/>
       <c r="Q688" s="11"/>
       <c r="R688" s="12"/>
@@ -15701,7 +15709,7 @@
       <c r="AF688" s="11"/>
       <c r="AG688" s="11"/>
     </row>
-    <row r="689" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="689" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P689" s="11"/>
       <c r="Q689" s="11"/>
       <c r="R689" s="12"/>
@@ -15720,7 +15728,7 @@
       <c r="AF689" s="11"/>
       <c r="AG689" s="11"/>
     </row>
-    <row r="690" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="690" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P690" s="11"/>
       <c r="Q690" s="11"/>
       <c r="R690" s="12"/>
@@ -15739,7 +15747,7 @@
       <c r="AF690" s="15"/>
       <c r="AG690" s="15"/>
     </row>
-    <row r="691" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="691" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P691" s="11"/>
       <c r="Q691" s="11"/>
       <c r="R691" s="12"/>
@@ -15758,7 +15766,7 @@
       <c r="AF691" s="15"/>
       <c r="AG691" s="15"/>
     </row>
-    <row r="692" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="692" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P692" s="11"/>
       <c r="Q692" s="11"/>
       <c r="R692" s="12"/>
@@ -15777,7 +15785,7 @@
       <c r="AF692" s="15"/>
       <c r="AG692" s="15"/>
     </row>
-    <row r="693" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="693" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P693" s="11"/>
       <c r="Q693" s="11"/>
       <c r="R693" s="12"/>
@@ -15796,7 +15804,7 @@
       <c r="AF693" s="15"/>
       <c r="AG693" s="15"/>
     </row>
-    <row r="694" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="694" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P694" s="11"/>
       <c r="Q694" s="11"/>
       <c r="R694" s="12"/>
@@ -15815,7 +15823,7 @@
       <c r="AF694" s="15"/>
       <c r="AG694" s="15"/>
     </row>
-    <row r="695" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="695" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P695" s="11"/>
       <c r="Q695" s="11"/>
       <c r="R695" s="12"/>
@@ -15834,7 +15842,7 @@
       <c r="AF695" s="15"/>
       <c r="AG695" s="15"/>
     </row>
-    <row r="696" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="696" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P696" s="11"/>
       <c r="Q696" s="11"/>
       <c r="R696" s="12"/>
@@ -15853,7 +15861,7 @@
       <c r="AF696" s="15"/>
       <c r="AG696" s="15"/>
     </row>
-    <row r="697" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="697" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P697" s="11"/>
       <c r="Q697" s="11"/>
       <c r="R697" s="12"/>
@@ -15872,7 +15880,7 @@
       <c r="AF697" s="15"/>
       <c r="AG697" s="15"/>
     </row>
-    <row r="698" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="698" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P698" s="11"/>
       <c r="Q698" s="11"/>
       <c r="R698" s="12"/>
@@ -15891,7 +15899,7 @@
       <c r="AF698" s="15"/>
       <c r="AG698" s="15"/>
     </row>
-    <row r="699" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="699" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P699" s="11"/>
       <c r="Q699" s="11"/>
       <c r="R699" s="12"/>
@@ -15910,7 +15918,7 @@
       <c r="AF699" s="15"/>
       <c r="AG699" s="15"/>
     </row>
-    <row r="700" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="700" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P700" s="11"/>
       <c r="Q700" s="11"/>
       <c r="R700" s="12"/>
@@ -15929,7 +15937,7 @@
       <c r="AF700" s="15"/>
       <c r="AG700" s="15"/>
     </row>
-    <row r="701" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="701" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P701" s="11"/>
       <c r="Q701" s="11"/>
       <c r="R701" s="12"/>
@@ -15948,7 +15956,7 @@
       <c r="AF701" s="15"/>
       <c r="AG701" s="15"/>
     </row>
-    <row r="702" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="702" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P702" s="11"/>
       <c r="Q702" s="11"/>
       <c r="R702" s="12"/>
@@ -15967,7 +15975,7 @@
       <c r="AF702" s="15"/>
       <c r="AG702" s="15"/>
     </row>
-    <row r="703" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="703" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P703" s="11"/>
       <c r="Q703" s="11"/>
       <c r="R703" s="12"/>
@@ -15986,7 +15994,7 @@
       <c r="AF703" s="15"/>
       <c r="AG703" s="15"/>
     </row>
-    <row r="704" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="704" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P704" s="11"/>
       <c r="Q704" s="11"/>
       <c r="R704" s="12"/>
@@ -16005,7 +16013,7 @@
       <c r="AF704" s="15"/>
       <c r="AG704" s="15"/>
     </row>
-    <row r="705" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="705" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P705" s="11"/>
       <c r="Q705" s="11"/>
       <c r="R705" s="12"/>
@@ -16024,7 +16032,7 @@
       <c r="AF705" s="15"/>
       <c r="AG705" s="15"/>
     </row>
-    <row r="706" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="706" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P706" s="11"/>
       <c r="Q706" s="11"/>
       <c r="R706" s="12"/>
@@ -16043,7 +16051,7 @@
       <c r="AF706" s="15"/>
       <c r="AG706" s="15"/>
     </row>
-    <row r="707" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="707" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P707" s="11"/>
       <c r="Q707" s="11"/>
       <c r="R707" s="12"/>
@@ -16062,7 +16070,7 @@
       <c r="AF707" s="11"/>
       <c r="AG707" s="11"/>
     </row>
-    <row r="708" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="708" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P708" s="11"/>
       <c r="Q708" s="11"/>
       <c r="R708" s="12"/>
@@ -16081,7 +16089,7 @@
       <c r="AF708" s="15"/>
       <c r="AG708" s="15"/>
     </row>
-    <row r="709" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="709" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P709" s="11"/>
       <c r="Q709" s="11"/>
       <c r="R709" s="12"/>
@@ -16100,7 +16108,7 @@
       <c r="AF709" s="15"/>
       <c r="AG709" s="15"/>
     </row>
-    <row r="710" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="710" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P710" s="11"/>
       <c r="Q710" s="11"/>
       <c r="R710" s="12"/>
@@ -16119,7 +16127,7 @@
       <c r="AF710" s="15"/>
       <c r="AG710" s="15"/>
     </row>
-    <row r="711" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="711" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P711" s="11"/>
       <c r="Q711" s="11"/>
       <c r="R711" s="12"/>
@@ -16138,7 +16146,7 @@
       <c r="AF711" s="15"/>
       <c r="AG711" s="15"/>
     </row>
-    <row r="712" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="712" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P712" s="11"/>
       <c r="Q712" s="11"/>
       <c r="R712" s="12"/>
@@ -16157,7 +16165,7 @@
       <c r="AF712" s="15"/>
       <c r="AG712" s="15"/>
     </row>
-    <row r="713" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="713" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P713" s="11"/>
       <c r="Q713" s="11"/>
       <c r="R713" s="12"/>
@@ -16176,7 +16184,7 @@
       <c r="AF713" s="15"/>
       <c r="AG713" s="15"/>
     </row>
-    <row r="714" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="714" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P714" s="11"/>
       <c r="Q714" s="11"/>
       <c r="R714" s="12"/>
@@ -16195,7 +16203,7 @@
       <c r="AF714" s="15"/>
       <c r="AG714" s="15"/>
     </row>
-    <row r="715" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="715" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P715" s="11"/>
       <c r="Q715" s="11"/>
       <c r="R715" s="12"/>
@@ -16214,7 +16222,7 @@
       <c r="AF715" s="15"/>
       <c r="AG715" s="15"/>
     </row>
-    <row r="716" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="716" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P716" s="11"/>
       <c r="Q716" s="11"/>
       <c r="R716" s="12"/>
@@ -16233,7 +16241,7 @@
       <c r="AF716" s="15"/>
       <c r="AG716" s="15"/>
     </row>
-    <row r="717" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="717" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P717" s="11"/>
       <c r="Q717" s="11"/>
       <c r="R717" s="12"/>
@@ -16252,7 +16260,7 @@
       <c r="AF717" s="15"/>
       <c r="AG717" s="15"/>
     </row>
-    <row r="718" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="718" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P718" s="11"/>
       <c r="Q718" s="11"/>
       <c r="R718" s="12"/>
@@ -16271,7 +16279,7 @@
       <c r="AF718" s="15"/>
       <c r="AG718" s="15"/>
     </row>
-    <row r="719" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="719" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P719" s="11"/>
       <c r="Q719" s="11"/>
       <c r="R719" s="12"/>
@@ -16290,7 +16298,7 @@
       <c r="AF719" s="15"/>
       <c r="AG719" s="15"/>
     </row>
-    <row r="720" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="720" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P720" s="11"/>
       <c r="Q720" s="11"/>
       <c r="R720" s="12"/>
@@ -16309,7 +16317,7 @@
       <c r="AF720" s="15"/>
       <c r="AG720" s="15"/>
     </row>
-    <row r="721" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="721" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P721" s="11"/>
       <c r="Q721" s="11"/>
       <c r="R721" s="12"/>
@@ -16328,7 +16336,7 @@
       <c r="AF721" s="15"/>
       <c r="AG721" s="15"/>
     </row>
-    <row r="722" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="722" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P722" s="11"/>
       <c r="Q722" s="11"/>
       <c r="R722" s="12"/>
@@ -16347,7 +16355,7 @@
       <c r="AF722" s="15"/>
       <c r="AG722" s="15"/>
     </row>
-    <row r="723" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="723" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P723" s="11"/>
       <c r="Q723" s="11"/>
       <c r="R723" s="12"/>
@@ -16366,7 +16374,7 @@
       <c r="AF723" s="15"/>
       <c r="AG723" s="15"/>
     </row>
-    <row r="724" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="724" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P724" s="11"/>
       <c r="Q724" s="11"/>
       <c r="R724" s="12"/>
@@ -16385,7 +16393,7 @@
       <c r="AF724" s="15"/>
       <c r="AG724" s="15"/>
     </row>
-    <row r="725" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="725" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P725" s="11"/>
       <c r="Q725" s="11"/>
       <c r="R725" s="12"/>
@@ -16404,7 +16412,7 @@
       <c r="AF725" s="15"/>
       <c r="AG725" s="15"/>
     </row>
-    <row r="726" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="726" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P726" s="11"/>
       <c r="Q726" s="11"/>
       <c r="R726" s="12"/>
@@ -16423,7 +16431,7 @@
       <c r="AF726" s="15"/>
       <c r="AG726" s="15"/>
     </row>
-    <row r="727" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="727" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P727" s="11"/>
       <c r="Q727" s="11"/>
       <c r="R727" s="12"/>
@@ -16442,7 +16450,7 @@
       <c r="AF727" s="15"/>
       <c r="AG727" s="15"/>
     </row>
-    <row r="728" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="728" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P728" s="11"/>
       <c r="Q728" s="11"/>
       <c r="R728" s="12"/>
@@ -16461,7 +16469,7 @@
       <c r="AF728" s="15"/>
       <c r="AG728" s="15"/>
     </row>
-    <row r="729" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="729" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P729" s="11"/>
       <c r="Q729" s="11"/>
       <c r="R729" s="12"/>
@@ -16480,7 +16488,7 @@
       <c r="AF729" s="15"/>
       <c r="AG729" s="15"/>
     </row>
-    <row r="730" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="730" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P730" s="11"/>
       <c r="Q730" s="11"/>
       <c r="R730" s="12"/>
@@ -16499,7 +16507,7 @@
       <c r="AF730" s="15"/>
       <c r="AG730" s="15"/>
     </row>
-    <row r="731" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="731" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P731" s="11"/>
       <c r="Q731" s="11"/>
       <c r="R731" s="12"/>
@@ -16518,7 +16526,7 @@
       <c r="AF731" s="15"/>
       <c r="AG731" s="15"/>
     </row>
-    <row r="732" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="732" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P732" s="11"/>
       <c r="Q732" s="11"/>
       <c r="R732" s="12"/>
@@ -16537,7 +16545,7 @@
       <c r="AF732" s="15"/>
       <c r="AG732" s="15"/>
     </row>
-    <row r="733" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="733" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P733" s="11"/>
       <c r="Q733" s="11"/>
       <c r="R733" s="12"/>
@@ -16556,7 +16564,7 @@
       <c r="AF733" s="15"/>
       <c r="AG733" s="15"/>
     </row>
-    <row r="734" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="734" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P734" s="11"/>
       <c r="Q734" s="11"/>
       <c r="R734" s="12"/>
@@ -16575,7 +16583,7 @@
       <c r="AF734" s="15"/>
       <c r="AG734" s="15"/>
     </row>
-    <row r="735" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="735" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P735" s="11"/>
       <c r="Q735" s="11"/>
       <c r="R735" s="12"/>
@@ -16594,7 +16602,7 @@
       <c r="AF735" s="15"/>
       <c r="AG735" s="15"/>
     </row>
-    <row r="736" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="736" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P736" s="11"/>
       <c r="Q736" s="11"/>
       <c r="R736" s="12"/>
@@ -16613,7 +16621,7 @@
       <c r="AF736" s="15"/>
       <c r="AG736" s="15"/>
     </row>
-    <row r="737" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="737" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P737" s="11"/>
       <c r="Q737" s="11"/>
       <c r="R737" s="12"/>
@@ -16632,7 +16640,7 @@
       <c r="AF737" s="11"/>
       <c r="AG737" s="11"/>
     </row>
-    <row r="738" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="738" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P738" s="11"/>
       <c r="Q738" s="11"/>
       <c r="R738" s="12"/>
@@ -16651,7 +16659,7 @@
       <c r="AF738" s="11"/>
       <c r="AG738" s="15"/>
     </row>
-    <row r="739" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="739" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P739" s="11"/>
       <c r="Q739" s="11"/>
       <c r="R739" s="12"/>
@@ -16670,7 +16678,7 @@
       <c r="AF739" s="11"/>
       <c r="AG739" s="15"/>
     </row>
-    <row r="740" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="740" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P740" s="11"/>
       <c r="Q740" s="11"/>
       <c r="R740" s="12"/>
@@ -16689,7 +16697,7 @@
       <c r="AF740" s="11"/>
       <c r="AG740" s="15"/>
     </row>
-    <row r="741" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="741" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P741" s="11"/>
       <c r="Q741" s="11"/>
       <c r="R741" s="12"/>
@@ -16708,7 +16716,7 @@
       <c r="AF741" s="11"/>
       <c r="AG741" s="15"/>
     </row>
-    <row r="742" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="742" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P742" s="11"/>
       <c r="Q742" s="11"/>
       <c r="R742" s="12"/>
@@ -16727,7 +16735,7 @@
       <c r="AF742" s="11"/>
       <c r="AG742" s="15"/>
     </row>
-    <row r="743" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="743" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P743" s="11"/>
       <c r="Q743" s="11"/>
       <c r="R743" s="12"/>
@@ -16746,7 +16754,7 @@
       <c r="AF743" s="15"/>
       <c r="AG743" s="15"/>
     </row>
-    <row r="744" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="744" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P744" s="11"/>
       <c r="Q744" s="11"/>
       <c r="R744" s="12"/>
@@ -16765,7 +16773,7 @@
       <c r="AF744" s="15"/>
       <c r="AG744" s="15"/>
     </row>
-    <row r="745" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="745" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P745" s="11"/>
       <c r="Q745" s="11"/>
       <c r="R745" s="12"/>
@@ -16784,7 +16792,7 @@
       <c r="AF745" s="15"/>
       <c r="AG745" s="15"/>
     </row>
-    <row r="746" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="746" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P746" s="11"/>
       <c r="Q746" s="11"/>
       <c r="R746" s="12"/>
@@ -16803,7 +16811,7 @@
       <c r="AF746" s="15"/>
       <c r="AG746" s="15"/>
     </row>
-    <row r="747" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="747" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P747" s="11"/>
       <c r="Q747" s="11"/>
       <c r="R747" s="12"/>
@@ -16822,7 +16830,7 @@
       <c r="AF747" s="15"/>
       <c r="AG747" s="15"/>
     </row>
-    <row r="748" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="748" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P748" s="11"/>
       <c r="Q748" s="11"/>
       <c r="R748" s="12"/>
@@ -16841,7 +16849,7 @@
       <c r="AF748" s="15"/>
       <c r="AG748" s="15"/>
     </row>
-    <row r="749" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="749" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P749" s="11"/>
       <c r="Q749" s="11"/>
       <c r="R749" s="12"/>
@@ -16860,7 +16868,7 @@
       <c r="AF749" s="15"/>
       <c r="AG749" s="15"/>
     </row>
-    <row r="750" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="750" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P750" s="11"/>
       <c r="Q750" s="11"/>
       <c r="R750" s="12"/>
@@ -16879,7 +16887,7 @@
       <c r="AF750" s="15"/>
       <c r="AG750" s="15"/>
     </row>
-    <row r="751" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="751" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P751" s="11"/>
       <c r="Q751" s="11"/>
       <c r="R751" s="12"/>
@@ -16898,7 +16906,7 @@
       <c r="AF751" s="15"/>
       <c r="AG751" s="15"/>
     </row>
-    <row r="752" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="752" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P752" s="11"/>
       <c r="Q752" s="11"/>
       <c r="R752" s="12"/>
@@ -16917,7 +16925,7 @@
       <c r="AF752" s="15"/>
       <c r="AG752" s="15"/>
     </row>
-    <row r="753" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="753" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P753" s="11"/>
       <c r="Q753" s="11"/>
       <c r="R753" s="12"/>
@@ -16936,7 +16944,7 @@
       <c r="AF753" s="15"/>
       <c r="AG753" s="15"/>
     </row>
-    <row r="754" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="754" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P754" s="11"/>
       <c r="Q754" s="11"/>
       <c r="R754" s="12"/>
@@ -16955,7 +16963,7 @@
       <c r="AF754" s="15"/>
       <c r="AG754" s="15"/>
     </row>
-    <row r="755" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="755" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P755" s="11"/>
       <c r="Q755" s="11"/>
       <c r="R755" s="12"/>
@@ -16974,7 +16982,7 @@
       <c r="AF755" s="15"/>
       <c r="AG755" s="15"/>
     </row>
-    <row r="756" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="756" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P756" s="11"/>
       <c r="Q756" s="11"/>
       <c r="R756" s="12"/>
@@ -16993,7 +17001,7 @@
       <c r="AF756" s="15"/>
       <c r="AG756" s="15"/>
     </row>
-    <row r="757" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="757" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P757" s="11"/>
       <c r="Q757" s="11"/>
       <c r="R757" s="12"/>
@@ -17012,7 +17020,7 @@
       <c r="AF757" s="15"/>
       <c r="AG757" s="15"/>
     </row>
-    <row r="758" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="758" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P758" s="11"/>
       <c r="Q758" s="11"/>
       <c r="R758" s="12"/>
@@ -17031,7 +17039,7 @@
       <c r="AF758" s="15"/>
       <c r="AG758" s="15"/>
     </row>
-    <row r="759" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="759" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P759" s="11"/>
       <c r="Q759" s="11"/>
       <c r="R759" s="12"/>
@@ -17050,7 +17058,7 @@
       <c r="AF759" s="15"/>
       <c r="AG759" s="15"/>
     </row>
-    <row r="760" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="760" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P760" s="11"/>
       <c r="Q760" s="11"/>
       <c r="R760" s="12"/>
@@ -17069,7 +17077,7 @@
       <c r="AF760" s="15"/>
       <c r="AG760" s="15"/>
     </row>
-    <row r="761" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="761" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P761" s="11"/>
       <c r="Q761" s="11"/>
       <c r="R761" s="12"/>
@@ -17088,7 +17096,7 @@
       <c r="AF761" s="15"/>
       <c r="AG761" s="15"/>
     </row>
-    <row r="762" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="762" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P762" s="11"/>
       <c r="Q762" s="11"/>
       <c r="R762" s="12"/>
@@ -17107,7 +17115,7 @@
       <c r="AF762" s="15"/>
       <c r="AG762" s="15"/>
     </row>
-    <row r="763" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="763" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P763" s="11"/>
       <c r="Q763" s="11"/>
       <c r="R763" s="12"/>
@@ -17126,7 +17134,7 @@
       <c r="AF763" s="15"/>
       <c r="AG763" s="15"/>
     </row>
-    <row r="764" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="764" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P764" s="11"/>
       <c r="Q764" s="11"/>
       <c r="R764" s="12"/>
@@ -17145,7 +17153,7 @@
       <c r="AF764" s="15"/>
       <c r="AG764" s="15"/>
     </row>
-    <row r="765" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="765" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P765" s="11"/>
       <c r="Q765" s="11"/>
       <c r="R765" s="12"/>
@@ -17164,7 +17172,7 @@
       <c r="AF765" s="11"/>
       <c r="AG765" s="15"/>
     </row>
-    <row r="766" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="766" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P766" s="11"/>
       <c r="Q766" s="11"/>
       <c r="R766" s="12"/>
@@ -17183,7 +17191,7 @@
       <c r="AF766" s="15"/>
       <c r="AG766" s="15"/>
     </row>
-    <row r="767" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="767" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P767" s="11"/>
       <c r="Q767" s="11"/>
       <c r="R767" s="12"/>
@@ -17202,7 +17210,7 @@
       <c r="AF767" s="15"/>
       <c r="AG767" s="15"/>
     </row>
-    <row r="768" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="768" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P768" s="11"/>
       <c r="Q768" s="11"/>
       <c r="R768" s="12"/>
@@ -17221,7 +17229,7 @@
       <c r="AF768" s="15"/>
       <c r="AG768" s="15"/>
     </row>
-    <row r="769" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="769" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P769" s="11"/>
       <c r="Q769" s="11"/>
       <c r="R769" s="12"/>
@@ -17240,7 +17248,7 @@
       <c r="AF769" s="15"/>
       <c r="AG769" s="15"/>
     </row>
-    <row r="770" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="770" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P770" s="11"/>
       <c r="Q770" s="11"/>
       <c r="R770" s="12"/>
@@ -17259,7 +17267,7 @@
       <c r="AF770" s="15"/>
       <c r="AG770" s="15"/>
     </row>
-    <row r="771" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="771" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P771" s="11"/>
       <c r="Q771" s="11"/>
       <c r="R771" s="12"/>
@@ -17278,7 +17286,7 @@
       <c r="AF771" s="15"/>
       <c r="AG771" s="15"/>
     </row>
-    <row r="772" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="772" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P772" s="11"/>
       <c r="Q772" s="11"/>
       <c r="R772" s="12"/>
@@ -17297,7 +17305,7 @@
       <c r="AF772" s="15"/>
       <c r="AG772" s="15"/>
     </row>
-    <row r="773" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="773" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P773" s="11"/>
       <c r="Q773" s="11"/>
       <c r="R773" s="12"/>
@@ -17316,7 +17324,7 @@
       <c r="AF773" s="15"/>
       <c r="AG773" s="15"/>
     </row>
-    <row r="774" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="774" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P774" s="11"/>
       <c r="Q774" s="11"/>
       <c r="R774" s="12"/>
@@ -17335,7 +17343,7 @@
       <c r="AF774" s="15"/>
       <c r="AG774" s="15"/>
     </row>
-    <row r="775" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="775" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P775" s="11"/>
       <c r="Q775" s="11"/>
       <c r="R775" s="12"/>
@@ -17354,7 +17362,7 @@
       <c r="AF775" s="15"/>
       <c r="AG775" s="15"/>
     </row>
-    <row r="776" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="776" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P776" s="11"/>
       <c r="Q776" s="11"/>
       <c r="R776" s="12"/>
@@ -17373,7 +17381,7 @@
       <c r="AF776" s="15"/>
       <c r="AG776" s="15"/>
     </row>
-    <row r="777" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="777" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P777" s="11"/>
       <c r="Q777" s="11"/>
       <c r="R777" s="12"/>
@@ -17392,7 +17400,7 @@
       <c r="AF777" s="15"/>
       <c r="AG777" s="15"/>
     </row>
-    <row r="778" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="778" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P778" s="11"/>
       <c r="Q778" s="11"/>
       <c r="R778" s="12"/>
@@ -17411,7 +17419,7 @@
       <c r="AF778" s="15"/>
       <c r="AG778" s="15"/>
     </row>
-    <row r="779" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="779" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P779" s="11"/>
       <c r="Q779" s="11"/>
       <c r="R779" s="12"/>
@@ -17430,7 +17438,7 @@
       <c r="AF779" s="15"/>
       <c r="AG779" s="15"/>
     </row>
-    <row r="780" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="780" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P780" s="11"/>
       <c r="Q780" s="11"/>
       <c r="R780" s="12"/>
@@ -17449,7 +17457,7 @@
       <c r="AF780" s="15"/>
       <c r="AG780" s="15"/>
     </row>
-    <row r="781" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="781" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P781" s="11"/>
       <c r="Q781" s="11"/>
       <c r="R781" s="12"/>
@@ -17468,7 +17476,7 @@
       <c r="AF781" s="15"/>
       <c r="AG781" s="15"/>
     </row>
-    <row r="782" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="782" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P782" s="11"/>
       <c r="Q782" s="11"/>
       <c r="R782" s="12"/>
@@ -17487,7 +17495,7 @@
       <c r="AF782" s="15"/>
       <c r="AG782" s="15"/>
     </row>
-    <row r="783" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="783" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P783" s="11"/>
       <c r="Q783" s="11"/>
       <c r="R783" s="12"/>
@@ -17506,7 +17514,7 @@
       <c r="AF783" s="15"/>
       <c r="AG783" s="15"/>
     </row>
-    <row r="784" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="784" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P784" s="11"/>
       <c r="Q784" s="11"/>
       <c r="R784" s="12"/>
@@ -17525,7 +17533,7 @@
       <c r="AF784" s="15"/>
       <c r="AG784" s="15"/>
     </row>
-    <row r="785" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="785" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P785" s="11"/>
       <c r="Q785" s="11"/>
       <c r="R785" s="12"/>
@@ -17544,7 +17552,7 @@
       <c r="AF785" s="15"/>
       <c r="AG785" s="15"/>
     </row>
-    <row r="786" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="786" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P786" s="11"/>
       <c r="Q786" s="11"/>
       <c r="R786" s="12"/>
@@ -17563,7 +17571,7 @@
       <c r="AF786" s="15"/>
       <c r="AG786" s="15"/>
     </row>
-    <row r="787" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="787" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P787" s="11"/>
       <c r="Q787" s="11"/>
       <c r="R787" s="12"/>
@@ -17582,7 +17590,7 @@
       <c r="AF787" s="15"/>
       <c r="AG787" s="15"/>
     </row>
-    <row r="788" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="788" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P788" s="11"/>
       <c r="Q788" s="11"/>
       <c r="R788" s="12"/>
@@ -17601,7 +17609,7 @@
       <c r="AF788" s="15"/>
       <c r="AG788" s="15"/>
     </row>
-    <row r="789" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="789" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P789" s="11"/>
       <c r="Q789" s="11"/>
       <c r="R789" s="12"/>
@@ -17620,7 +17628,7 @@
       <c r="AF789" s="15"/>
       <c r="AG789" s="15"/>
     </row>
-    <row r="790" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="790" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P790" s="11"/>
       <c r="Q790" s="11"/>
       <c r="R790" s="12"/>
@@ -17639,7 +17647,7 @@
       <c r="AF790" s="15"/>
       <c r="AG790" s="15"/>
     </row>
-    <row r="791" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="791" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P791" s="11"/>
       <c r="Q791" s="11"/>
       <c r="R791" s="12"/>
@@ -17658,7 +17666,7 @@
       <c r="AF791" s="15"/>
       <c r="AG791" s="15"/>
     </row>
-    <row r="792" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="792" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P792" s="11"/>
       <c r="Q792" s="11"/>
       <c r="R792" s="12"/>
@@ -17677,7 +17685,7 @@
       <c r="AF792" s="15"/>
       <c r="AG792" s="15"/>
     </row>
-    <row r="793" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="793" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P793" s="11"/>
       <c r="Q793" s="11"/>
       <c r="R793" s="12"/>
@@ -17696,7 +17704,7 @@
       <c r="AF793" s="15"/>
       <c r="AG793" s="15"/>
     </row>
-    <row r="794" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="794" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P794" s="11"/>
       <c r="Q794" s="11"/>
       <c r="R794" s="12"/>
@@ -17715,7 +17723,7 @@
       <c r="AF794" s="15"/>
       <c r="AG794" s="15"/>
     </row>
-    <row r="795" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="795" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P795" s="11"/>
       <c r="Q795" s="11"/>
       <c r="R795" s="12"/>
@@ -17734,7 +17742,7 @@
       <c r="AF795" s="15"/>
       <c r="AG795" s="15"/>
     </row>
-    <row r="796" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="796" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P796" s="11"/>
       <c r="Q796" s="11"/>
       <c r="R796" s="12"/>
@@ -17753,7 +17761,7 @@
       <c r="AF796" s="15"/>
       <c r="AG796" s="15"/>
     </row>
-    <row r="797" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="797" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P797" s="11"/>
       <c r="Q797" s="11"/>
       <c r="R797" s="12"/>
@@ -17772,7 +17780,7 @@
       <c r="AF797" s="15"/>
       <c r="AG797" s="15"/>
     </row>
-    <row r="798" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="798" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P798" s="11"/>
       <c r="Q798" s="11"/>
       <c r="R798" s="12"/>
@@ -17791,7 +17799,7 @@
       <c r="AF798" s="15"/>
       <c r="AG798" s="15"/>
     </row>
-    <row r="799" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="799" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P799" s="11"/>
       <c r="Q799" s="11"/>
       <c r="R799" s="12"/>
@@ -17810,7 +17818,7 @@
       <c r="AF799" s="15"/>
       <c r="AG799" s="15"/>
     </row>
-    <row r="800" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="800" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P800" s="11"/>
       <c r="Q800" s="11"/>
       <c r="R800" s="12"/>
@@ -17829,7 +17837,7 @@
       <c r="AF800" s="15"/>
       <c r="AG800" s="15"/>
     </row>
-    <row r="801" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="801" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P801" s="11"/>
       <c r="Q801" s="11"/>
       <c r="R801" s="12"/>
@@ -17848,7 +17856,7 @@
       <c r="AF801" s="15"/>
       <c r="AG801" s="15"/>
     </row>
-    <row r="802" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="802" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P802" s="11"/>
       <c r="Q802" s="11"/>
       <c r="R802" s="12"/>
@@ -17867,7 +17875,7 @@
       <c r="AF802" s="15"/>
       <c r="AG802" s="15"/>
     </row>
-    <row r="803" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="803" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P803" s="11"/>
       <c r="Q803" s="11"/>
       <c r="R803" s="12"/>
@@ -17886,7 +17894,7 @@
       <c r="AF803" s="15"/>
       <c r="AG803" s="15"/>
     </row>
-    <row r="804" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="804" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P804" s="11"/>
       <c r="Q804" s="11"/>
       <c r="R804" s="12"/>
@@ -17905,7 +17913,7 @@
       <c r="AF804" s="15"/>
       <c r="AG804" s="15"/>
     </row>
-    <row r="805" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="805" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P805" s="11"/>
       <c r="Q805" s="11"/>
       <c r="R805" s="12"/>
@@ -17924,7 +17932,7 @@
       <c r="AF805" s="15"/>
       <c r="AG805" s="15"/>
     </row>
-    <row r="806" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="806" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P806" s="11"/>
       <c r="Q806" s="11"/>
       <c r="R806" s="12"/>
@@ -17943,7 +17951,7 @@
       <c r="AF806" s="15"/>
       <c r="AG806" s="15"/>
     </row>
-    <row r="807" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="807" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P807" s="11"/>
       <c r="Q807" s="11"/>
       <c r="R807" s="12"/>
@@ -17962,7 +17970,7 @@
       <c r="AF807" s="15"/>
       <c r="AG807" s="15"/>
     </row>
-    <row r="808" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="808" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P808" s="11"/>
       <c r="Q808" s="11"/>
       <c r="R808" s="12"/>
@@ -17981,7 +17989,7 @@
       <c r="AF808" s="15"/>
       <c r="AG808" s="15"/>
     </row>
-    <row r="809" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="809" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P809" s="11"/>
       <c r="Q809" s="11"/>
       <c r="R809" s="12"/>
@@ -18000,7 +18008,7 @@
       <c r="AF809" s="15"/>
       <c r="AG809" s="15"/>
     </row>
-    <row r="810" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="810" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P810" s="11"/>
       <c r="Q810" s="11"/>
       <c r="R810" s="12"/>
@@ -18019,7 +18027,7 @@
       <c r="AF810" s="15"/>
       <c r="AG810" s="15"/>
     </row>
-    <row r="811" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="811" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P811" s="11"/>
       <c r="Q811" s="11"/>
       <c r="R811" s="12"/>
@@ -18038,7 +18046,7 @@
       <c r="AF811" s="15"/>
       <c r="AG811" s="15"/>
     </row>
-    <row r="812" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="812" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P812" s="11"/>
       <c r="Q812" s="11"/>
       <c r="R812" s="12"/>
@@ -18057,7 +18065,7 @@
       <c r="AF812" s="15"/>
       <c r="AG812" s="15"/>
     </row>
-    <row r="813" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="813" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P813" s="11"/>
       <c r="Q813" s="11"/>
       <c r="R813" s="12"/>
@@ -18076,7 +18084,7 @@
       <c r="AF813" s="15"/>
       <c r="AG813" s="15"/>
     </row>
-    <row r="814" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="814" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P814" s="11"/>
       <c r="Q814" s="11"/>
       <c r="R814" s="12"/>
@@ -18095,7 +18103,7 @@
       <c r="AF814" s="15"/>
       <c r="AG814" s="15"/>
     </row>
-    <row r="815" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="815" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P815" s="11"/>
       <c r="Q815" s="11"/>
       <c r="R815" s="12"/>
@@ -18114,7 +18122,7 @@
       <c r="AF815" s="15"/>
       <c r="AG815" s="15"/>
     </row>
-    <row r="816" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="816" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P816" s="11"/>
       <c r="Q816" s="11"/>
       <c r="R816" s="12"/>
@@ -18133,7 +18141,7 @@
       <c r="AF816" s="15"/>
       <c r="AG816" s="15"/>
     </row>
-    <row r="817" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="817" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P817" s="11"/>
       <c r="Q817" s="11"/>
       <c r="R817" s="12"/>
@@ -18152,7 +18160,7 @@
       <c r="AF817" s="15"/>
       <c r="AG817" s="15"/>
     </row>
-    <row r="818" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="818" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P818" s="11"/>
       <c r="Q818" s="11"/>
       <c r="R818" s="12"/>
@@ -18171,7 +18179,7 @@
       <c r="AF818" s="15"/>
       <c r="AG818" s="15"/>
     </row>
-    <row r="819" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="819" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P819" s="11"/>
       <c r="Q819" s="11"/>
       <c r="R819" s="12"/>
@@ -18190,7 +18198,7 @@
       <c r="AF819" s="15"/>
       <c r="AG819" s="15"/>
     </row>
-    <row r="820" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="820" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P820" s="11"/>
       <c r="Q820" s="11"/>
       <c r="R820" s="12"/>
@@ -18209,7 +18217,7 @@
       <c r="AF820" s="15"/>
       <c r="AG820" s="15"/>
     </row>
-    <row r="821" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="821" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P821" s="11"/>
       <c r="Q821" s="11"/>
       <c r="R821" s="12"/>
@@ -18228,7 +18236,7 @@
       <c r="AF821" s="15"/>
       <c r="AG821" s="15"/>
     </row>
-    <row r="822" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="822" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P822" s="11"/>
       <c r="Q822" s="11"/>
       <c r="R822" s="12"/>
@@ -18247,7 +18255,7 @@
       <c r="AF822" s="15"/>
       <c r="AG822" s="15"/>
     </row>
-    <row r="823" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="823" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P823" s="11"/>
       <c r="Q823" s="11"/>
       <c r="R823" s="12"/>
@@ -18266,7 +18274,7 @@
       <c r="AF823" s="15"/>
       <c r="AG823" s="15"/>
     </row>
-    <row r="824" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="824" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P824" s="11"/>
       <c r="Q824" s="11"/>
       <c r="R824" s="12"/>
@@ -18285,7 +18293,7 @@
       <c r="AF824" s="15"/>
       <c r="AG824" s="15"/>
     </row>
-    <row r="825" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="825" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P825" s="11"/>
       <c r="Q825" s="11"/>
       <c r="R825" s="12"/>
@@ -18304,7 +18312,7 @@
       <c r="AF825" s="15"/>
       <c r="AG825" s="15"/>
     </row>
-    <row r="826" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="826" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P826" s="11"/>
       <c r="Q826" s="11"/>
       <c r="R826" s="12"/>
@@ -18323,7 +18331,7 @@
       <c r="AF826" s="15"/>
       <c r="AG826" s="15"/>
     </row>
-    <row r="827" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="827" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P827" s="11"/>
       <c r="Q827" s="11"/>
       <c r="R827" s="12"/>
@@ -18342,7 +18350,7 @@
       <c r="AF827" s="15"/>
       <c r="AG827" s="15"/>
     </row>
-    <row r="828" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="828" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P828" s="11"/>
       <c r="Q828" s="11"/>
       <c r="R828" s="12"/>
@@ -18361,7 +18369,7 @@
       <c r="AF828" s="15"/>
       <c r="AG828" s="15"/>
     </row>
-    <row r="829" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="829" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P829" s="11"/>
       <c r="Q829" s="11"/>
       <c r="R829" s="12"/>
@@ -18380,7 +18388,7 @@
       <c r="AF829" s="15"/>
       <c r="AG829" s="15"/>
     </row>
-    <row r="830" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="830" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P830" s="11"/>
       <c r="Q830" s="11"/>
       <c r="R830" s="12"/>
@@ -18399,7 +18407,7 @@
       <c r="AF830" s="15"/>
       <c r="AG830" s="15"/>
     </row>
-    <row r="831" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="831" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P831" s="11"/>
       <c r="Q831" s="11"/>
       <c r="R831" s="12"/>
@@ -18418,7 +18426,7 @@
       <c r="AF831" s="15"/>
       <c r="AG831" s="15"/>
     </row>
-    <row r="832" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="832" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P832" s="11"/>
       <c r="Q832" s="11"/>
       <c r="R832" s="12"/>
@@ -18437,7 +18445,7 @@
       <c r="AF832" s="11"/>
       <c r="AG832" s="15"/>
     </row>
-    <row r="833" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="833" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P833" s="11"/>
       <c r="Q833" s="11"/>
       <c r="R833" s="12"/>
@@ -18456,7 +18464,7 @@
       <c r="AF833" s="11"/>
       <c r="AG833" s="15"/>
     </row>
-    <row r="834" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="834" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P834" s="11"/>
       <c r="Q834" s="11"/>
       <c r="R834" s="12"/>
@@ -18475,7 +18483,7 @@
       <c r="AF834" s="15"/>
       <c r="AG834" s="15"/>
     </row>
-    <row r="835" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="835" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P835" s="11"/>
       <c r="Q835" s="11"/>
       <c r="R835" s="12"/>
@@ -18494,7 +18502,7 @@
       <c r="AF835" s="15"/>
       <c r="AG835" s="15"/>
     </row>
-    <row r="836" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="836" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P836" s="11"/>
       <c r="Q836" s="11"/>
       <c r="R836" s="12"/>
@@ -18513,7 +18521,7 @@
       <c r="AF836" s="15"/>
       <c r="AG836" s="15"/>
     </row>
-    <row r="837" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="837" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P837" s="11"/>
       <c r="Q837" s="11"/>
       <c r="R837" s="12"/>
@@ -18532,7 +18540,7 @@
       <c r="AF837" s="15"/>
       <c r="AG837" s="15"/>
     </row>
-    <row r="838" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="838" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P838" s="11"/>
       <c r="Q838" s="11"/>
       <c r="R838" s="12"/>
@@ -18551,7 +18559,7 @@
       <c r="AF838" s="15"/>
       <c r="AG838" s="15"/>
     </row>
-    <row r="839" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="839" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P839" s="11"/>
       <c r="Q839" s="11"/>
       <c r="R839" s="12"/>
@@ -18570,7 +18578,7 @@
       <c r="AF839" s="15"/>
       <c r="AG839" s="15"/>
     </row>
-    <row r="840" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="840" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P840" s="11"/>
       <c r="Q840" s="11"/>
       <c r="R840" s="12"/>
@@ -18589,7 +18597,7 @@
       <c r="AF840" s="15"/>
       <c r="AG840" s="15"/>
     </row>
-    <row r="841" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="841" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P841" s="11"/>
       <c r="Q841" s="11"/>
       <c r="R841" s="12"/>
@@ -18608,7 +18616,7 @@
       <c r="AF841" s="15"/>
       <c r="AG841" s="15"/>
     </row>
-    <row r="842" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="842" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P842" s="11"/>
       <c r="Q842" s="11"/>
       <c r="R842" s="12"/>
@@ -18627,7 +18635,7 @@
       <c r="AF842" s="15"/>
       <c r="AG842" s="15"/>
     </row>
-    <row r="843" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="843" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P843" s="11"/>
       <c r="Q843" s="11"/>
       <c r="R843" s="12"/>
@@ -18646,7 +18654,7 @@
       <c r="AF843" s="15"/>
       <c r="AG843" s="15"/>
     </row>
-    <row r="844" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="844" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P844" s="11"/>
       <c r="Q844" s="11"/>
       <c r="R844" s="12"/>
@@ -18665,7 +18673,7 @@
       <c r="AF844" s="15"/>
       <c r="AG844" s="15"/>
     </row>
-    <row r="845" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="845" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P845" s="11"/>
       <c r="Q845" s="11"/>
       <c r="R845" s="12"/>
@@ -18684,7 +18692,7 @@
       <c r="AF845" s="15"/>
       <c r="AG845" s="15"/>
     </row>
-    <row r="846" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="846" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P846" s="11"/>
       <c r="Q846" s="11"/>
       <c r="R846" s="12"/>
@@ -18703,7 +18711,7 @@
       <c r="AF846" s="15"/>
       <c r="AG846" s="15"/>
     </row>
-    <row r="847" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="847" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P847" s="11"/>
       <c r="Q847" s="11"/>
       <c r="R847" s="12"/>
@@ -18722,7 +18730,7 @@
       <c r="AF847" s="15"/>
       <c r="AG847" s="15"/>
     </row>
-    <row r="848" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="848" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P848" s="11"/>
       <c r="Q848" s="11"/>
       <c r="R848" s="12"/>
@@ -18741,7 +18749,7 @@
       <c r="AF848" s="15"/>
       <c r="AG848" s="15"/>
     </row>
-    <row r="849" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="849" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P849" s="11"/>
       <c r="Q849" s="11"/>
       <c r="R849" s="12"/>
@@ -18760,7 +18768,7 @@
       <c r="AF849" s="15"/>
       <c r="AG849" s="15"/>
     </row>
-    <row r="850" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="850" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P850" s="11"/>
       <c r="Q850" s="11"/>
       <c r="R850" s="12"/>
@@ -18779,7 +18787,7 @@
       <c r="AF850" s="15"/>
       <c r="AG850" s="15"/>
     </row>
-    <row r="851" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="851" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P851" s="11"/>
       <c r="Q851" s="11"/>
       <c r="R851" s="12"/>
@@ -18798,7 +18806,7 @@
       <c r="AF851" s="15"/>
       <c r="AG851" s="15"/>
     </row>
-    <row r="852" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="852" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P852" s="11"/>
       <c r="Q852" s="11"/>
       <c r="R852" s="12"/>
@@ -18817,7 +18825,7 @@
       <c r="AF852" s="15"/>
       <c r="AG852" s="15"/>
     </row>
-    <row r="853" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="853" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P853" s="11"/>
       <c r="Q853" s="11"/>
       <c r="R853" s="12"/>
@@ -18836,7 +18844,7 @@
       <c r="AF853" s="15"/>
       <c r="AG853" s="15"/>
     </row>
-    <row r="854" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="854" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P854" s="11"/>
       <c r="Q854" s="11"/>
       <c r="R854" s="12"/>
@@ -18855,7 +18863,7 @@
       <c r="AF854" s="15"/>
       <c r="AG854" s="15"/>
     </row>
-    <row r="855" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="855" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P855" s="11"/>
       <c r="Q855" s="11"/>
       <c r="R855" s="12"/>
@@ -18874,7 +18882,7 @@
       <c r="AF855" s="15"/>
       <c r="AG855" s="15"/>
     </row>
-    <row r="856" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="856" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P856" s="11"/>
       <c r="Q856" s="11"/>
       <c r="R856" s="12"/>
@@ -18893,7 +18901,7 @@
       <c r="AF856" s="15"/>
       <c r="AG856" s="15"/>
     </row>
-    <row r="857" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="857" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P857" s="11"/>
       <c r="Q857" s="11"/>
       <c r="R857" s="12"/>
@@ -18912,7 +18920,7 @@
       <c r="AF857" s="15"/>
       <c r="AG857" s="15"/>
     </row>
-    <row r="858" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="858" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P858" s="11"/>
       <c r="Q858" s="11"/>
       <c r="R858" s="12"/>
@@ -18931,7 +18939,7 @@
       <c r="AF858" s="15"/>
       <c r="AG858" s="15"/>
     </row>
-    <row r="859" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="859" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P859" s="11"/>
       <c r="Q859" s="11"/>
       <c r="R859" s="12"/>
@@ -18950,7 +18958,7 @@
       <c r="AF859" s="15"/>
       <c r="AG859" s="15"/>
     </row>
-    <row r="860" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="860" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P860" s="11"/>
       <c r="Q860" s="11"/>
       <c r="R860" s="12"/>
@@ -18969,7 +18977,7 @@
       <c r="AF860" s="15"/>
       <c r="AG860" s="15"/>
     </row>
-    <row r="861" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="861" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P861" s="11"/>
       <c r="Q861" s="11"/>
       <c r="R861" s="12"/>
@@ -18988,7 +18996,7 @@
       <c r="AF861" s="15"/>
       <c r="AG861" s="15"/>
     </row>
-    <row r="862" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="862" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P862" s="11"/>
       <c r="Q862" s="11"/>
       <c r="R862" s="12"/>
@@ -19007,7 +19015,7 @@
       <c r="AF862" s="15"/>
       <c r="AG862" s="15"/>
     </row>
-    <row r="863" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="863" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P863" s="11"/>
       <c r="Q863" s="11"/>
       <c r="R863" s="12"/>
@@ -19026,7 +19034,7 @@
       <c r="AF863" s="15"/>
       <c r="AG863" s="15"/>
     </row>
-    <row r="864" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="864" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P864" s="11"/>
       <c r="Q864" s="11"/>
       <c r="R864" s="12"/>
@@ -19045,7 +19053,7 @@
       <c r="AF864" s="15"/>
       <c r="AG864" s="15"/>
     </row>
-    <row r="865" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="865" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P865" s="11"/>
       <c r="Q865" s="11"/>
       <c r="R865" s="12"/>
@@ -19064,7 +19072,7 @@
       <c r="AF865" s="15"/>
       <c r="AG865" s="15"/>
     </row>
-    <row r="866" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="866" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P866" s="11"/>
       <c r="Q866" s="11"/>
       <c r="R866" s="12"/>
@@ -19083,7 +19091,7 @@
       <c r="AF866" s="11"/>
       <c r="AG866" s="11"/>
     </row>
-    <row r="867" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="867" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P867" s="11"/>
       <c r="Q867" s="11"/>
       <c r="R867" s="12"/>
@@ -19102,7 +19110,7 @@
       <c r="AF867" s="11"/>
       <c r="AG867" s="11"/>
     </row>
-    <row r="868" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="868" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P868" s="11"/>
       <c r="Q868" s="11"/>
       <c r="R868" s="12"/>
@@ -19121,7 +19129,7 @@
       <c r="AF868" s="11"/>
       <c r="AG868" s="15"/>
     </row>
-    <row r="869" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="869" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P869" s="11"/>
       <c r="Q869" s="11"/>
       <c r="R869" s="12"/>
@@ -19140,7 +19148,7 @@
       <c r="AF869" s="15"/>
       <c r="AG869" s="15"/>
     </row>
-    <row r="870" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="870" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P870" s="11"/>
       <c r="Q870" s="11"/>
       <c r="R870" s="12"/>
@@ -19159,7 +19167,7 @@
       <c r="AF870" s="15"/>
       <c r="AG870" s="15"/>
     </row>
-    <row r="871" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="871" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P871" s="11"/>
       <c r="Q871" s="11"/>
       <c r="R871" s="12"/>
@@ -19178,7 +19186,7 @@
       <c r="AF871" s="15"/>
       <c r="AG871" s="15"/>
     </row>
-    <row r="872" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="872" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P872" s="11"/>
       <c r="Q872" s="11"/>
       <c r="R872" s="12"/>
@@ -19197,7 +19205,7 @@
       <c r="AF872" s="15"/>
       <c r="AG872" s="15"/>
     </row>
-    <row r="873" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="873" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P873" s="11"/>
       <c r="Q873" s="11"/>
       <c r="R873" s="12"/>
@@ -19216,7 +19224,7 @@
       <c r="AF873" s="15"/>
       <c r="AG873" s="15"/>
     </row>
-    <row r="874" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="874" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P874" s="11"/>
       <c r="Q874" s="11"/>
       <c r="R874" s="12"/>
@@ -19235,7 +19243,7 @@
       <c r="AF874" s="15"/>
       <c r="AG874" s="15"/>
     </row>
-    <row r="875" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="875" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P875" s="11"/>
       <c r="Q875" s="11"/>
       <c r="R875" s="12"/>
@@ -19254,7 +19262,7 @@
       <c r="AF875" s="15"/>
       <c r="AG875" s="15"/>
     </row>
-    <row r="876" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="876" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P876" s="11"/>
       <c r="Q876" s="11"/>
       <c r="R876" s="12"/>
@@ -19273,7 +19281,7 @@
       <c r="AF876" s="15"/>
       <c r="AG876" s="15"/>
     </row>
-    <row r="877" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="877" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P877" s="11"/>
       <c r="Q877" s="11"/>
       <c r="R877" s="12"/>
@@ -19292,7 +19300,7 @@
       <c r="AF877" s="15"/>
       <c r="AG877" s="15"/>
     </row>
-    <row r="878" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="878" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P878" s="11"/>
       <c r="Q878" s="11"/>
       <c r="R878" s="12"/>
@@ -19311,7 +19319,7 @@
       <c r="AF878" s="15"/>
       <c r="AG878" s="15"/>
     </row>
-    <row r="879" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="879" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P879" s="11"/>
       <c r="Q879" s="11"/>
       <c r="R879" s="12"/>
@@ -19330,7 +19338,7 @@
       <c r="AF879" s="15"/>
       <c r="AG879" s="15"/>
     </row>
-    <row r="880" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="880" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P880" s="11"/>
       <c r="Q880" s="11"/>
       <c r="R880" s="12"/>
@@ -19349,7 +19357,7 @@
       <c r="AF880" s="15"/>
       <c r="AG880" s="15"/>
     </row>
-    <row r="881" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="881" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P881" s="11"/>
       <c r="Q881" s="11"/>
       <c r="R881" s="12"/>
@@ -19368,7 +19376,7 @@
       <c r="AF881" s="15"/>
       <c r="AG881" s="15"/>
     </row>
-    <row r="882" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="882" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P882" s="11"/>
       <c r="Q882" s="11"/>
       <c r="R882" s="12"/>
@@ -19387,7 +19395,7 @@
       <c r="AF882" s="15"/>
       <c r="AG882" s="15"/>
     </row>
-    <row r="883" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="883" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P883" s="11"/>
       <c r="Q883" s="11"/>
       <c r="R883" s="12"/>
@@ -19406,7 +19414,7 @@
       <c r="AF883" s="15"/>
       <c r="AG883" s="15"/>
     </row>
-    <row r="884" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="884" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P884" s="11"/>
       <c r="Q884" s="11"/>
       <c r="R884" s="12"/>
@@ -19425,7 +19433,7 @@
       <c r="AF884" s="15"/>
       <c r="AG884" s="15"/>
     </row>
-    <row r="885" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="885" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P885" s="11"/>
       <c r="Q885" s="11"/>
       <c r="R885" s="12"/>
@@ -19444,7 +19452,7 @@
       <c r="AF885" s="15"/>
       <c r="AG885" s="15"/>
     </row>
-    <row r="886" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="886" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P886" s="11"/>
       <c r="Q886" s="11"/>
       <c r="R886" s="12"/>
@@ -19463,7 +19471,7 @@
       <c r="AF886" s="15"/>
       <c r="AG886" s="15"/>
     </row>
-    <row r="887" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="887" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P887" s="11"/>
       <c r="Q887" s="11"/>
       <c r="R887" s="12"/>
@@ -19482,7 +19490,7 @@
       <c r="AF887" s="15"/>
       <c r="AG887" s="15"/>
     </row>
-    <row r="888" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="888" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P888" s="11"/>
       <c r="Q888" s="11"/>
       <c r="R888" s="12"/>
@@ -19501,7 +19509,7 @@
       <c r="AF888" s="15"/>
       <c r="AG888" s="15"/>
     </row>
-    <row r="889" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="889" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P889" s="11"/>
       <c r="Q889" s="11"/>
       <c r="R889" s="12"/>
@@ -19520,7 +19528,7 @@
       <c r="AF889" s="15"/>
       <c r="AG889" s="15"/>
     </row>
-    <row r="890" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="890" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P890" s="11"/>
       <c r="Q890" s="11"/>
       <c r="R890" s="12"/>
@@ -19539,7 +19547,7 @@
       <c r="AF890" s="15"/>
       <c r="AG890" s="15"/>
     </row>
-    <row r="891" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="891" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P891" s="11"/>
       <c r="Q891" s="11"/>
       <c r="R891" s="12"/>
@@ -19558,7 +19566,7 @@
       <c r="AF891" s="15"/>
       <c r="AG891" s="15"/>
     </row>
-    <row r="892" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="892" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P892" s="11"/>
       <c r="Q892" s="11"/>
       <c r="R892" s="12"/>
@@ -19577,7 +19585,7 @@
       <c r="AF892" s="15"/>
       <c r="AG892" s="15"/>
     </row>
-    <row r="893" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="893" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P893" s="11"/>
       <c r="Q893" s="11"/>
       <c r="R893" s="12"/>
@@ -19596,7 +19604,7 @@
       <c r="AF893" s="15"/>
       <c r="AG893" s="15"/>
     </row>
-    <row r="894" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="894" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P894" s="11"/>
       <c r="Q894" s="11"/>
       <c r="R894" s="12"/>
@@ -19615,7 +19623,7 @@
       <c r="AF894" s="15"/>
       <c r="AG894" s="15"/>
     </row>
-    <row r="895" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="895" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P895" s="11"/>
       <c r="Q895" s="11"/>
       <c r="R895" s="12"/>
@@ -19634,7 +19642,7 @@
       <c r="AF895" s="15"/>
       <c r="AG895" s="15"/>
     </row>
-    <row r="896" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="896" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P896" s="11"/>
       <c r="Q896" s="11"/>
       <c r="R896" s="12"/>
@@ -19653,7 +19661,7 @@
       <c r="AF896" s="15"/>
       <c r="AG896" s="15"/>
     </row>
-    <row r="897" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="897" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P897" s="11"/>
       <c r="Q897" s="11"/>
       <c r="R897" s="12"/>
@@ -19672,7 +19680,7 @@
       <c r="AF897" s="15"/>
       <c r="AG897" s="15"/>
     </row>
-    <row r="898" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="898" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P898" s="11"/>
       <c r="Q898" s="11"/>
       <c r="R898" s="12"/>
@@ -19691,7 +19699,7 @@
       <c r="AF898" s="15"/>
       <c r="AG898" s="15"/>
     </row>
-    <row r="899" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="899" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P899" s="11"/>
       <c r="Q899" s="11"/>
       <c r="R899" s="12"/>
@@ -19710,7 +19718,7 @@
       <c r="AF899" s="15"/>
       <c r="AG899" s="15"/>
     </row>
-    <row r="900" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="900" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P900" s="11"/>
       <c r="Q900" s="11"/>
       <c r="R900" s="12"/>
@@ -19729,7 +19737,7 @@
       <c r="AF900" s="15"/>
       <c r="AG900" s="15"/>
     </row>
-    <row r="901" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="901" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P901" s="11"/>
       <c r="Q901" s="11"/>
       <c r="R901" s="12"/>
@@ -19748,7 +19756,7 @@
       <c r="AF901" s="15"/>
       <c r="AG901" s="15"/>
     </row>
-    <row r="902" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="902" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P902" s="11"/>
       <c r="Q902" s="11"/>
       <c r="R902" s="12"/>
@@ -19767,7 +19775,7 @@
       <c r="AF902" s="15"/>
       <c r="AG902" s="15"/>
     </row>
-    <row r="903" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="903" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P903" s="11"/>
       <c r="Q903" s="11"/>
       <c r="R903" s="12"/>
@@ -19786,7 +19794,7 @@
       <c r="AF903" s="15"/>
       <c r="AG903" s="15"/>
     </row>
-    <row r="904" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="904" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P904" s="11"/>
       <c r="Q904" s="11"/>
       <c r="R904" s="12"/>
@@ -19805,7 +19813,7 @@
       <c r="AF904" s="15"/>
       <c r="AG904" s="15"/>
     </row>
-    <row r="905" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="905" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P905" s="11"/>
       <c r="Q905" s="11"/>
       <c r="R905" s="12"/>
@@ -19824,7 +19832,7 @@
       <c r="AF905" s="11"/>
       <c r="AG905" s="11"/>
     </row>
-    <row r="906" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="906" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P906" s="11"/>
       <c r="Q906" s="11"/>
       <c r="R906" s="12"/>
@@ -19843,7 +19851,7 @@
       <c r="AF906" s="11"/>
       <c r="AG906" s="11"/>
     </row>
-    <row r="907" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="907" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P907" s="11"/>
       <c r="Q907" s="11"/>
       <c r="R907" s="12"/>
@@ -19862,7 +19870,7 @@
       <c r="AF907" s="11"/>
       <c r="AG907" s="11"/>
     </row>
-    <row r="908" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="908" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P908" s="11"/>
       <c r="Q908" s="11"/>
       <c r="R908" s="12"/>
@@ -19881,7 +19889,7 @@
       <c r="AF908" s="11"/>
       <c r="AG908" s="11"/>
     </row>
-    <row r="909" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="909" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P909" s="11"/>
       <c r="Q909" s="11"/>
       <c r="R909" s="12"/>
@@ -19900,7 +19908,7 @@
       <c r="AF909" s="11"/>
       <c r="AG909" s="11"/>
     </row>
-    <row r="910" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="910" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P910" s="11"/>
       <c r="Q910" s="11"/>
       <c r="R910" s="12"/>
@@ -19919,7 +19927,7 @@
       <c r="AF910" s="11"/>
       <c r="AG910" s="11"/>
     </row>
-    <row r="911" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="911" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P911" s="11"/>
       <c r="Q911" s="11"/>
       <c r="R911" s="12"/>
@@ -19938,7 +19946,7 @@
       <c r="AF911" s="11"/>
       <c r="AG911" s="11"/>
     </row>
-    <row r="912" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="912" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P912" s="11"/>
       <c r="Q912" s="11"/>
       <c r="R912" s="12"/>
@@ -19957,7 +19965,7 @@
       <c r="AF912" s="11"/>
       <c r="AG912" s="11"/>
     </row>
-    <row r="913" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="913" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P913" s="11"/>
       <c r="Q913" s="11"/>
       <c r="R913" s="12"/>
@@ -19976,7 +19984,7 @@
       <c r="AF913" s="11"/>
       <c r="AG913" s="11"/>
     </row>
-    <row r="914" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="914" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P914" s="11"/>
       <c r="Q914" s="11"/>
       <c r="R914" s="12"/>
@@ -19995,7 +20003,7 @@
       <c r="AF914" s="11"/>
       <c r="AG914" s="11"/>
     </row>
-    <row r="915" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="915" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P915" s="11"/>
       <c r="Q915" s="11"/>
       <c r="R915" s="12"/>
@@ -20014,7 +20022,7 @@
       <c r="AF915" s="11"/>
       <c r="AG915" s="11"/>
     </row>
-    <row r="916" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="916" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P916" s="11"/>
       <c r="Q916" s="11"/>
       <c r="R916" s="12"/>
@@ -20033,7 +20041,7 @@
       <c r="AF916" s="11"/>
       <c r="AG916" s="11"/>
     </row>
-    <row r="917" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="917" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P917" s="11"/>
       <c r="Q917" s="11"/>
       <c r="R917" s="12"/>
@@ -20052,7 +20060,7 @@
       <c r="AF917" s="11"/>
       <c r="AG917" s="11"/>
     </row>
-    <row r="918" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="918" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P918" s="11"/>
       <c r="Q918" s="11"/>
       <c r="R918" s="12"/>
@@ -20071,7 +20079,7 @@
       <c r="AF918" s="11"/>
       <c r="AG918" s="11"/>
     </row>
-    <row r="919" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="919" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P919" s="11"/>
       <c r="Q919" s="11"/>
       <c r="R919" s="12"/>
@@ -20090,7 +20098,7 @@
       <c r="AF919" s="11"/>
       <c r="AG919" s="15"/>
     </row>
-    <row r="920" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="920" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P920" s="11"/>
       <c r="Q920" s="11"/>
       <c r="R920" s="12"/>
@@ -20109,7 +20117,7 @@
       <c r="AF920" s="11"/>
       <c r="AG920" s="11"/>
     </row>
-    <row r="921" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="921" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P921" s="11"/>
       <c r="Q921" s="11"/>
       <c r="R921" s="12"/>
@@ -20128,7 +20136,7 @@
       <c r="AF921" s="11"/>
       <c r="AG921" s="11"/>
     </row>
-    <row r="922" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="922" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P922" s="11"/>
       <c r="Q922" s="11"/>
       <c r="R922" s="12"/>
@@ -20147,7 +20155,7 @@
       <c r="AF922" s="15"/>
       <c r="AG922" s="15"/>
     </row>
-    <row r="923" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="923" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P923" s="11"/>
       <c r="Q923" s="11"/>
       <c r="R923" s="12"/>
@@ -20166,7 +20174,7 @@
       <c r="AF923" s="15"/>
       <c r="AG923" s="15"/>
     </row>
-    <row r="924" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="924" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P924" s="11"/>
       <c r="Q924" s="11"/>
       <c r="R924" s="12"/>
@@ -20185,7 +20193,7 @@
       <c r="AF924" s="15"/>
       <c r="AG924" s="15"/>
     </row>
-    <row r="925" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="925" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P925" s="11"/>
       <c r="Q925" s="11"/>
       <c r="R925" s="12"/>
@@ -20204,7 +20212,7 @@
       <c r="AF925" s="15"/>
       <c r="AG925" s="15"/>
     </row>
-    <row r="926" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="926" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P926" s="11"/>
       <c r="Q926" s="11"/>
       <c r="R926" s="12"/>
@@ -20223,7 +20231,7 @@
       <c r="AF926" s="15"/>
       <c r="AG926" s="15"/>
     </row>
-    <row r="927" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="927" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P927" s="11"/>
       <c r="Q927" s="11"/>
       <c r="R927" s="12"/>
@@ -20242,7 +20250,7 @@
       <c r="AF927" s="15"/>
       <c r="AG927" s="15"/>
     </row>
-    <row r="928" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="928" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P928" s="11"/>
       <c r="Q928" s="11"/>
       <c r="R928" s="12"/>
@@ -20261,7 +20269,7 @@
       <c r="AF928" s="15"/>
       <c r="AG928" s="15"/>
     </row>
-    <row r="929" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="929" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P929" s="11"/>
       <c r="Q929" s="11"/>
       <c r="R929" s="12"/>
@@ -20280,7 +20288,7 @@
       <c r="AF929" s="15"/>
       <c r="AG929" s="15"/>
     </row>
-    <row r="930" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="930" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P930" s="11"/>
       <c r="Q930" s="11"/>
       <c r="R930" s="12"/>
@@ -20299,7 +20307,7 @@
       <c r="AF930" s="15"/>
       <c r="AG930" s="15"/>
     </row>
-    <row r="931" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="931" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P931" s="11"/>
       <c r="Q931" s="11"/>
       <c r="R931" s="12"/>
@@ -20318,7 +20326,7 @@
       <c r="AF931" s="15"/>
       <c r="AG931" s="15"/>
     </row>
-    <row r="932" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="932" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P932" s="11"/>
       <c r="Q932" s="11"/>
       <c r="R932" s="12"/>
@@ -20337,7 +20345,7 @@
       <c r="AF932" s="15"/>
       <c r="AG932" s="15"/>
     </row>
-    <row r="933" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="933" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P933" s="11"/>
       <c r="Q933" s="11"/>
       <c r="R933" s="12"/>
@@ -20356,7 +20364,7 @@
       <c r="AF933" s="15"/>
       <c r="AG933" s="15"/>
     </row>
-    <row r="934" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="934" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P934" s="11"/>
       <c r="Q934" s="11"/>
       <c r="R934" s="12"/>
@@ -20375,7 +20383,7 @@
       <c r="AF934" s="15"/>
       <c r="AG934" s="15"/>
     </row>
-    <row r="935" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="935" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P935" s="11"/>
       <c r="Q935" s="11"/>
       <c r="R935" s="12"/>
@@ -20394,7 +20402,7 @@
       <c r="AF935" s="15"/>
       <c r="AG935" s="15"/>
     </row>
-    <row r="936" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="936" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P936" s="11"/>
       <c r="Q936" s="11"/>
       <c r="R936" s="12"/>
@@ -20413,7 +20421,7 @@
       <c r="AF936" s="15"/>
       <c r="AG936" s="15"/>
     </row>
-    <row r="937" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="937" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P937" s="11"/>
       <c r="Q937" s="11"/>
       <c r="R937" s="12"/>
@@ -20432,7 +20440,7 @@
       <c r="AF937" s="15"/>
       <c r="AG937" s="15"/>
     </row>
-    <row r="938" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="938" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P938" s="11"/>
       <c r="Q938" s="11"/>
       <c r="R938" s="12"/>
@@ -20451,7 +20459,7 @@
       <c r="AF938" s="15"/>
       <c r="AG938" s="15"/>
     </row>
-    <row r="939" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="939" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P939" s="11"/>
       <c r="Q939" s="11"/>
       <c r="R939" s="12"/>
@@ -20470,7 +20478,7 @@
       <c r="AF939" s="15"/>
       <c r="AG939" s="15"/>
     </row>
-    <row r="940" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="940" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P940" s="11"/>
       <c r="Q940" s="11"/>
       <c r="R940" s="12"/>
@@ -20489,7 +20497,7 @@
       <c r="AF940" s="15"/>
       <c r="AG940" s="15"/>
     </row>
-    <row r="941" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="941" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P941" s="11"/>
       <c r="Q941" s="11"/>
       <c r="R941" s="12"/>
@@ -20508,7 +20516,7 @@
       <c r="AF941" s="15"/>
       <c r="AG941" s="15"/>
     </row>
-    <row r="942" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="942" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P942" s="11"/>
       <c r="Q942" s="11"/>
       <c r="R942" s="12"/>
@@ -20527,7 +20535,7 @@
       <c r="AF942" s="15"/>
       <c r="AG942" s="15"/>
     </row>
-    <row r="943" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="943" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P943" s="11"/>
       <c r="Q943" s="11"/>
       <c r="R943" s="12"/>
@@ -20546,7 +20554,7 @@
       <c r="AF943" s="15"/>
       <c r="AG943" s="15"/>
     </row>
-    <row r="944" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="944" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P944" s="11"/>
       <c r="Q944" s="11"/>
       <c r="R944" s="12"/>
@@ -20565,7 +20573,7 @@
       <c r="AF944" s="11"/>
       <c r="AG944" s="11"/>
     </row>
-    <row r="945" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="945" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P945" s="11"/>
       <c r="Q945" s="11"/>
       <c r="R945" s="12"/>
@@ -20584,7 +20592,7 @@
       <c r="AF945" s="11"/>
       <c r="AG945" s="11"/>
     </row>
-    <row r="946" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="946" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P946" s="11"/>
       <c r="Q946" s="11"/>
       <c r="R946" s="12"/>
@@ -20603,7 +20611,7 @@
       <c r="AF946" s="11"/>
       <c r="AG946" s="11"/>
     </row>
-    <row r="947" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="947" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P947" s="11"/>
       <c r="Q947" s="11"/>
       <c r="R947" s="12"/>
@@ -20622,7 +20630,7 @@
       <c r="AF947" s="11"/>
       <c r="AG947" s="11"/>
     </row>
-    <row r="948" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="948" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P948" s="11"/>
       <c r="Q948" s="11"/>
       <c r="R948" s="12"/>
@@ -20641,7 +20649,7 @@
       <c r="AF948" s="11"/>
       <c r="AG948" s="11"/>
     </row>
-    <row r="949" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="949" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P949" s="11"/>
       <c r="Q949" s="11"/>
       <c r="R949" s="12"/>
@@ -20660,7 +20668,7 @@
       <c r="AF949" s="11"/>
       <c r="AG949" s="11"/>
     </row>
-    <row r="950" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="950" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P950" s="11"/>
       <c r="Q950" s="11"/>
       <c r="R950" s="12"/>
@@ -20679,7 +20687,7 @@
       <c r="AF950" s="11"/>
       <c r="AG950" s="11"/>
     </row>
-    <row r="951" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="951" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P951" s="11"/>
       <c r="Q951" s="11"/>
       <c r="R951" s="12"/>
@@ -20698,7 +20706,7 @@
       <c r="AF951" s="11"/>
       <c r="AG951" s="11"/>
     </row>
-    <row r="952" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="952" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P952" s="11"/>
       <c r="Q952" s="11"/>
       <c r="R952" s="12"/>
@@ -20717,7 +20725,7 @@
       <c r="AF952" s="11"/>
       <c r="AG952" s="11"/>
     </row>
-    <row r="953" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="953" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P953" s="11"/>
       <c r="Q953" s="11"/>
       <c r="R953" s="12"/>
@@ -20736,7 +20744,7 @@
       <c r="AF953" s="11"/>
       <c r="AG953" s="15"/>
     </row>
-    <row r="954" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="954" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P954" s="11"/>
       <c r="Q954" s="11"/>
       <c r="R954" s="12"/>
@@ -20755,7 +20763,7 @@
       <c r="AF954" s="15"/>
       <c r="AG954" s="15"/>
     </row>
-    <row r="955" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="955" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P955" s="11"/>
       <c r="Q955" s="11"/>
       <c r="R955" s="12"/>
@@ -20774,7 +20782,7 @@
       <c r="AF955" s="15"/>
       <c r="AG955" s="15"/>
     </row>
-    <row r="956" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="956" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P956" s="11"/>
       <c r="Q956" s="11"/>
       <c r="R956" s="12"/>
@@ -20793,7 +20801,7 @@
       <c r="AF956" s="15"/>
       <c r="AG956" s="15"/>
     </row>
-    <row r="957" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="957" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P957" s="11"/>
       <c r="Q957" s="11"/>
       <c r="R957" s="12"/>
@@ -20812,7 +20820,7 @@
       <c r="AF957" s="15"/>
       <c r="AG957" s="15"/>
     </row>
-    <row r="958" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="958" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P958" s="11"/>
       <c r="Q958" s="11"/>
       <c r="R958" s="12"/>
@@ -20831,7 +20839,7 @@
       <c r="AF958" s="15"/>
       <c r="AG958" s="15"/>
     </row>
-    <row r="959" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="959" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P959" s="11"/>
       <c r="Q959" s="11"/>
       <c r="R959" s="12"/>
@@ -20850,7 +20858,7 @@
       <c r="AF959" s="15"/>
       <c r="AG959" s="15"/>
     </row>
-    <row r="960" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="960" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P960" s="11"/>
       <c r="Q960" s="11"/>
       <c r="R960" s="12"/>
@@ -20869,7 +20877,7 @@
       <c r="AF960" s="15"/>
       <c r="AG960" s="15"/>
     </row>
-    <row r="961" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="961" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P961" s="11"/>
       <c r="Q961" s="11"/>
       <c r="R961" s="12"/>
@@ -20888,7 +20896,7 @@
       <c r="AF961" s="15"/>
       <c r="AG961" s="15"/>
     </row>
-    <row r="962" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="962" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P962" s="11"/>
       <c r="Q962" s="11"/>
       <c r="R962" s="12"/>
@@ -20907,7 +20915,7 @@
       <c r="AF962" s="15"/>
       <c r="AG962" s="15"/>
     </row>
-    <row r="963" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="963" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P963" s="11"/>
       <c r="Q963" s="11"/>
       <c r="R963" s="12"/>
@@ -20926,7 +20934,7 @@
       <c r="AF963" s="15"/>
       <c r="AG963" s="15"/>
     </row>
-    <row r="964" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="964" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P964" s="11"/>
       <c r="Q964" s="11"/>
       <c r="R964" s="12"/>
@@ -20945,7 +20953,7 @@
       <c r="AF964" s="15"/>
       <c r="AG964" s="15"/>
     </row>
-    <row r="965" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="965" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P965" s="11"/>
       <c r="Q965" s="11"/>
       <c r="R965" s="12"/>
@@ -20964,7 +20972,7 @@
       <c r="AF965" s="15"/>
       <c r="AG965" s="15"/>
     </row>
-    <row r="966" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="966" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P966" s="11"/>
       <c r="Q966" s="11"/>
       <c r="R966" s="12"/>
@@ -20983,7 +20991,7 @@
       <c r="AF966" s="15"/>
       <c r="AG966" s="15"/>
     </row>
-    <row r="967" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="967" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P967" s="11"/>
       <c r="Q967" s="11"/>
       <c r="R967" s="12"/>
@@ -21002,7 +21010,7 @@
       <c r="AF967" s="15"/>
       <c r="AG967" s="15"/>
     </row>
-    <row r="968" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="968" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P968" s="11"/>
       <c r="Q968" s="11"/>
       <c r="R968" s="12"/>
@@ -21021,7 +21029,7 @@
       <c r="AF968" s="15"/>
       <c r="AG968" s="15"/>
     </row>
-    <row r="969" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="969" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P969" s="11"/>
       <c r="Q969" s="11"/>
       <c r="R969" s="12"/>
@@ -21040,7 +21048,7 @@
       <c r="AF969" s="15"/>
       <c r="AG969" s="15"/>
     </row>
-    <row r="970" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="970" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P970" s="11"/>
       <c r="Q970" s="11"/>
       <c r="R970" s="12"/>
@@ -21059,7 +21067,7 @@
       <c r="AF970" s="15"/>
       <c r="AG970" s="15"/>
     </row>
-    <row r="971" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="971" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P971" s="11"/>
       <c r="Q971" s="11"/>
       <c r="R971" s="12"/>
@@ -21078,7 +21086,7 @@
       <c r="AF971" s="15"/>
       <c r="AG971" s="15"/>
     </row>
-    <row r="972" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="972" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P972" s="11"/>
       <c r="Q972" s="11"/>
       <c r="R972" s="12"/>
@@ -21097,7 +21105,7 @@
       <c r="AF972" s="11"/>
       <c r="AG972" s="11"/>
     </row>
-    <row r="973" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="973" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P973" s="11"/>
       <c r="Q973" s="11"/>
       <c r="R973" s="12"/>
@@ -21116,7 +21124,7 @@
       <c r="AF973" s="11"/>
       <c r="AG973" s="11"/>
     </row>
-    <row r="974" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="974" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P974" s="11"/>
       <c r="Q974" s="11"/>
       <c r="R974" s="12"/>
@@ -21135,7 +21143,7 @@
       <c r="AF974" s="11"/>
       <c r="AG974" s="11"/>
     </row>
-    <row r="975" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="975" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P975" s="11"/>
       <c r="Q975" s="11"/>
       <c r="R975" s="12"/>
@@ -21154,7 +21162,7 @@
       <c r="AF975" s="11"/>
       <c r="AG975" s="11"/>
     </row>
-    <row r="976" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="976" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P976" s="11"/>
       <c r="Q976" s="11"/>
       <c r="R976" s="12"/>
@@ -21173,7 +21181,7 @@
       <c r="AF976" s="11"/>
       <c r="AG976" s="11"/>
     </row>
-    <row r="977" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="977" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P977" s="11"/>
       <c r="Q977" s="11"/>
       <c r="R977" s="12"/>
@@ -21192,7 +21200,7 @@
       <c r="AF977" s="15"/>
       <c r="AG977" s="15"/>
     </row>
-    <row r="978" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="978" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P978" s="11"/>
       <c r="Q978" s="11"/>
       <c r="R978" s="12"/>
@@ -21211,7 +21219,7 @@
       <c r="AF978" s="15"/>
       <c r="AG978" s="15"/>
     </row>
-    <row r="979" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="979" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P979" s="11"/>
       <c r="Q979" s="11"/>
       <c r="R979" s="12"/>
@@ -21230,7 +21238,7 @@
       <c r="AF979" s="15"/>
       <c r="AG979" s="15"/>
     </row>
-    <row r="980" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="980" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P980" s="11"/>
       <c r="Q980" s="11"/>
       <c r="R980" s="12"/>
@@ -21249,7 +21257,7 @@
       <c r="AF980" s="15"/>
       <c r="AG980" s="15"/>
     </row>
-    <row r="981" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="981" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P981" s="11"/>
       <c r="Q981" s="11"/>
       <c r="R981" s="12"/>
@@ -21268,7 +21276,7 @@
       <c r="AF981" s="15"/>
       <c r="AG981" s="15"/>
     </row>
-    <row r="982" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="982" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P982" s="11"/>
       <c r="Q982" s="11"/>
       <c r="R982" s="12"/>
@@ -21287,7 +21295,7 @@
       <c r="AF982" s="15"/>
       <c r="AG982" s="15"/>
     </row>
-    <row r="983" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="983" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P983" s="11"/>
       <c r="Q983" s="11"/>
       <c r="R983" s="12"/>
@@ -21306,7 +21314,7 @@
       <c r="AF983" s="15"/>
       <c r="AG983" s="15"/>
     </row>
-    <row r="984" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="984" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P984" s="11"/>
       <c r="Q984" s="11"/>
       <c r="R984" s="12"/>
@@ -21325,7 +21333,7 @@
       <c r="AF984" s="15"/>
       <c r="AG984" s="15"/>
     </row>
-    <row r="985" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="985" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P985" s="11"/>
       <c r="Q985" s="11"/>
       <c r="R985" s="12"/>
@@ -21344,7 +21352,7 @@
       <c r="AF985" s="15"/>
       <c r="AG985" s="15"/>
     </row>
-    <row r="986" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="986" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P986" s="11"/>
       <c r="Q986" s="11"/>
       <c r="R986" s="12"/>
@@ -21363,7 +21371,7 @@
       <c r="AF986" s="15"/>
       <c r="AG986" s="15"/>
     </row>
-    <row r="987" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="987" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P987" s="11"/>
       <c r="Q987" s="11"/>
       <c r="R987" s="12"/>
@@ -21382,7 +21390,7 @@
       <c r="AF987" s="15"/>
       <c r="AG987" s="15"/>
     </row>
-    <row r="988" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="988" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P988" s="11"/>
       <c r="Q988" s="11"/>
       <c r="R988" s="12"/>
@@ -21401,7 +21409,7 @@
       <c r="AF988" s="15"/>
       <c r="AG988" s="15"/>
     </row>
-    <row r="989" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="989" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P989" s="11"/>
       <c r="Q989" s="11"/>
       <c r="R989" s="12"/>
@@ -21420,7 +21428,7 @@
       <c r="AF989" s="15"/>
       <c r="AG989" s="15"/>
     </row>
-    <row r="990" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="990" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P990" s="11"/>
       <c r="Q990" s="11"/>
       <c r="R990" s="12"/>
@@ -21439,7 +21447,7 @@
       <c r="AF990" s="15"/>
       <c r="AG990" s="15"/>
     </row>
-    <row r="991" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="991" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P991" s="11"/>
       <c r="Q991" s="11"/>
       <c r="R991" s="12"/>
@@ -21458,7 +21466,7 @@
       <c r="AF991" s="15"/>
       <c r="AG991" s="15"/>
     </row>
-    <row r="992" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="992" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P992" s="11"/>
       <c r="Q992" s="11"/>
       <c r="R992" s="12"/>
@@ -21477,7 +21485,7 @@
       <c r="AF992" s="15"/>
       <c r="AG992" s="15"/>
     </row>
-    <row r="993" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="993" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P993" s="11"/>
       <c r="Q993" s="11"/>
       <c r="R993" s="12"/>
@@ -21496,7 +21504,7 @@
       <c r="AF993" s="15"/>
       <c r="AG993" s="15"/>
     </row>
-    <row r="994" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="994" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P994" s="11"/>
       <c r="Q994" s="11"/>
       <c r="R994" s="12"/>
@@ -21515,7 +21523,7 @@
       <c r="AF994" s="15"/>
       <c r="AG994" s="15"/>
     </row>
-    <row r="995" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="995" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P995" s="11"/>
       <c r="Q995" s="11"/>
       <c r="R995" s="12"/>
@@ -21534,7 +21542,7 @@
       <c r="AF995" s="15"/>
       <c r="AG995" s="15"/>
     </row>
-    <row r="996" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="996" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P996" s="11"/>
       <c r="Q996" s="11"/>
       <c r="R996" s="12"/>
@@ -21553,7 +21561,7 @@
       <c r="AF996" s="15"/>
       <c r="AG996" s="15"/>
     </row>
-    <row r="997" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="997" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P997" s="11"/>
       <c r="Q997" s="11"/>
       <c r="R997" s="12"/>
@@ -21572,7 +21580,7 @@
       <c r="AF997" s="15"/>
       <c r="AG997" s="15"/>
     </row>
-    <row r="998" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="998" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P998" s="11"/>
       <c r="Q998" s="11"/>
       <c r="R998" s="12"/>
@@ -21591,7 +21599,7 @@
       <c r="AF998" s="15"/>
       <c r="AG998" s="15"/>
     </row>
-    <row r="999" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="999" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P999" s="11"/>
       <c r="Q999" s="11"/>
       <c r="R999" s="12"/>
@@ -21610,7 +21618,7 @@
       <c r="AF999" s="15"/>
       <c r="AG999" s="15"/>
     </row>
-    <row r="1000" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1000" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1000" s="11"/>
       <c r="Q1000" s="11"/>
       <c r="R1000" s="12"/>
@@ -21629,7 +21637,7 @@
       <c r="AF1000" s="15"/>
       <c r="AG1000" s="15"/>
     </row>
-    <row r="1001" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1001" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1001" s="11"/>
       <c r="Q1001" s="11"/>
       <c r="R1001" s="12"/>
@@ -21648,7 +21656,7 @@
       <c r="AF1001" s="15"/>
       <c r="AG1001" s="15"/>
     </row>
-    <row r="1002" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1002" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1002" s="11"/>
       <c r="Q1002" s="11"/>
       <c r="R1002" s="12"/>
@@ -21667,7 +21675,7 @@
       <c r="AF1002" s="15"/>
       <c r="AG1002" s="15"/>
     </row>
-    <row r="1003" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1003" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1003" s="11"/>
       <c r="Q1003" s="11"/>
       <c r="R1003" s="12"/>
@@ -21686,7 +21694,7 @@
       <c r="AF1003" s="15"/>
       <c r="AG1003" s="15"/>
     </row>
-    <row r="1004" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1004" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1004" s="11"/>
       <c r="Q1004" s="11"/>
       <c r="R1004" s="12"/>
@@ -21705,7 +21713,7 @@
       <c r="AF1004" s="15"/>
       <c r="AG1004" s="15"/>
     </row>
-    <row r="1005" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1005" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1005" s="11"/>
       <c r="Q1005" s="11"/>
       <c r="R1005" s="12"/>
@@ -21724,7 +21732,7 @@
       <c r="AF1005" s="15"/>
       <c r="AG1005" s="15"/>
     </row>
-    <row r="1006" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1006" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1006" s="11"/>
       <c r="Q1006" s="11"/>
       <c r="R1006" s="12"/>
@@ -21743,7 +21751,7 @@
       <c r="AF1006" s="15"/>
       <c r="AG1006" s="15"/>
     </row>
-    <row r="1007" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1007" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1007" s="11"/>
       <c r="Q1007" s="11"/>
       <c r="R1007" s="12"/>
@@ -21762,7 +21770,7 @@
       <c r="AF1007" s="15"/>
       <c r="AG1007" s="15"/>
     </row>
-    <row r="1008" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1008" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1008" s="11"/>
       <c r="Q1008" s="11"/>
       <c r="R1008" s="12"/>
@@ -21781,7 +21789,7 @@
       <c r="AF1008" s="15"/>
       <c r="AG1008" s="15"/>
     </row>
-    <row r="1009" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1009" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1009" s="11"/>
       <c r="Q1009" s="11"/>
       <c r="R1009" s="12"/>
@@ -21800,7 +21808,7 @@
       <c r="AF1009" s="15"/>
       <c r="AG1009" s="15"/>
     </row>
-    <row r="1010" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1010" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1010" s="11"/>
       <c r="Q1010" s="11"/>
       <c r="R1010" s="12"/>
@@ -21819,7 +21827,7 @@
       <c r="AF1010" s="15"/>
       <c r="AG1010" s="15"/>
     </row>
-    <row r="1011" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1011" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1011" s="11"/>
       <c r="Q1011" s="11"/>
       <c r="R1011" s="12"/>
@@ -21838,7 +21846,7 @@
       <c r="AF1011" s="15"/>
       <c r="AG1011" s="15"/>
     </row>
-    <row r="1012" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1012" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1012" s="11"/>
       <c r="Q1012" s="11"/>
       <c r="R1012" s="12"/>
@@ -21857,7 +21865,7 @@
       <c r="AF1012" s="15"/>
       <c r="AG1012" s="15"/>
     </row>
-    <row r="1013" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1013" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1013" s="11"/>
       <c r="Q1013" s="11"/>
       <c r="R1013" s="12"/>
@@ -21876,7 +21884,7 @@
       <c r="AF1013" s="15"/>
       <c r="AG1013" s="15"/>
     </row>
-    <row r="1014" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1014" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1014" s="11"/>
       <c r="Q1014" s="11"/>
       <c r="R1014" s="12"/>
@@ -21895,7 +21903,7 @@
       <c r="AF1014" s="15"/>
       <c r="AG1014" s="15"/>
     </row>
-    <row r="1015" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1015" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1015" s="11"/>
       <c r="Q1015" s="11"/>
       <c r="R1015" s="12"/>
@@ -21914,7 +21922,7 @@
       <c r="AF1015" s="15"/>
       <c r="AG1015" s="15"/>
     </row>
-    <row r="1016" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1016" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1016" s="11"/>
       <c r="Q1016" s="11"/>
       <c r="R1016" s="12"/>
@@ -21933,7 +21941,7 @@
       <c r="AF1016" s="15"/>
       <c r="AG1016" s="15"/>
     </row>
-    <row r="1017" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1017" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1017" s="11"/>
       <c r="Q1017" s="11"/>
       <c r="R1017" s="12"/>
@@ -21952,7 +21960,7 @@
       <c r="AF1017" s="15"/>
       <c r="AG1017" s="15"/>
     </row>
-    <row r="1018" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1018" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1018" s="11"/>
       <c r="Q1018" s="11"/>
       <c r="R1018" s="12"/>
@@ -21971,7 +21979,7 @@
       <c r="AF1018" s="15"/>
       <c r="AG1018" s="15"/>
     </row>
-    <row r="1019" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1019" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1019" s="11"/>
       <c r="Q1019" s="11"/>
       <c r="R1019" s="12"/>
@@ -21990,7 +21998,7 @@
       <c r="AF1019" s="15"/>
       <c r="AG1019" s="15"/>
     </row>
-    <row r="1020" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1020" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1020" s="11"/>
       <c r="Q1020" s="11"/>
       <c r="R1020" s="12"/>
@@ -22009,7 +22017,7 @@
       <c r="AF1020" s="15"/>
       <c r="AG1020" s="15"/>
     </row>
-    <row r="1021" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1021" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1021" s="11"/>
       <c r="Q1021" s="11"/>
       <c r="R1021" s="12"/>
@@ -22028,7 +22036,7 @@
       <c r="AF1021" s="15"/>
       <c r="AG1021" s="15"/>
     </row>
-    <row r="1022" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1022" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1022" s="11"/>
       <c r="Q1022" s="11"/>
       <c r="R1022" s="12"/>
@@ -22047,7 +22055,7 @@
       <c r="AF1022" s="15"/>
       <c r="AG1022" s="15"/>
     </row>
-    <row r="1023" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1023" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1023" s="11"/>
       <c r="Q1023" s="11"/>
       <c r="R1023" s="12"/>
@@ -22066,7 +22074,7 @@
       <c r="AF1023" s="15"/>
       <c r="AG1023" s="15"/>
     </row>
-    <row r="1024" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1024" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1024" s="11"/>
       <c r="Q1024" s="11"/>
       <c r="R1024" s="12"/>
@@ -22085,7 +22093,7 @@
       <c r="AF1024" s="15"/>
       <c r="AG1024" s="15"/>
     </row>
-    <row r="1025" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1025" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1025" s="11"/>
       <c r="Q1025" s="11"/>
       <c r="R1025" s="12"/>
@@ -22104,7 +22112,7 @@
       <c r="AF1025" s="15"/>
       <c r="AG1025" s="15"/>
     </row>
-    <row r="1026" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1026" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1026" s="11"/>
       <c r="Q1026" s="11"/>
       <c r="R1026" s="12"/>
@@ -22123,7 +22131,7 @@
       <c r="AF1026" s="15"/>
       <c r="AG1026" s="15"/>
     </row>
-    <row r="1027" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1027" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1027" s="11"/>
       <c r="Q1027" s="11"/>
       <c r="R1027" s="12"/>
@@ -22142,7 +22150,7 @@
       <c r="AF1027" s="15"/>
       <c r="AG1027" s="15"/>
     </row>
-    <row r="1028" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1028" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1028" s="11"/>
       <c r="Q1028" s="11"/>
       <c r="R1028" s="12"/>
@@ -22161,7 +22169,7 @@
       <c r="AF1028" s="15"/>
       <c r="AG1028" s="15"/>
     </row>
-    <row r="1029" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1029" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1029" s="11"/>
       <c r="Q1029" s="11"/>
       <c r="R1029" s="12"/>
@@ -22180,7 +22188,7 @@
       <c r="AF1029" s="15"/>
       <c r="AG1029" s="15"/>
     </row>
-    <row r="1030" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1030" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1030" s="11"/>
       <c r="Q1030" s="11"/>
       <c r="R1030" s="12"/>
@@ -22199,7 +22207,7 @@
       <c r="AF1030" s="15"/>
       <c r="AG1030" s="15"/>
     </row>
-    <row r="1031" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1031" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1031" s="11"/>
       <c r="Q1031" s="11"/>
       <c r="R1031" s="12"/>
@@ -22218,7 +22226,7 @@
       <c r="AF1031" s="15"/>
       <c r="AG1031" s="15"/>
     </row>
-    <row r="1032" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1032" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1032" s="11"/>
       <c r="Q1032" s="11"/>
       <c r="R1032" s="12"/>
@@ -22237,7 +22245,7 @@
       <c r="AF1032" s="15"/>
       <c r="AG1032" s="15"/>
     </row>
-    <row r="1033" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1033" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1033" s="11"/>
       <c r="Q1033" s="11"/>
       <c r="R1033" s="12"/>
@@ -22256,7 +22264,7 @@
       <c r="AF1033" s="15"/>
       <c r="AG1033" s="15"/>
     </row>
-    <row r="1034" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1034" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1034" s="11"/>
       <c r="Q1034" s="11"/>
       <c r="R1034" s="12"/>
@@ -22275,7 +22283,7 @@
       <c r="AF1034" s="15"/>
       <c r="AG1034" s="15"/>
     </row>
-    <row r="1035" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1035" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1035" s="11"/>
       <c r="Q1035" s="11"/>
       <c r="R1035" s="12"/>
@@ -22294,7 +22302,7 @@
       <c r="AF1035" s="15"/>
       <c r="AG1035" s="15"/>
     </row>
-    <row r="1036" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1036" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1036" s="11"/>
       <c r="Q1036" s="11"/>
       <c r="R1036" s="12"/>
@@ -22313,7 +22321,7 @@
       <c r="AF1036" s="15"/>
       <c r="AG1036" s="15"/>
     </row>
-    <row r="1037" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1037" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1037" s="11"/>
       <c r="Q1037" s="11"/>
       <c r="R1037" s="12"/>
@@ -22332,7 +22340,7 @@
       <c r="AF1037" s="15"/>
       <c r="AG1037" s="15"/>
     </row>
-    <row r="1038" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1038" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1038" s="11"/>
       <c r="Q1038" s="11"/>
       <c r="R1038" s="12"/>
@@ -22351,7 +22359,7 @@
       <c r="AF1038" s="15"/>
       <c r="AG1038" s="15"/>
     </row>
-    <row r="1039" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1039" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1039" s="11"/>
       <c r="Q1039" s="11"/>
       <c r="R1039" s="12"/>
@@ -22370,7 +22378,7 @@
       <c r="AF1039" s="15"/>
       <c r="AG1039" s="15"/>
     </row>
-    <row r="1040" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1040" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1040" s="11"/>
       <c r="Q1040" s="11"/>
       <c r="R1040" s="12"/>
@@ -22389,7 +22397,7 @@
       <c r="AF1040" s="11"/>
       <c r="AG1040" s="11"/>
     </row>
-    <row r="1041" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1041" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1041" s="11"/>
       <c r="Q1041" s="11"/>
       <c r="R1041" s="12"/>
@@ -22408,7 +22416,7 @@
       <c r="AF1041" s="15"/>
       <c r="AG1041" s="15"/>
     </row>
-    <row r="1042" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1042" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1042" s="11"/>
       <c r="Q1042" s="11"/>
       <c r="R1042" s="12"/>
@@ -22427,7 +22435,7 @@
       <c r="AF1042" s="15"/>
       <c r="AG1042" s="15"/>
     </row>
-    <row r="1043" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1043" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1043" s="11"/>
       <c r="Q1043" s="11"/>
       <c r="R1043" s="12"/>
@@ -22446,7 +22454,7 @@
       <c r="AF1043" s="15"/>
       <c r="AG1043" s="15"/>
     </row>
-    <row r="1044" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1044" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1044" s="11"/>
       <c r="Q1044" s="11"/>
       <c r="R1044" s="12"/>
@@ -22465,7 +22473,7 @@
       <c r="AF1044" s="15"/>
       <c r="AG1044" s="15"/>
     </row>
-    <row r="1045" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1045" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1045" s="11"/>
       <c r="Q1045" s="11"/>
       <c r="R1045" s="12"/>
@@ -22484,7 +22492,7 @@
       <c r="AF1045" s="15"/>
       <c r="AG1045" s="15"/>
     </row>
-    <row r="1046" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1046" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1046" s="11"/>
       <c r="Q1046" s="11"/>
       <c r="R1046" s="12"/>
@@ -22503,7 +22511,7 @@
       <c r="AF1046" s="15"/>
       <c r="AG1046" s="15"/>
     </row>
-    <row r="1047" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1047" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1047" s="11"/>
       <c r="Q1047" s="11"/>
       <c r="R1047" s="12"/>
@@ -22522,7 +22530,7 @@
       <c r="AF1047" s="15"/>
       <c r="AG1047" s="15"/>
     </row>
-    <row r="1048" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1048" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1048" s="11"/>
       <c r="Q1048" s="11"/>
       <c r="R1048" s="12"/>
@@ -22541,7 +22549,7 @@
       <c r="AF1048" s="15"/>
       <c r="AG1048" s="15"/>
     </row>
-    <row r="1049" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1049" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1049" s="11"/>
       <c r="Q1049" s="11"/>
       <c r="R1049" s="12"/>
@@ -22560,7 +22568,7 @@
       <c r="AF1049" s="15"/>
       <c r="AG1049" s="15"/>
     </row>
-    <row r="1050" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1050" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1050" s="11"/>
       <c r="Q1050" s="11"/>
       <c r="R1050" s="12"/>
@@ -22579,7 +22587,7 @@
       <c r="AF1050" s="15"/>
       <c r="AG1050" s="15"/>
     </row>
-    <row r="1051" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1051" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1051" s="11"/>
       <c r="Q1051" s="11"/>
       <c r="R1051" s="12"/>
@@ -22598,7 +22606,7 @@
       <c r="AF1051" s="15"/>
       <c r="AG1051" s="15"/>
     </row>
-    <row r="1052" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1052" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1052" s="11"/>
       <c r="Q1052" s="11"/>
       <c r="R1052" s="12"/>
@@ -22617,7 +22625,7 @@
       <c r="AF1052" s="15"/>
       <c r="AG1052" s="15"/>
     </row>
-    <row r="1053" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1053" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1053" s="11"/>
       <c r="Q1053" s="11"/>
       <c r="R1053" s="12"/>
@@ -22636,7 +22644,7 @@
       <c r="AF1053" s="15"/>
       <c r="AG1053" s="15"/>
     </row>
-    <row r="1054" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1054" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1054" s="11"/>
       <c r="Q1054" s="11"/>
       <c r="R1054" s="12"/>
@@ -22655,7 +22663,7 @@
       <c r="AF1054" s="15"/>
       <c r="AG1054" s="15"/>
     </row>
-    <row r="1055" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1055" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1055" s="11"/>
       <c r="Q1055" s="11"/>
       <c r="R1055" s="12"/>
@@ -22674,7 +22682,7 @@
       <c r="AF1055" s="15"/>
       <c r="AG1055" s="15"/>
     </row>
-    <row r="1056" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1056" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1056" s="11"/>
       <c r="Q1056" s="11"/>
       <c r="R1056" s="12"/>
@@ -22693,7 +22701,7 @@
       <c r="AF1056" s="15"/>
       <c r="AG1056" s="15"/>
     </row>
-    <row r="1057" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1057" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1057" s="11"/>
       <c r="Q1057" s="11"/>
       <c r="R1057" s="12"/>
@@ -22712,7 +22720,7 @@
       <c r="AF1057" s="15"/>
       <c r="AG1057" s="15"/>
     </row>
-    <row r="1058" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1058" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1058" s="11"/>
       <c r="Q1058" s="11"/>
       <c r="R1058" s="12"/>
@@ -22731,7 +22739,7 @@
       <c r="AF1058" s="15"/>
       <c r="AG1058" s="15"/>
     </row>
-    <row r="1059" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1059" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1059" s="11"/>
       <c r="Q1059" s="11"/>
       <c r="R1059" s="12"/>
@@ -22750,7 +22758,7 @@
       <c r="AF1059" s="15"/>
       <c r="AG1059" s="15"/>
     </row>
-    <row r="1060" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1060" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1060" s="11"/>
       <c r="Q1060" s="11"/>
       <c r="R1060" s="12"/>
@@ -22769,7 +22777,7 @@
       <c r="AF1060" s="15"/>
       <c r="AG1060" s="15"/>
     </row>
-    <row r="1061" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1061" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1061" s="11"/>
       <c r="Q1061" s="11"/>
       <c r="R1061" s="12"/>
@@ -22788,7 +22796,7 @@
       <c r="AF1061" s="15"/>
       <c r="AG1061" s="15"/>
     </row>
-    <row r="1062" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1062" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1062" s="11"/>
       <c r="Q1062" s="11"/>
       <c r="R1062" s="12"/>
@@ -22807,7 +22815,7 @@
       <c r="AF1062" s="15"/>
       <c r="AG1062" s="15"/>
     </row>
-    <row r="1063" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1063" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1063" s="11"/>
       <c r="Q1063" s="11"/>
       <c r="R1063" s="12"/>
@@ -22826,7 +22834,7 @@
       <c r="AF1063" s="15"/>
       <c r="AG1063" s="15"/>
     </row>
-    <row r="1064" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1064" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1064" s="11"/>
       <c r="Q1064" s="11"/>
       <c r="R1064" s="12"/>
@@ -22845,7 +22853,7 @@
       <c r="AF1064" s="15"/>
       <c r="AG1064" s="15"/>
     </row>
-    <row r="1065" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1065" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1065" s="11"/>
       <c r="Q1065" s="11"/>
       <c r="R1065" s="12"/>
@@ -22864,7 +22872,7 @@
       <c r="AF1065" s="11"/>
       <c r="AG1065" s="11"/>
     </row>
-    <row r="1066" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1066" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1066" s="11"/>
       <c r="Q1066" s="11"/>
       <c r="R1066" s="12"/>
@@ -22883,7 +22891,7 @@
       <c r="AF1066" s="11"/>
       <c r="AG1066" s="11"/>
     </row>
-    <row r="1067" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1067" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1067" s="11"/>
       <c r="Q1067" s="11"/>
       <c r="R1067" s="12"/>
@@ -22902,7 +22910,7 @@
       <c r="AF1067" s="11"/>
       <c r="AG1067" s="15"/>
     </row>
-    <row r="1068" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1068" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1068" s="11"/>
       <c r="Q1068" s="11"/>
       <c r="R1068" s="12"/>
@@ -22921,7 +22929,7 @@
       <c r="AF1068" s="11"/>
       <c r="AG1068" s="15"/>
     </row>
-    <row r="1069" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1069" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1069" s="11"/>
       <c r="Q1069" s="11"/>
       <c r="R1069" s="12"/>
@@ -22940,7 +22948,7 @@
       <c r="AF1069" s="15"/>
       <c r="AG1069" s="15"/>
     </row>
-    <row r="1070" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1070" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1070" s="11"/>
       <c r="Q1070" s="11"/>
       <c r="R1070" s="12"/>
@@ -22959,7 +22967,7 @@
       <c r="AF1070" s="15"/>
       <c r="AG1070" s="15"/>
     </row>
-    <row r="1071" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1071" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1071" s="11"/>
       <c r="Q1071" s="11"/>
       <c r="R1071" s="12"/>
@@ -22978,7 +22986,7 @@
       <c r="AF1071" s="15"/>
       <c r="AG1071" s="15"/>
     </row>
-    <row r="1072" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1072" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1072" s="11"/>
       <c r="Q1072" s="11"/>
       <c r="R1072" s="12"/>
@@ -22997,7 +23005,7 @@
       <c r="AF1072" s="15"/>
       <c r="AG1072" s="15"/>
     </row>
-    <row r="1073" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1073" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1073" s="11"/>
       <c r="Q1073" s="11"/>
       <c r="R1073" s="12"/>
@@ -23016,7 +23024,7 @@
       <c r="AF1073" s="15"/>
       <c r="AG1073" s="15"/>
     </row>
-    <row r="1074" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1074" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1074" s="11"/>
       <c r="Q1074" s="11"/>
       <c r="R1074" s="12"/>
@@ -23035,7 +23043,7 @@
       <c r="AF1074" s="15"/>
       <c r="AG1074" s="15"/>
     </row>
-    <row r="1075" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1075" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1075" s="11"/>
       <c r="Q1075" s="11"/>
       <c r="R1075" s="12"/>
@@ -23054,7 +23062,7 @@
       <c r="AF1075" s="15"/>
       <c r="AG1075" s="15"/>
     </row>
-    <row r="1076" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1076" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1076" s="11"/>
       <c r="Q1076" s="11"/>
       <c r="R1076" s="12"/>
@@ -23073,7 +23081,7 @@
       <c r="AF1076" s="15"/>
       <c r="AG1076" s="15"/>
     </row>
-    <row r="1077" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1077" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1077" s="11"/>
       <c r="Q1077" s="11"/>
       <c r="R1077" s="12"/>
@@ -23092,7 +23100,7 @@
       <c r="AF1077" s="15"/>
       <c r="AG1077" s="15"/>
     </row>
-    <row r="1078" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1078" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1078" s="11"/>
       <c r="Q1078" s="11"/>
       <c r="R1078" s="12"/>
@@ -23111,7 +23119,7 @@
       <c r="AF1078" s="15"/>
       <c r="AG1078" s="15"/>
     </row>
-    <row r="1079" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1079" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1079" s="11"/>
       <c r="Q1079" s="11"/>
       <c r="R1079" s="12"/>
@@ -23130,7 +23138,7 @@
       <c r="AF1079" s="15"/>
       <c r="AG1079" s="15"/>
     </row>
-    <row r="1080" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1080" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1080" s="11"/>
       <c r="Q1080" s="11"/>
       <c r="R1080" s="12"/>
@@ -23149,7 +23157,7 @@
       <c r="AF1080" s="15"/>
       <c r="AG1080" s="15"/>
     </row>
-    <row r="1081" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1081" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1081" s="11"/>
       <c r="Q1081" s="11"/>
       <c r="R1081" s="12"/>
@@ -23168,7 +23176,7 @@
       <c r="AF1081" s="15"/>
       <c r="AG1081" s="15"/>
     </row>
-    <row r="1082" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1082" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1082" s="11"/>
       <c r="Q1082" s="11"/>
       <c r="R1082" s="12"/>
@@ -23187,7 +23195,7 @@
       <c r="AF1082" s="15"/>
       <c r="AG1082" s="15"/>
     </row>
-    <row r="1083" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1083" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1083" s="11"/>
       <c r="Q1083" s="11"/>
       <c r="R1083" s="12"/>
@@ -23206,7 +23214,7 @@
       <c r="AF1083" s="15"/>
       <c r="AG1083" s="15"/>
     </row>
-    <row r="1084" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1084" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1084" s="11"/>
       <c r="Q1084" s="11"/>
       <c r="R1084" s="12"/>
@@ -23225,7 +23233,7 @@
       <c r="AF1084" s="15"/>
       <c r="AG1084" s="15"/>
     </row>
-    <row r="1085" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1085" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1085" s="11"/>
       <c r="Q1085" s="11"/>
       <c r="R1085" s="12"/>
@@ -23244,7 +23252,7 @@
       <c r="AF1085" s="15"/>
       <c r="AG1085" s="15"/>
     </row>
-    <row r="1086" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1086" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1086" s="11"/>
       <c r="Q1086" s="11"/>
       <c r="R1086" s="12"/>
@@ -23263,7 +23271,7 @@
       <c r="AF1086" s="15"/>
       <c r="AG1086" s="15"/>
     </row>
-    <row r="1087" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1087" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1087" s="11"/>
       <c r="Q1087" s="11"/>
       <c r="R1087" s="12"/>
@@ -23282,7 +23290,7 @@
       <c r="AF1087" s="15"/>
       <c r="AG1087" s="15"/>
     </row>
-    <row r="1088" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1088" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1088" s="11"/>
       <c r="Q1088" s="11"/>
       <c r="R1088" s="12"/>
@@ -23301,7 +23309,7 @@
       <c r="AF1088" s="15"/>
       <c r="AG1088" s="15"/>
     </row>
-    <row r="1089" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1089" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1089" s="11"/>
       <c r="Q1089" s="11"/>
       <c r="R1089" s="12"/>
@@ -23320,7 +23328,7 @@
       <c r="AF1089" s="15"/>
       <c r="AG1089" s="15"/>
     </row>
-    <row r="1090" spans="16:33" x14ac:dyDescent="0.3">
+    <row r="1090" spans="16:33" x14ac:dyDescent="0.2">
       <c r="P1090" s="11"/>
       <c r="Q1090" s="11"/>
       <c r="R1090" s="12"/>
@@ -23341,6 +23349,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
